--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10520" yWindow="0" windowWidth="29340" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>External</t>
+  </si>
+  <si>
+    <t>External (UTS)</t>
+  </si>
+  <si>
+    <t>Richard Xu</t>
   </si>
 </sst>
 </file>
@@ -789,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -941,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C57" si="1">C12+7</f>
+        <f t="shared" ref="C13:C58" si="1">C12+7</f>
         <v>42439</v>
       </c>
     </row>
@@ -982,34 +988,33 @@
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="1"/>
         <v>42467</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="1"/>
+        <f>C17+7</f>
         <v>42474</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="1"/>
@@ -1018,10 +1023,10 @@
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="1"/>
@@ -1030,10 +1035,10 @@
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="1"/>
@@ -1042,10 +1047,10 @@
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="1"/>
@@ -1054,10 +1059,10 @@
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="1"/>
@@ -1066,10 +1071,10 @@
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="1"/>
@@ -1078,10 +1083,10 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="1"/>
@@ -1090,10 +1095,10 @@
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
@@ -1102,10 +1107,10 @@
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="1"/>
@@ -1114,10 +1119,10 @@
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
@@ -1126,7 +1131,7 @@
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>32</v>
@@ -1138,10 +1143,10 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="1"/>
@@ -1150,10 +1155,10 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="1"/>
@@ -1162,10 +1167,10 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
@@ -1174,10 +1179,10 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
@@ -1186,10 +1191,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
@@ -1198,10 +1203,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
@@ -1210,7 +1215,7 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>14</v>
@@ -1222,10 +1227,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
@@ -1234,10 +1239,10 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
@@ -1246,10 +1251,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
@@ -1258,10 +1263,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
@@ -1270,10 +1275,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
@@ -1282,10 +1287,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
@@ -1294,10 +1299,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
@@ -1306,10 +1311,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1318,10 +1323,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1330,10 +1335,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
@@ -1342,10 +1347,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
@@ -1354,10 +1359,10 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
@@ -1366,10 +1371,10 @@
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
@@ -1378,10 +1383,10 @@
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
@@ -1390,10 +1395,10 @@
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
@@ -1402,10 +1407,10 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
@@ -1414,10 +1419,10 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
@@ -1426,10 +1431,10 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
@@ -1438,10 +1443,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
@@ -1450,155 +1455,167 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C56" s="4">
-        <f>C55+7</f>
+        <f t="shared" si="1"/>
         <v>42740</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="1"/>
+        <f>C56+7</f>
         <v>42747</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C58" s="4">
+        <f t="shared" si="1"/>
         <v>42754</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C59" s="4">
-        <f>C58+7</f>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" ref="C60:C68" si="2">C59+7</f>
-        <v>42768</v>
+        <f>C59+7</f>
+        <v>42761</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" ref="C61:C69" si="2">C60+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="19">
+      <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C62" s="4">
         <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="19">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:3" ht="19">
+      <c r="A63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C63" s="4">
         <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="19">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" ht="19">
+      <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C64" s="4">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="19">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:3" ht="19">
+      <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C65" s="4">
         <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" ht="19">
+      <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C66" s="4">
         <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" ht="19">
+      <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
       </c>
@@ -1608,63 +1625,63 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A57" r:id="rId1"/>
-    <hyperlink ref="A34" r:id="rId2"/>
-    <hyperlink ref="A27" r:id="rId3"/>
-    <hyperlink ref="A26" r:id="rId4"/>
-    <hyperlink ref="A54" r:id="rId5"/>
-    <hyperlink ref="A47" r:id="rId6"/>
-    <hyperlink ref="A61" r:id="rId7"/>
-    <hyperlink ref="A31" r:id="rId8"/>
+    <hyperlink ref="A58" r:id="rId1"/>
+    <hyperlink ref="A35" r:id="rId2"/>
+    <hyperlink ref="A28" r:id="rId3"/>
+    <hyperlink ref="A27" r:id="rId4"/>
+    <hyperlink ref="A55" r:id="rId5"/>
+    <hyperlink ref="A48" r:id="rId6"/>
+    <hyperlink ref="A62" r:id="rId7"/>
+    <hyperlink ref="A32" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A50" r:id="rId11"/>
-    <hyperlink ref="A36" r:id="rId12"/>
-    <hyperlink ref="A40" r:id="rId13"/>
-    <hyperlink ref="A67" r:id="rId14"/>
-    <hyperlink ref="A48" r:id="rId15"/>
+    <hyperlink ref="A51" r:id="rId11"/>
+    <hyperlink ref="A37" r:id="rId12"/>
+    <hyperlink ref="A41" r:id="rId13"/>
+    <hyperlink ref="A68" r:id="rId14"/>
+    <hyperlink ref="A49" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A63" r:id="rId17"/>
-    <hyperlink ref="A42" r:id="rId18"/>
-    <hyperlink ref="A68" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A38" r:id="rId21"/>
-    <hyperlink ref="A35" r:id="rId22"/>
+    <hyperlink ref="A64" r:id="rId17"/>
+    <hyperlink ref="A43" r:id="rId18"/>
+    <hyperlink ref="A69" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A39" r:id="rId21"/>
+    <hyperlink ref="A36" r:id="rId22"/>
     <hyperlink ref="A16" r:id="rId23"/>
-    <hyperlink ref="A24" r:id="rId24"/>
-    <hyperlink ref="A62" r:id="rId25"/>
-    <hyperlink ref="A65" r:id="rId26"/>
-    <hyperlink ref="A46" r:id="rId27"/>
-    <hyperlink ref="A33" r:id="rId28"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A63" r:id="rId25"/>
+    <hyperlink ref="A66" r:id="rId26"/>
+    <hyperlink ref="A47" r:id="rId27"/>
+    <hyperlink ref="A34" r:id="rId28"/>
     <hyperlink ref="A15" r:id="rId29"/>
-    <hyperlink ref="A39" r:id="rId30"/>
-    <hyperlink ref="A28" r:id="rId31"/>
-    <hyperlink ref="A52" r:id="rId32"/>
-    <hyperlink ref="A19" r:id="rId33"/>
-    <hyperlink ref="A25" r:id="rId34"/>
-    <hyperlink ref="A32" r:id="rId35"/>
-    <hyperlink ref="A18" r:id="rId36"/>
-    <hyperlink ref="A41" r:id="rId37"/>
-    <hyperlink ref="A43" r:id="rId38"/>
-    <hyperlink ref="A44" r:id="rId39"/>
-    <hyperlink ref="A45" r:id="rId40"/>
-    <hyperlink ref="A23" r:id="rId41"/>
-    <hyperlink ref="A22" r:id="rId42"/>
-    <hyperlink ref="A58" r:id="rId43"/>
-    <hyperlink ref="A29" r:id="rId44"/>
-    <hyperlink ref="A37" r:id="rId45"/>
-    <hyperlink ref="A64" r:id="rId46"/>
-    <hyperlink ref="A59" r:id="rId47"/>
-    <hyperlink ref="A51" r:id="rId48"/>
-    <hyperlink ref="A17" r:id="rId49"/>
+    <hyperlink ref="A40" r:id="rId30"/>
+    <hyperlink ref="A29" r:id="rId31"/>
+    <hyperlink ref="A53" r:id="rId32"/>
+    <hyperlink ref="A20" r:id="rId33"/>
+    <hyperlink ref="A26" r:id="rId34"/>
+    <hyperlink ref="A33" r:id="rId35"/>
+    <hyperlink ref="A19" r:id="rId36"/>
+    <hyperlink ref="A42" r:id="rId37"/>
+    <hyperlink ref="A44" r:id="rId38"/>
+    <hyperlink ref="A45" r:id="rId39"/>
+    <hyperlink ref="A46" r:id="rId40"/>
+    <hyperlink ref="A24" r:id="rId41"/>
+    <hyperlink ref="A23" r:id="rId42"/>
+    <hyperlink ref="A59" r:id="rId43"/>
+    <hyperlink ref="A30" r:id="rId44"/>
+    <hyperlink ref="A38" r:id="rId45"/>
+    <hyperlink ref="A65" r:id="rId46"/>
+    <hyperlink ref="A60" r:id="rId47"/>
+    <hyperlink ref="A52" r:id="rId48"/>
+    <hyperlink ref="A18" r:id="rId49"/>
     <hyperlink ref="A6" r:id="rId50"/>
-    <hyperlink ref="A60" r:id="rId51"/>
-    <hyperlink ref="A66" r:id="rId52"/>
-    <hyperlink ref="A49" r:id="rId53"/>
-    <hyperlink ref="A20" r:id="rId54"/>
-    <hyperlink ref="A30" r:id="rId55"/>
-    <hyperlink ref="A56" r:id="rId56"/>
-    <hyperlink ref="A53" r:id="rId57"/>
+    <hyperlink ref="A61" r:id="rId51"/>
+    <hyperlink ref="A67" r:id="rId52"/>
+    <hyperlink ref="A50" r:id="rId53"/>
+    <hyperlink ref="A21" r:id="rId54"/>
+    <hyperlink ref="A31" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A54" r:id="rId57"/>
     <hyperlink ref="A7" r:id="rId58"/>
     <hyperlink ref="A8" r:id="rId59"/>
     <hyperlink ref="A10" r:id="rId60"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="0" windowWidth="29340" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -317,13 +317,19 @@
   </si>
   <si>
     <t>Richard Xu</t>
+  </si>
+  <si>
+    <t>Dilip Sarkar</t>
+  </si>
+  <si>
+    <t>External (U. Miami)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +403,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,7 +426,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -433,8 +444,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -448,8 +462,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -465,6 +480,9 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -795,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -947,7 +965,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C58" si="1">C12+7</f>
+        <f t="shared" ref="C13:C59" si="1">C12+7</f>
         <v>42439</v>
       </c>
     </row>
@@ -975,11 +993,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="19">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
+      <c r="A16" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="1"/>
@@ -1083,539 +1101,548 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="1"/>
-        <v>42523</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>42530</v>
+        <f>C24+7</f>
+        <v>42523</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="1"/>
-        <v>42537</v>
+        <v>42530</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>42544</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="1"/>
-        <v>42551</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="1"/>
-        <v>42558</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="1"/>
-        <v>42565</v>
+        <v>42558</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
-        <v>42572</v>
+        <v>42565</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
-        <v>42579</v>
+        <v>42572</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
-        <v>42586</v>
+        <v>42579</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
-        <v>42593</v>
+        <v>42586</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
-        <v>42600</v>
+        <v>42593</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
-        <v>42607</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
-        <v>42614</v>
+        <v>42607</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
-        <v>42621</v>
+        <v>42614</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
-        <v>42628</v>
+        <v>42621</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
-        <v>42635</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
-        <v>42642</v>
+        <v>42635</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
-        <v>42649</v>
+        <v>42642</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
-        <v>42656</v>
+        <v>42649</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
-        <v>42663</v>
+        <v>42656</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
-        <v>42670</v>
+        <v>42663</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
-        <v>42677</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
-        <v>42684</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
-        <v>42691</v>
+        <v>42684</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
-        <v>42698</v>
+        <v>42691</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
-        <v>42705</v>
+        <v>42698</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
-        <v>42712</v>
+        <v>42705</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
-        <v>42719</v>
+        <v>42712</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
-        <v>42726</v>
+        <v>42719</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
-        <v>42733</v>
+        <v>42726</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
-        <v>42740</v>
+        <v>42733</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C57" s="4">
-        <f>C56+7</f>
-        <v>42747</v>
+        <f t="shared" si="1"/>
+        <v>42740</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="1"/>
-        <v>42754</v>
+        <f>C57+7</f>
+        <v>42747</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4">
+        <f t="shared" si="1"/>
         <v>42754</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C60" s="4">
-        <f>C59+7</f>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" ref="C61:C69" si="2">C60+7</f>
-        <v>42768</v>
+        <f>C60+7</f>
+        <v>42761</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" ref="C62:C70" si="2">C61+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="19">
+      <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C63" s="4">
         <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="19">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" ht="19">
+      <c r="A64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C64" s="4">
         <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="19">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:3" ht="19">
+      <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C65" s="4">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" ht="19">
+      <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C66" s="4">
         <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" ht="19">
+      <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="19">
+      <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
       </c>
@@ -1625,67 +1652,67 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A58" r:id="rId1"/>
-    <hyperlink ref="A35" r:id="rId2"/>
-    <hyperlink ref="A28" r:id="rId3"/>
-    <hyperlink ref="A27" r:id="rId4"/>
-    <hyperlink ref="A55" r:id="rId5"/>
-    <hyperlink ref="A48" r:id="rId6"/>
-    <hyperlink ref="A62" r:id="rId7"/>
-    <hyperlink ref="A32" r:id="rId8"/>
+    <hyperlink ref="A59" r:id="rId1"/>
+    <hyperlink ref="A36" r:id="rId2"/>
+    <hyperlink ref="A29" r:id="rId3"/>
+    <hyperlink ref="A28" r:id="rId4"/>
+    <hyperlink ref="A56" r:id="rId5"/>
+    <hyperlink ref="A49" r:id="rId6"/>
+    <hyperlink ref="A63" r:id="rId7"/>
+    <hyperlink ref="A33" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A51" r:id="rId11"/>
-    <hyperlink ref="A37" r:id="rId12"/>
-    <hyperlink ref="A41" r:id="rId13"/>
-    <hyperlink ref="A68" r:id="rId14"/>
-    <hyperlink ref="A49" r:id="rId15"/>
+    <hyperlink ref="A52" r:id="rId11"/>
+    <hyperlink ref="A38" r:id="rId12"/>
+    <hyperlink ref="A42" r:id="rId13"/>
+    <hyperlink ref="A69" r:id="rId14"/>
+    <hyperlink ref="A50" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A64" r:id="rId17"/>
-    <hyperlink ref="A43" r:id="rId18"/>
-    <hyperlink ref="A69" r:id="rId19"/>
+    <hyperlink ref="A65" r:id="rId17"/>
+    <hyperlink ref="A44" r:id="rId18"/>
+    <hyperlink ref="A70" r:id="rId19"/>
     <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="A39" r:id="rId21"/>
-    <hyperlink ref="A36" r:id="rId22"/>
-    <hyperlink ref="A16" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A63" r:id="rId25"/>
-    <hyperlink ref="A66" r:id="rId26"/>
-    <hyperlink ref="A47" r:id="rId27"/>
-    <hyperlink ref="A34" r:id="rId28"/>
-    <hyperlink ref="A15" r:id="rId29"/>
-    <hyperlink ref="A40" r:id="rId30"/>
-    <hyperlink ref="A29" r:id="rId31"/>
-    <hyperlink ref="A53" r:id="rId32"/>
-    <hyperlink ref="A20" r:id="rId33"/>
-    <hyperlink ref="A26" r:id="rId34"/>
-    <hyperlink ref="A33" r:id="rId35"/>
-    <hyperlink ref="A19" r:id="rId36"/>
-    <hyperlink ref="A42" r:id="rId37"/>
-    <hyperlink ref="A44" r:id="rId38"/>
-    <hyperlink ref="A45" r:id="rId39"/>
-    <hyperlink ref="A46" r:id="rId40"/>
-    <hyperlink ref="A24" r:id="rId41"/>
-    <hyperlink ref="A23" r:id="rId42"/>
-    <hyperlink ref="A59" r:id="rId43"/>
-    <hyperlink ref="A30" r:id="rId44"/>
-    <hyperlink ref="A38" r:id="rId45"/>
-    <hyperlink ref="A65" r:id="rId46"/>
-    <hyperlink ref="A60" r:id="rId47"/>
-    <hyperlink ref="A52" r:id="rId48"/>
-    <hyperlink ref="A18" r:id="rId49"/>
-    <hyperlink ref="A6" r:id="rId50"/>
-    <hyperlink ref="A61" r:id="rId51"/>
-    <hyperlink ref="A67" r:id="rId52"/>
-    <hyperlink ref="A50" r:id="rId53"/>
-    <hyperlink ref="A21" r:id="rId54"/>
-    <hyperlink ref="A31" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
-    <hyperlink ref="A54" r:id="rId57"/>
-    <hyperlink ref="A7" r:id="rId58"/>
-    <hyperlink ref="A8" r:id="rId59"/>
-    <hyperlink ref="A10" r:id="rId60"/>
-    <hyperlink ref="A9" r:id="rId61"/>
+    <hyperlink ref="A40" r:id="rId21"/>
+    <hyperlink ref="A37" r:id="rId22"/>
+    <hyperlink ref="A26" r:id="rId23"/>
+    <hyperlink ref="A64" r:id="rId24"/>
+    <hyperlink ref="A67" r:id="rId25"/>
+    <hyperlink ref="A48" r:id="rId26"/>
+    <hyperlink ref="A35" r:id="rId27"/>
+    <hyperlink ref="A15" r:id="rId28"/>
+    <hyperlink ref="A41" r:id="rId29"/>
+    <hyperlink ref="A30" r:id="rId30"/>
+    <hyperlink ref="A54" r:id="rId31"/>
+    <hyperlink ref="A20" r:id="rId32"/>
+    <hyperlink ref="A27" r:id="rId33"/>
+    <hyperlink ref="A34" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="A43" r:id="rId36"/>
+    <hyperlink ref="A45" r:id="rId37"/>
+    <hyperlink ref="A46" r:id="rId38"/>
+    <hyperlink ref="A47" r:id="rId39"/>
+    <hyperlink ref="A24" r:id="rId40"/>
+    <hyperlink ref="A23" r:id="rId41"/>
+    <hyperlink ref="A60" r:id="rId42"/>
+    <hyperlink ref="A31" r:id="rId43"/>
+    <hyperlink ref="A39" r:id="rId44"/>
+    <hyperlink ref="A66" r:id="rId45"/>
+    <hyperlink ref="A61" r:id="rId46"/>
+    <hyperlink ref="A53" r:id="rId47"/>
+    <hyperlink ref="A18" r:id="rId48"/>
+    <hyperlink ref="A6" r:id="rId49"/>
+    <hyperlink ref="A62" r:id="rId50"/>
+    <hyperlink ref="A68" r:id="rId51"/>
+    <hyperlink ref="A51" r:id="rId52"/>
+    <hyperlink ref="A21" r:id="rId53"/>
+    <hyperlink ref="A32" r:id="rId54"/>
+    <hyperlink ref="A58" r:id="rId55"/>
+    <hyperlink ref="A55" r:id="rId56"/>
+    <hyperlink ref="A7" r:id="rId57"/>
+    <hyperlink ref="A8" r:id="rId58"/>
+    <hyperlink ref="A10" r:id="rId59"/>
+    <hyperlink ref="A9" r:id="rId60"/>
+    <hyperlink ref="A25" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>External (U. Miami)</t>
+  </si>
+  <si>
+    <t>Dr Michael Kasumovic</t>
+  </si>
+  <si>
+    <t>UNSW</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -813,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -828,11 +834,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -965,7 +971,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C59" si="1">C12+7</f>
+        <f t="shared" ref="C13:C60" si="1">C12+7</f>
         <v>42439</v>
       </c>
     </row>
@@ -993,7 +999,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="19">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1041,34 +1047,33 @@
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="1"/>
         <v>42488</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
+        <f>C20+7</f>
         <v>42495</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="1"/>
@@ -1077,10 +1082,10 @@
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="1"/>
@@ -1089,10 +1094,10 @@
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="1"/>
@@ -1101,43 +1106,43 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>42523</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4">
-        <f>C24+7</f>
-        <v>42523</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
+        <f>C25+7</f>
         <v>42530</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
@@ -1146,10 +1151,10 @@
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="1"/>
@@ -1158,10 +1163,10 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="1"/>
@@ -1170,7 +1175,7 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>32</v>
@@ -1182,10 +1187,10 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
@@ -1194,10 +1199,10 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
@@ -1206,10 +1211,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
@@ -1218,10 +1223,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
@@ -1230,10 +1235,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
@@ -1242,10 +1247,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
@@ -1254,7 +1259,7 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -1266,10 +1271,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
@@ -1278,10 +1283,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
@@ -1290,10 +1295,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
@@ -1302,10 +1307,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
@@ -1314,10 +1319,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
@@ -1326,10 +1331,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1338,10 +1343,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1350,10 +1355,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
@@ -1362,10 +1367,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
@@ -1374,10 +1379,10 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
@@ -1386,10 +1391,10 @@
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
@@ -1398,10 +1403,10 @@
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
@@ -1410,10 +1415,10 @@
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
@@ -1422,10 +1427,10 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
@@ -1434,10 +1439,10 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
@@ -1446,10 +1451,10 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
@@ -1458,10 +1463,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
@@ -1470,10 +1475,10 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
@@ -1482,10 +1487,10 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
@@ -1494,155 +1499,167 @@
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C58" s="4">
-        <f>C57+7</f>
+        <f t="shared" si="1"/>
         <v>42747</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="1"/>
+        <f>C58+7</f>
         <v>42754</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C60" s="4">
-        <v>42754</v>
+        <f t="shared" si="1"/>
+        <v>42761</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C61" s="4">
-        <f>C60+7</f>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" ref="C62:C70" si="2">C61+7</f>
-        <v>42768</v>
+        <f>C61+7</f>
+        <v>42761</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" ref="C63:C71" si="2">C62+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="19">
+      <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C64" s="4">
         <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="19">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:3" ht="19">
+      <c r="A65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C65" s="4">
         <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" ht="19">
+      <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C66" s="4">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" ht="19">
+      <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="19">
+      <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
       </c>
@@ -1652,67 +1669,68 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A59" r:id="rId1"/>
-    <hyperlink ref="A36" r:id="rId2"/>
-    <hyperlink ref="A29" r:id="rId3"/>
-    <hyperlink ref="A28" r:id="rId4"/>
-    <hyperlink ref="A56" r:id="rId5"/>
-    <hyperlink ref="A49" r:id="rId6"/>
-    <hyperlink ref="A63" r:id="rId7"/>
-    <hyperlink ref="A33" r:id="rId8"/>
+    <hyperlink ref="A60" r:id="rId1"/>
+    <hyperlink ref="A37" r:id="rId2"/>
+    <hyperlink ref="A30" r:id="rId3"/>
+    <hyperlink ref="A29" r:id="rId4"/>
+    <hyperlink ref="A57" r:id="rId5"/>
+    <hyperlink ref="A50" r:id="rId6"/>
+    <hyperlink ref="A64" r:id="rId7"/>
+    <hyperlink ref="A34" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A52" r:id="rId11"/>
-    <hyperlink ref="A38" r:id="rId12"/>
-    <hyperlink ref="A42" r:id="rId13"/>
-    <hyperlink ref="A69" r:id="rId14"/>
-    <hyperlink ref="A50" r:id="rId15"/>
+    <hyperlink ref="A53" r:id="rId11"/>
+    <hyperlink ref="A39" r:id="rId12"/>
+    <hyperlink ref="A43" r:id="rId13"/>
+    <hyperlink ref="A70" r:id="rId14"/>
+    <hyperlink ref="A51" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A65" r:id="rId17"/>
-    <hyperlink ref="A44" r:id="rId18"/>
-    <hyperlink ref="A70" r:id="rId19"/>
-    <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="A40" r:id="rId21"/>
-    <hyperlink ref="A37" r:id="rId22"/>
-    <hyperlink ref="A26" r:id="rId23"/>
-    <hyperlink ref="A64" r:id="rId24"/>
-    <hyperlink ref="A67" r:id="rId25"/>
-    <hyperlink ref="A48" r:id="rId26"/>
-    <hyperlink ref="A35" r:id="rId27"/>
+    <hyperlink ref="A66" r:id="rId17"/>
+    <hyperlink ref="A45" r:id="rId18"/>
+    <hyperlink ref="A71" r:id="rId19"/>
+    <hyperlink ref="A23" r:id="rId20"/>
+    <hyperlink ref="A41" r:id="rId21"/>
+    <hyperlink ref="A38" r:id="rId22"/>
+    <hyperlink ref="A27" r:id="rId23"/>
+    <hyperlink ref="A65" r:id="rId24"/>
+    <hyperlink ref="A68" r:id="rId25"/>
+    <hyperlink ref="A49" r:id="rId26"/>
+    <hyperlink ref="A36" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A41" r:id="rId29"/>
-    <hyperlink ref="A30" r:id="rId30"/>
-    <hyperlink ref="A54" r:id="rId31"/>
-    <hyperlink ref="A20" r:id="rId32"/>
-    <hyperlink ref="A27" r:id="rId33"/>
-    <hyperlink ref="A34" r:id="rId34"/>
+    <hyperlink ref="A42" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A55" r:id="rId31"/>
+    <hyperlink ref="A21" r:id="rId32"/>
+    <hyperlink ref="A28" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
     <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A43" r:id="rId36"/>
-    <hyperlink ref="A45" r:id="rId37"/>
-    <hyperlink ref="A46" r:id="rId38"/>
-    <hyperlink ref="A47" r:id="rId39"/>
-    <hyperlink ref="A24" r:id="rId40"/>
-    <hyperlink ref="A23" r:id="rId41"/>
-    <hyperlink ref="A60" r:id="rId42"/>
-    <hyperlink ref="A31" r:id="rId43"/>
-    <hyperlink ref="A39" r:id="rId44"/>
-    <hyperlink ref="A66" r:id="rId45"/>
-    <hyperlink ref="A61" r:id="rId46"/>
-    <hyperlink ref="A53" r:id="rId47"/>
+    <hyperlink ref="A44" r:id="rId36"/>
+    <hyperlink ref="A46" r:id="rId37"/>
+    <hyperlink ref="A47" r:id="rId38"/>
+    <hyperlink ref="A48" r:id="rId39"/>
+    <hyperlink ref="A25" r:id="rId40"/>
+    <hyperlink ref="A24" r:id="rId41"/>
+    <hyperlink ref="A61" r:id="rId42"/>
+    <hyperlink ref="A32" r:id="rId43"/>
+    <hyperlink ref="A40" r:id="rId44"/>
+    <hyperlink ref="A67" r:id="rId45"/>
+    <hyperlink ref="A62" r:id="rId46"/>
+    <hyperlink ref="A54" r:id="rId47"/>
     <hyperlink ref="A18" r:id="rId48"/>
     <hyperlink ref="A6" r:id="rId49"/>
-    <hyperlink ref="A62" r:id="rId50"/>
-    <hyperlink ref="A68" r:id="rId51"/>
-    <hyperlink ref="A51" r:id="rId52"/>
-    <hyperlink ref="A21" r:id="rId53"/>
-    <hyperlink ref="A32" r:id="rId54"/>
-    <hyperlink ref="A58" r:id="rId55"/>
-    <hyperlink ref="A55" r:id="rId56"/>
+    <hyperlink ref="A63" r:id="rId50"/>
+    <hyperlink ref="A69" r:id="rId51"/>
+    <hyperlink ref="A52" r:id="rId52"/>
+    <hyperlink ref="A22" r:id="rId53"/>
+    <hyperlink ref="A33" r:id="rId54"/>
+    <hyperlink ref="A59" r:id="rId55"/>
+    <hyperlink ref="A56" r:id="rId56"/>
     <hyperlink ref="A7" r:id="rId57"/>
     <hyperlink ref="A8" r:id="rId58"/>
     <hyperlink ref="A10" r:id="rId59"/>
     <hyperlink ref="A9" r:id="rId60"/>
-    <hyperlink ref="A25" r:id="rId61"/>
+    <hyperlink ref="A26" r:id="rId61"/>
+    <hyperlink ref="A20" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>UNSW</t>
+  </si>
+  <si>
+    <t>Oliver Bown</t>
+  </si>
+  <si>
+    <t>UNSW Art &amp; Design</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,8 +459,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,8 +476,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -489,6 +497,7 @@
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -819,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -971,7 +980,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C60" si="1">C12+7</f>
+        <f t="shared" ref="C13:C61" si="1">C12+7</f>
         <v>42439</v>
       </c>
     </row>
@@ -1057,11 +1066,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
+      <c r="A21" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C21" s="4">
         <f>C20+7</f>
@@ -1070,22 +1079,22 @@
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="1"/>
+        <f>C21+7</f>
         <v>42502</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="1"/>
@@ -1094,10 +1103,10 @@
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="1"/>
@@ -1106,10 +1115,10 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="1"/>
@@ -1118,43 +1127,43 @@
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>42530</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="4">
-        <f>C25+7</f>
-        <v>42530</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="1"/>
+        <f>C26+7</f>
         <v>42537</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="1"/>
@@ -1163,10 +1172,10 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="1"/>
@@ -1175,10 +1184,10 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="1"/>
@@ -1187,7 +1196,7 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>32</v>
@@ -1199,10 +1208,10 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
@@ -1211,10 +1220,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
@@ -1223,10 +1232,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
@@ -1235,10 +1244,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
@@ -1247,10 +1256,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
@@ -1259,10 +1268,10 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
@@ -1271,7 +1280,7 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>14</v>
@@ -1283,10 +1292,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
@@ -1295,10 +1304,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
@@ -1307,10 +1316,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
@@ -1319,10 +1328,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
@@ -1331,10 +1340,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1343,10 +1352,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1355,10 +1364,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
@@ -1367,10 +1376,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
@@ -1379,10 +1388,10 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
@@ -1391,10 +1400,10 @@
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
@@ -1403,10 +1412,10 @@
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
@@ -1415,10 +1424,10 @@
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
@@ -1427,10 +1436,10 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
@@ -1439,10 +1448,10 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
@@ -1451,10 +1460,10 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
@@ -1463,10 +1472,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
@@ -1475,10 +1484,10 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
@@ -1487,10 +1496,10 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
@@ -1499,10 +1508,10 @@
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
@@ -1511,155 +1520,167 @@
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C59" s="4">
-        <f>C58+7</f>
+        <f t="shared" si="1"/>
         <v>42754</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="1"/>
+        <f>C59+7</f>
         <v>42761</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C61" s="4">
-        <v>42754</v>
+        <f t="shared" si="1"/>
+        <v>42768</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C62" s="4">
-        <f>C61+7</f>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" ref="C63:C71" si="2">C62+7</f>
-        <v>42768</v>
+        <f>C62+7</f>
+        <v>42761</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" ref="C64:C72" si="2">C63+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19">
+      <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C65" s="4">
         <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" ht="19">
+      <c r="A66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C66" s="4">
         <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" ht="19">
+      <c r="A67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="19">
+      <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" ht="19">
+      <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C72" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
       </c>
@@ -1669,68 +1690,69 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1"/>
-    <hyperlink ref="A37" r:id="rId2"/>
-    <hyperlink ref="A30" r:id="rId3"/>
-    <hyperlink ref="A29" r:id="rId4"/>
-    <hyperlink ref="A57" r:id="rId5"/>
-    <hyperlink ref="A50" r:id="rId6"/>
-    <hyperlink ref="A64" r:id="rId7"/>
-    <hyperlink ref="A34" r:id="rId8"/>
+    <hyperlink ref="A61" r:id="rId1"/>
+    <hyperlink ref="A38" r:id="rId2"/>
+    <hyperlink ref="A31" r:id="rId3"/>
+    <hyperlink ref="A30" r:id="rId4"/>
+    <hyperlink ref="A58" r:id="rId5"/>
+    <hyperlink ref="A51" r:id="rId6"/>
+    <hyperlink ref="A65" r:id="rId7"/>
+    <hyperlink ref="A35" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A53" r:id="rId11"/>
-    <hyperlink ref="A39" r:id="rId12"/>
-    <hyperlink ref="A43" r:id="rId13"/>
-    <hyperlink ref="A70" r:id="rId14"/>
-    <hyperlink ref="A51" r:id="rId15"/>
+    <hyperlink ref="A54" r:id="rId11"/>
+    <hyperlink ref="A40" r:id="rId12"/>
+    <hyperlink ref="A44" r:id="rId13"/>
+    <hyperlink ref="A71" r:id="rId14"/>
+    <hyperlink ref="A52" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A66" r:id="rId17"/>
-    <hyperlink ref="A45" r:id="rId18"/>
-    <hyperlink ref="A71" r:id="rId19"/>
-    <hyperlink ref="A23" r:id="rId20"/>
-    <hyperlink ref="A41" r:id="rId21"/>
-    <hyperlink ref="A38" r:id="rId22"/>
-    <hyperlink ref="A27" r:id="rId23"/>
-    <hyperlink ref="A65" r:id="rId24"/>
-    <hyperlink ref="A68" r:id="rId25"/>
-    <hyperlink ref="A49" r:id="rId26"/>
-    <hyperlink ref="A36" r:id="rId27"/>
+    <hyperlink ref="A67" r:id="rId17"/>
+    <hyperlink ref="A46" r:id="rId18"/>
+    <hyperlink ref="A72" r:id="rId19"/>
+    <hyperlink ref="A24" r:id="rId20"/>
+    <hyperlink ref="A42" r:id="rId21"/>
+    <hyperlink ref="A39" r:id="rId22"/>
+    <hyperlink ref="A28" r:id="rId23"/>
+    <hyperlink ref="A66" r:id="rId24"/>
+    <hyperlink ref="A69" r:id="rId25"/>
+    <hyperlink ref="A50" r:id="rId26"/>
+    <hyperlink ref="A37" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A42" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A55" r:id="rId31"/>
-    <hyperlink ref="A21" r:id="rId32"/>
-    <hyperlink ref="A28" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A43" r:id="rId29"/>
+    <hyperlink ref="A32" r:id="rId30"/>
+    <hyperlink ref="A56" r:id="rId31"/>
+    <hyperlink ref="A22" r:id="rId32"/>
+    <hyperlink ref="A29" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A44" r:id="rId36"/>
-    <hyperlink ref="A46" r:id="rId37"/>
-    <hyperlink ref="A47" r:id="rId38"/>
-    <hyperlink ref="A48" r:id="rId39"/>
-    <hyperlink ref="A25" r:id="rId40"/>
-    <hyperlink ref="A24" r:id="rId41"/>
-    <hyperlink ref="A61" r:id="rId42"/>
-    <hyperlink ref="A32" r:id="rId43"/>
-    <hyperlink ref="A40" r:id="rId44"/>
-    <hyperlink ref="A67" r:id="rId45"/>
-    <hyperlink ref="A62" r:id="rId46"/>
-    <hyperlink ref="A54" r:id="rId47"/>
+    <hyperlink ref="A45" r:id="rId36"/>
+    <hyperlink ref="A47" r:id="rId37"/>
+    <hyperlink ref="A48" r:id="rId38"/>
+    <hyperlink ref="A49" r:id="rId39"/>
+    <hyperlink ref="A26" r:id="rId40"/>
+    <hyperlink ref="A25" r:id="rId41"/>
+    <hyperlink ref="A62" r:id="rId42"/>
+    <hyperlink ref="A33" r:id="rId43"/>
+    <hyperlink ref="A41" r:id="rId44"/>
+    <hyperlink ref="A68" r:id="rId45"/>
+    <hyperlink ref="A63" r:id="rId46"/>
+    <hyperlink ref="A55" r:id="rId47"/>
     <hyperlink ref="A18" r:id="rId48"/>
     <hyperlink ref="A6" r:id="rId49"/>
-    <hyperlink ref="A63" r:id="rId50"/>
-    <hyperlink ref="A69" r:id="rId51"/>
-    <hyperlink ref="A52" r:id="rId52"/>
-    <hyperlink ref="A22" r:id="rId53"/>
-    <hyperlink ref="A33" r:id="rId54"/>
-    <hyperlink ref="A59" r:id="rId55"/>
-    <hyperlink ref="A56" r:id="rId56"/>
+    <hyperlink ref="A64" r:id="rId50"/>
+    <hyperlink ref="A70" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A23" r:id="rId53"/>
+    <hyperlink ref="A34" r:id="rId54"/>
+    <hyperlink ref="A60" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
     <hyperlink ref="A7" r:id="rId57"/>
     <hyperlink ref="A8" r:id="rId58"/>
     <hyperlink ref="A10" r:id="rId59"/>
     <hyperlink ref="A9" r:id="rId60"/>
-    <hyperlink ref="A26" r:id="rId61"/>
+    <hyperlink ref="A27" r:id="rId61"/>
     <hyperlink ref="A20" r:id="rId62"/>
+    <hyperlink ref="A21" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -461,7 +461,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,7 +476,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1066,7 +1065,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B21" s="2" t="s">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -438,9 +438,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -477,7 +478,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -497,6 +498,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -830,7 +832,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1143,7 +1145,10 @@
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4">
+        <f>C26+7</f>
+        <v>42537</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
@@ -1153,8 +1158,8 @@
         <v>14</v>
       </c>
       <c r="C28" s="4">
-        <f>C26+7</f>
-        <v>42537</v>
+        <f>C27+7</f>
+        <v>42544</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
@@ -1166,7 +1171,7 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" si="1"/>
-        <v>42544</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
@@ -1178,7 +1183,7 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" si="1"/>
-        <v>42551</v>
+        <v>42558</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
@@ -1190,7 +1195,7 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" si="1"/>
-        <v>42558</v>
+        <v>42565</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
@@ -1202,7 +1207,7 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
-        <v>42565</v>
+        <v>42572</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
@@ -1214,7 +1219,7 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
-        <v>42572</v>
+        <v>42579</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
@@ -1226,7 +1231,7 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
-        <v>42579</v>
+        <v>42586</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
@@ -1238,7 +1243,7 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
-        <v>42586</v>
+        <v>42593</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19">
@@ -1250,7 +1255,7 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
-        <v>42593</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19">
@@ -1262,7 +1267,7 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
-        <v>42600</v>
+        <v>42607</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19">
@@ -1274,7 +1279,7 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
-        <v>42607</v>
+        <v>42614</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19">
@@ -1286,7 +1291,7 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
-        <v>42614</v>
+        <v>42621</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19">
@@ -1298,7 +1303,7 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
-        <v>42621</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19">
@@ -1310,7 +1315,7 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
-        <v>42628</v>
+        <v>42635</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19">
@@ -1322,7 +1327,7 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
-        <v>42635</v>
+        <v>42642</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19">
@@ -1334,7 +1339,7 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
-        <v>42642</v>
+        <v>42649</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19">
@@ -1346,7 +1351,7 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
-        <v>42649</v>
+        <v>42656</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19">
@@ -1358,7 +1363,7 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
-        <v>42656</v>
+        <v>42663</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19">
@@ -1370,7 +1375,7 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
-        <v>42663</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19">
@@ -1382,7 +1387,7 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
-        <v>42670</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19">
@@ -1394,7 +1399,7 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
-        <v>42677</v>
+        <v>42684</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19">
@@ -1406,7 +1411,7 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
-        <v>42684</v>
+        <v>42691</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19">
@@ -1418,7 +1423,7 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
-        <v>42691</v>
+        <v>42698</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19">
@@ -1430,7 +1435,7 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
-        <v>42698</v>
+        <v>42705</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19">
@@ -1442,7 +1447,7 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
-        <v>42705</v>
+        <v>42712</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19">
@@ -1454,7 +1459,7 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
-        <v>42712</v>
+        <v>42719</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19">
@@ -1466,7 +1471,7 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
-        <v>42719</v>
+        <v>42726</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19">
@@ -1478,7 +1483,7 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
-        <v>42726</v>
+        <v>42733</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19">
@@ -1490,7 +1495,7 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
-        <v>42733</v>
+        <v>42740</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
@@ -1502,7 +1507,7 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
-        <v>42740</v>
+        <v>42747</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
@@ -1514,7 +1519,7 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
-        <v>42747</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
@@ -1526,7 +1531,7 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" si="1"/>
-        <v>42754</v>
+        <v>42761</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
@@ -1538,7 +1543,7 @@
       </c>
       <c r="C60" s="4">
         <f>C59+7</f>
-        <v>42761</v>
+        <v>42768</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
@@ -1550,7 +1555,7 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" si="1"/>
-        <v>42768</v>
+        <v>42775</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -341,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,6 +420,21 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,7 +453,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,8 +476,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,8 +495,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -499,6 +521,9 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -829,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -981,7 +1006,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C61" si="1">C12+7</f>
+        <f t="shared" ref="C13:C62" si="1">C12+7</f>
         <v>42439</v>
       </c>
     </row>
@@ -1020,18 +1045,14 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19">
-      <c r="A17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>97</v>
-      </c>
+    <row r="17" spans="1:6" ht="19">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="4">
         <v>42467</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19">
+    <row r="18" spans="1:6" ht="19">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -1043,11 +1064,11 @@
         <v>42474</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" ht="19">
+      <c r="A19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4">
@@ -1055,7 +1076,7 @@
         <v>42481</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19">
+    <row r="20" spans="1:6" ht="19">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
@@ -1066,7 +1087,7 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19">
+    <row r="21" spans="1:6" ht="19">
       <c r="A21" s="1" t="s">
         <v>103</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>42495</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19">
+    <row r="22" spans="1:6" ht="19">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1090,120 +1111,123 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" ht="19">
+      <c r="A23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C22+7</f>
+        <v>42509</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="19">
+      <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" si="1"/>
-        <v>42509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="19">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="4">
+        <f>C23+7</f>
+        <v>42516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="4">
-        <f t="shared" si="1"/>
-        <v>42516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19">
+      <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="4">
-        <f t="shared" si="1"/>
-        <v>42523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="19">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>42530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19">
+      <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>42530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="19">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>42537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C27" s="4">
-        <f>C26+7</f>
-        <v>42537</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="19">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C28" s="4">
         <f>C27+7</f>
         <v>42544</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19">
+    <row r="29" spans="1:6" ht="19">
       <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4">
+        <f>C28+7</f>
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="4">
-        <f t="shared" si="1"/>
-        <v>42551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" si="1"/>
-        <v>42558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="19">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19">
+      <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="1"/>
-        <v>42565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="19">
-      <c r="A32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
@@ -1212,7 +1236,7 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -1224,10 +1248,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
@@ -1236,10 +1260,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
@@ -1248,10 +1272,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
@@ -1260,10 +1284,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
@@ -1272,10 +1296,10 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
@@ -1284,10 +1308,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
@@ -1296,7 +1320,7 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>14</v>
@@ -1308,10 +1332,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
@@ -1320,10 +1344,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
@@ -1332,10 +1356,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
@@ -1344,10 +1368,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1356,10 +1380,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1368,10 +1392,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
@@ -1380,10 +1404,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
@@ -1392,10 +1416,10 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
@@ -1404,10 +1428,10 @@
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
@@ -1416,10 +1440,10 @@
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
@@ -1428,10 +1452,10 @@
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
@@ -1440,10 +1464,10 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
@@ -1452,10 +1476,10 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
@@ -1464,10 +1488,10 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
@@ -1476,10 +1500,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
@@ -1488,10 +1512,10 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
@@ -1500,10 +1524,10 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
@@ -1512,10 +1536,10 @@
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
@@ -1524,10 +1548,10 @@
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="1"/>
@@ -1536,155 +1560,167 @@
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C60" s="4">
-        <f>C59+7</f>
+        <f t="shared" si="1"/>
         <v>42768</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="1"/>
+        <f>C60+7</f>
         <v>42775</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C62" s="4">
-        <v>42754</v>
+        <f t="shared" si="1"/>
+        <v>42782</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C63" s="4">
-        <f>C62+7</f>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" ref="C64:C72" si="2">C63+7</f>
-        <v>42768</v>
+        <f>C63+7</f>
+        <v>42761</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" ref="C65:C73" si="2">C64+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19">
+      <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C66" s="4">
         <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" ht="19">
+      <c r="A67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="19">
+      <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" ht="19">
+      <c r="A72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C72" s="4">
         <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3" ht="19">
+      <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C73" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
       </c>
@@ -1694,67 +1730,67 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A61" r:id="rId1"/>
-    <hyperlink ref="A38" r:id="rId2"/>
-    <hyperlink ref="A31" r:id="rId3"/>
-    <hyperlink ref="A30" r:id="rId4"/>
-    <hyperlink ref="A58" r:id="rId5"/>
-    <hyperlink ref="A51" r:id="rId6"/>
-    <hyperlink ref="A65" r:id="rId7"/>
-    <hyperlink ref="A35" r:id="rId8"/>
+    <hyperlink ref="A62" r:id="rId1"/>
+    <hyperlink ref="A39" r:id="rId2"/>
+    <hyperlink ref="A32" r:id="rId3"/>
+    <hyperlink ref="A31" r:id="rId4"/>
+    <hyperlink ref="A59" r:id="rId5"/>
+    <hyperlink ref="A52" r:id="rId6"/>
+    <hyperlink ref="A66" r:id="rId7"/>
+    <hyperlink ref="A36" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A54" r:id="rId11"/>
-    <hyperlink ref="A40" r:id="rId12"/>
-    <hyperlink ref="A44" r:id="rId13"/>
-    <hyperlink ref="A71" r:id="rId14"/>
-    <hyperlink ref="A52" r:id="rId15"/>
+    <hyperlink ref="A55" r:id="rId11"/>
+    <hyperlink ref="A41" r:id="rId12"/>
+    <hyperlink ref="A45" r:id="rId13"/>
+    <hyperlink ref="A72" r:id="rId14"/>
+    <hyperlink ref="A53" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A67" r:id="rId17"/>
-    <hyperlink ref="A46" r:id="rId18"/>
-    <hyperlink ref="A72" r:id="rId19"/>
-    <hyperlink ref="A24" r:id="rId20"/>
-    <hyperlink ref="A42" r:id="rId21"/>
-    <hyperlink ref="A39" r:id="rId22"/>
-    <hyperlink ref="A28" r:id="rId23"/>
-    <hyperlink ref="A66" r:id="rId24"/>
-    <hyperlink ref="A69" r:id="rId25"/>
-    <hyperlink ref="A50" r:id="rId26"/>
-    <hyperlink ref="A37" r:id="rId27"/>
+    <hyperlink ref="A68" r:id="rId17"/>
+    <hyperlink ref="A47" r:id="rId18"/>
+    <hyperlink ref="A73" r:id="rId19"/>
+    <hyperlink ref="A25" r:id="rId20"/>
+    <hyperlink ref="A43" r:id="rId21"/>
+    <hyperlink ref="A40" r:id="rId22"/>
+    <hyperlink ref="A29" r:id="rId23"/>
+    <hyperlink ref="A67" r:id="rId24"/>
+    <hyperlink ref="A70" r:id="rId25"/>
+    <hyperlink ref="A51" r:id="rId26"/>
+    <hyperlink ref="A38" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A43" r:id="rId29"/>
-    <hyperlink ref="A32" r:id="rId30"/>
-    <hyperlink ref="A56" r:id="rId31"/>
+    <hyperlink ref="A44" r:id="rId29"/>
+    <hyperlink ref="A33" r:id="rId30"/>
+    <hyperlink ref="A57" r:id="rId31"/>
     <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A29" r:id="rId33"/>
-    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A30" r:id="rId33"/>
+    <hyperlink ref="A37" r:id="rId34"/>
     <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A45" r:id="rId36"/>
-    <hyperlink ref="A47" r:id="rId37"/>
-    <hyperlink ref="A48" r:id="rId38"/>
-    <hyperlink ref="A49" r:id="rId39"/>
-    <hyperlink ref="A26" r:id="rId40"/>
-    <hyperlink ref="A25" r:id="rId41"/>
-    <hyperlink ref="A62" r:id="rId42"/>
-    <hyperlink ref="A33" r:id="rId43"/>
-    <hyperlink ref="A41" r:id="rId44"/>
-    <hyperlink ref="A68" r:id="rId45"/>
-    <hyperlink ref="A63" r:id="rId46"/>
-    <hyperlink ref="A55" r:id="rId47"/>
+    <hyperlink ref="A46" r:id="rId36"/>
+    <hyperlink ref="A48" r:id="rId37"/>
+    <hyperlink ref="A49" r:id="rId38"/>
+    <hyperlink ref="A50" r:id="rId39"/>
+    <hyperlink ref="A27" r:id="rId40"/>
+    <hyperlink ref="A26" r:id="rId41"/>
+    <hyperlink ref="A63" r:id="rId42"/>
+    <hyperlink ref="A34" r:id="rId43"/>
+    <hyperlink ref="A42" r:id="rId44"/>
+    <hyperlink ref="A69" r:id="rId45"/>
+    <hyperlink ref="A64" r:id="rId46"/>
+    <hyperlink ref="A56" r:id="rId47"/>
     <hyperlink ref="A18" r:id="rId48"/>
     <hyperlink ref="A6" r:id="rId49"/>
-    <hyperlink ref="A64" r:id="rId50"/>
-    <hyperlink ref="A70" r:id="rId51"/>
-    <hyperlink ref="A53" r:id="rId52"/>
-    <hyperlink ref="A23" r:id="rId53"/>
-    <hyperlink ref="A34" r:id="rId54"/>
-    <hyperlink ref="A60" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A65" r:id="rId50"/>
+    <hyperlink ref="A71" r:id="rId51"/>
+    <hyperlink ref="A54" r:id="rId52"/>
+    <hyperlink ref="A24" r:id="rId53"/>
+    <hyperlink ref="A35" r:id="rId54"/>
+    <hyperlink ref="A61" r:id="rId55"/>
+    <hyperlink ref="A58" r:id="rId56"/>
     <hyperlink ref="A7" r:id="rId57"/>
     <hyperlink ref="A8" r:id="rId58"/>
     <hyperlink ref="A10" r:id="rId59"/>
     <hyperlink ref="A9" r:id="rId60"/>
-    <hyperlink ref="A27" r:id="rId61"/>
+    <hyperlink ref="A28" r:id="rId61"/>
     <hyperlink ref="A20" r:id="rId62"/>
     <hyperlink ref="A21" r:id="rId63"/>
   </hyperlinks>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -453,9 +453,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -492,15 +495,15 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -524,6 +527,9 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -856,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -869,11 +875,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -1065,10 +1071,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="19">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4">
@@ -1112,7 +1118,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="19">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1122,9 +1128,9 @@
         <f>C22+7</f>
         <v>42509</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="19">
       <c r="A24" s="1" t="s">
@@ -1164,10 +1170,10 @@
     </row>
     <row r="27" spans="1:6" ht="19">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="1"/>
@@ -1176,15 +1182,17 @@
     </row>
     <row r="28" spans="1:6" ht="19">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C28" s="4">
         <f>C27+7</f>
         <v>42544</v>
       </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="19">
       <c r="A29" s="1" t="s">
@@ -1769,30 +1777,30 @@
     <hyperlink ref="A48" r:id="rId37"/>
     <hyperlink ref="A49" r:id="rId38"/>
     <hyperlink ref="A50" r:id="rId39"/>
-    <hyperlink ref="A27" r:id="rId40"/>
-    <hyperlink ref="A26" r:id="rId41"/>
-    <hyperlink ref="A63" r:id="rId42"/>
-    <hyperlink ref="A34" r:id="rId43"/>
-    <hyperlink ref="A42" r:id="rId44"/>
-    <hyperlink ref="A69" r:id="rId45"/>
-    <hyperlink ref="A64" r:id="rId46"/>
-    <hyperlink ref="A56" r:id="rId47"/>
-    <hyperlink ref="A18" r:id="rId48"/>
-    <hyperlink ref="A6" r:id="rId49"/>
-    <hyperlink ref="A65" r:id="rId50"/>
-    <hyperlink ref="A71" r:id="rId51"/>
-    <hyperlink ref="A54" r:id="rId52"/>
-    <hyperlink ref="A24" r:id="rId53"/>
-    <hyperlink ref="A35" r:id="rId54"/>
-    <hyperlink ref="A61" r:id="rId55"/>
-    <hyperlink ref="A58" r:id="rId56"/>
-    <hyperlink ref="A7" r:id="rId57"/>
-    <hyperlink ref="A8" r:id="rId58"/>
-    <hyperlink ref="A10" r:id="rId59"/>
-    <hyperlink ref="A9" r:id="rId60"/>
-    <hyperlink ref="A28" r:id="rId61"/>
-    <hyperlink ref="A20" r:id="rId62"/>
-    <hyperlink ref="A21" r:id="rId63"/>
+    <hyperlink ref="A26" r:id="rId40"/>
+    <hyperlink ref="A63" r:id="rId41"/>
+    <hyperlink ref="A34" r:id="rId42"/>
+    <hyperlink ref="A42" r:id="rId43"/>
+    <hyperlink ref="A69" r:id="rId44"/>
+    <hyperlink ref="A64" r:id="rId45"/>
+    <hyperlink ref="A56" r:id="rId46"/>
+    <hyperlink ref="A18" r:id="rId47"/>
+    <hyperlink ref="A6" r:id="rId48"/>
+    <hyperlink ref="A65" r:id="rId49"/>
+    <hyperlink ref="A71" r:id="rId50"/>
+    <hyperlink ref="A54" r:id="rId51"/>
+    <hyperlink ref="A24" r:id="rId52"/>
+    <hyperlink ref="A35" r:id="rId53"/>
+    <hyperlink ref="A61" r:id="rId54"/>
+    <hyperlink ref="A58" r:id="rId55"/>
+    <hyperlink ref="A7" r:id="rId56"/>
+    <hyperlink ref="A8" r:id="rId57"/>
+    <hyperlink ref="A10" r:id="rId58"/>
+    <hyperlink ref="A9" r:id="rId59"/>
+    <hyperlink ref="A20" r:id="rId60"/>
+    <hyperlink ref="A21" r:id="rId61"/>
+    <hyperlink ref="A28" r:id="rId62"/>
+    <hyperlink ref="A27" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="10680" yWindow="0" windowWidth="26260" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="25" spans="1:6" ht="19">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="1"/>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="26" spans="1:6" ht="19">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
@@ -1757,7 +1757,7 @@
     <hyperlink ref="A68" r:id="rId17"/>
     <hyperlink ref="A47" r:id="rId18"/>
     <hyperlink ref="A73" r:id="rId19"/>
-    <hyperlink ref="A25" r:id="rId20"/>
+    <hyperlink ref="A26" r:id="rId20"/>
     <hyperlink ref="A43" r:id="rId21"/>
     <hyperlink ref="A40" r:id="rId22"/>
     <hyperlink ref="A29" r:id="rId23"/>
@@ -1777,7 +1777,7 @@
     <hyperlink ref="A48" r:id="rId37"/>
     <hyperlink ref="A49" r:id="rId38"/>
     <hyperlink ref="A50" r:id="rId39"/>
-    <hyperlink ref="A26" r:id="rId40"/>
+    <hyperlink ref="A25" r:id="rId40"/>
     <hyperlink ref="A63" r:id="rId41"/>
     <hyperlink ref="A34" r:id="rId42"/>
     <hyperlink ref="A42" r:id="rId43"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="0" windowWidth="26260" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="10620" yWindow="0" windowWidth="26260" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,16 +421,17 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
       <sz val="14"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <u/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,10 +499,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -863,7 +864,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C28"/>
+      <selection activeCell="A22" sqref="A22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -875,11 +876,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -1106,31 +1107,31 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="19">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="8">
         <f>C21+7</f>
         <v>42502</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="8">
         <f>C22+7</f>
         <v>42509</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="19">
       <c r="A24" s="1" t="s">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="0" windowWidth="26260" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,9 +454,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,12 +501,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -531,6 +533,8 @@
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -863,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -876,11 +880,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -1119,7 +1123,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="19">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1146,13 +1150,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="19">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="8">
         <f t="shared" si="1"/>
         <v>42523</v>
       </c>
@@ -1209,10 +1213,10 @@
     </row>
     <row r="30" spans="1:6" ht="19">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="1"/>
@@ -1221,10 +1225,10 @@
     </row>
     <row r="31" spans="1:6" ht="19">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="1"/>
@@ -1233,10 +1237,10 @@
     </row>
     <row r="32" spans="1:6" ht="19">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
@@ -1245,7 +1249,7 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -1257,10 +1261,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
@@ -1269,10 +1273,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
@@ -1281,10 +1285,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
@@ -1293,10 +1297,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
@@ -1305,10 +1309,10 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
@@ -1317,10 +1321,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
@@ -1329,7 +1333,7 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>14</v>
@@ -1341,10 +1345,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
@@ -1353,10 +1357,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
@@ -1365,10 +1369,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
@@ -1377,10 +1381,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1389,10 +1393,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1401,10 +1405,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
@@ -1413,10 +1417,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
@@ -1740,48 +1744,48 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A62" r:id="rId1"/>
-    <hyperlink ref="A39" r:id="rId2"/>
-    <hyperlink ref="A32" r:id="rId3"/>
-    <hyperlink ref="A31" r:id="rId4"/>
+    <hyperlink ref="A38" r:id="rId2"/>
+    <hyperlink ref="A31" r:id="rId3"/>
+    <hyperlink ref="A30" r:id="rId4"/>
     <hyperlink ref="A59" r:id="rId5"/>
     <hyperlink ref="A52" r:id="rId6"/>
     <hyperlink ref="A66" r:id="rId7"/>
-    <hyperlink ref="A36" r:id="rId8"/>
+    <hyperlink ref="A35" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
     <hyperlink ref="A55" r:id="rId11"/>
-    <hyperlink ref="A41" r:id="rId12"/>
-    <hyperlink ref="A45" r:id="rId13"/>
+    <hyperlink ref="A40" r:id="rId12"/>
+    <hyperlink ref="A44" r:id="rId13"/>
     <hyperlink ref="A72" r:id="rId14"/>
     <hyperlink ref="A53" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
     <hyperlink ref="A68" r:id="rId17"/>
-    <hyperlink ref="A47" r:id="rId18"/>
+    <hyperlink ref="A46" r:id="rId18"/>
     <hyperlink ref="A73" r:id="rId19"/>
     <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A43" r:id="rId21"/>
-    <hyperlink ref="A40" r:id="rId22"/>
+    <hyperlink ref="A42" r:id="rId21"/>
+    <hyperlink ref="A39" r:id="rId22"/>
     <hyperlink ref="A29" r:id="rId23"/>
     <hyperlink ref="A67" r:id="rId24"/>
     <hyperlink ref="A70" r:id="rId25"/>
     <hyperlink ref="A51" r:id="rId26"/>
-    <hyperlink ref="A38" r:id="rId27"/>
+    <hyperlink ref="A37" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A44" r:id="rId29"/>
-    <hyperlink ref="A33" r:id="rId30"/>
+    <hyperlink ref="A43" r:id="rId29"/>
+    <hyperlink ref="A32" r:id="rId30"/>
     <hyperlink ref="A57" r:id="rId31"/>
     <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A30" r:id="rId33"/>
-    <hyperlink ref="A37" r:id="rId34"/>
+    <hyperlink ref="A47" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A46" r:id="rId36"/>
+    <hyperlink ref="A45" r:id="rId36"/>
     <hyperlink ref="A48" r:id="rId37"/>
     <hyperlink ref="A49" r:id="rId38"/>
     <hyperlink ref="A50" r:id="rId39"/>
     <hyperlink ref="A25" r:id="rId40"/>
     <hyperlink ref="A63" r:id="rId41"/>
-    <hyperlink ref="A34" r:id="rId42"/>
-    <hyperlink ref="A42" r:id="rId43"/>
+    <hyperlink ref="A33" r:id="rId42"/>
+    <hyperlink ref="A41" r:id="rId43"/>
     <hyperlink ref="A69" r:id="rId44"/>
     <hyperlink ref="A64" r:id="rId45"/>
     <hyperlink ref="A56" r:id="rId46"/>
@@ -1791,7 +1795,7 @@
     <hyperlink ref="A71" r:id="rId50"/>
     <hyperlink ref="A54" r:id="rId51"/>
     <hyperlink ref="A24" r:id="rId52"/>
-    <hyperlink ref="A35" r:id="rId53"/>
+    <hyperlink ref="A34" r:id="rId53"/>
     <hyperlink ref="A61" r:id="rId54"/>
     <hyperlink ref="A58" r:id="rId55"/>
     <hyperlink ref="A7" r:id="rId56"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="10980" yWindow="0" windowWidth="38940" windowHeight="27540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1017,7 +1017,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C62" si="1">C12+7</f>
+        <f t="shared" ref="C13:C63" si="1">C12+7</f>
         <v>42439</v>
       </c>
     </row>
@@ -1213,43 +1213,43 @@
     </row>
     <row r="30" spans="1:6" ht="19">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="1"/>
+        <f>C29+7</f>
         <v>42558</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="1"/>
+        <f>C30+7</f>
         <v>42565</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19">
       <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>42572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19">
+      <c r="A33" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="1"/>
-        <v>42572</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="19">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -1259,81 +1259,84 @@
         <v>42579</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19">
+    <row r="34" spans="1:7" ht="19">
       <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>42586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19">
+      <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>42586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>42593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="4">
-        <f t="shared" si="1"/>
-        <v>42593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19">
+      <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="4">
-        <f t="shared" si="1"/>
-        <v>42600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>42607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19">
+      <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="4">
-        <f t="shared" si="1"/>
-        <v>42607</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
+        <v>42614</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="19">
+      <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="4">
-        <f t="shared" si="1"/>
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19">
+      <c r="A40" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="1"/>
-        <v>42621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="19">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>14</v>
@@ -1343,96 +1346,96 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19">
+    <row r="41" spans="1:7" ht="19">
       <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="1"/>
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19">
+      <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="4">
-        <f t="shared" si="1"/>
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="19">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="4">
+        <f t="shared" si="1"/>
+        <v>42642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="4">
-        <f t="shared" si="1"/>
-        <v>42642</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="19">
-      <c r="A43" s="1" t="s">
+      <c r="C43" s="4">
+        <f t="shared" si="1"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19">
+      <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="4">
-        <f t="shared" si="1"/>
-        <v>42649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="4">
+        <f t="shared" si="1"/>
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19">
+      <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="4">
-        <f t="shared" si="1"/>
-        <v>42656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="19">
-      <c r="A45" s="1" t="s">
+      <c r="C45" s="4">
+        <f t="shared" si="1"/>
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19">
+      <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="4">
-        <f t="shared" si="1"/>
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="19">
-      <c r="A46" s="1" t="s">
+      <c r="C46" s="4">
+        <f t="shared" si="1"/>
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19">
+      <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="4">
-        <f t="shared" si="1"/>
-        <v>42670</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="19">
-      <c r="A47" s="1" t="s">
+      <c r="C47" s="4">
+        <f t="shared" si="1"/>
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19">
+      <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="1"/>
-        <v>42677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="19">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
@@ -1441,10 +1444,10 @@
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
@@ -1453,10 +1456,10 @@
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
@@ -1465,10 +1468,10 @@
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
@@ -1477,10 +1480,10 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
@@ -1489,10 +1492,10 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
@@ -1501,10 +1504,10 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
@@ -1513,10 +1516,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
@@ -1525,10 +1528,10 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
@@ -1537,10 +1540,10 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
@@ -1549,10 +1552,10 @@
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
@@ -1561,10 +1564,10 @@
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="1"/>
@@ -1573,10 +1576,10 @@
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" si="1"/>
@@ -1585,155 +1588,167 @@
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C61" s="4">
-        <f>C60+7</f>
+        <f t="shared" si="1"/>
         <v>42775</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="1"/>
+        <f>C61+7</f>
         <v>42782</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C63" s="4">
-        <v>42754</v>
+        <f t="shared" si="1"/>
+        <v>42789</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C64" s="4">
-        <f>C63+7</f>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" ref="C65:C73" si="2">C64+7</f>
-        <v>42768</v>
+        <f>C64+7</f>
+        <v>42761</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" ref="C66:C74" si="2">C65+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="19">
+      <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="19">
+      <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" ht="19">
+      <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C72" s="4">
         <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3" ht="19">
+      <c r="A73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C73" s="4">
         <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="19">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" ht="19">
+      <c r="A74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C74" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
       </c>
@@ -1743,61 +1758,61 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A62" r:id="rId1"/>
-    <hyperlink ref="A38" r:id="rId2"/>
-    <hyperlink ref="A31" r:id="rId3"/>
-    <hyperlink ref="A30" r:id="rId4"/>
-    <hyperlink ref="A59" r:id="rId5"/>
-    <hyperlink ref="A52" r:id="rId6"/>
-    <hyperlink ref="A66" r:id="rId7"/>
-    <hyperlink ref="A35" r:id="rId8"/>
+    <hyperlink ref="A63" r:id="rId1"/>
+    <hyperlink ref="A39" r:id="rId2"/>
+    <hyperlink ref="A32" r:id="rId3"/>
+    <hyperlink ref="A31" r:id="rId4"/>
+    <hyperlink ref="A60" r:id="rId5"/>
+    <hyperlink ref="A53" r:id="rId6"/>
+    <hyperlink ref="A67" r:id="rId7"/>
+    <hyperlink ref="A36" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A55" r:id="rId11"/>
-    <hyperlink ref="A40" r:id="rId12"/>
-    <hyperlink ref="A44" r:id="rId13"/>
-    <hyperlink ref="A72" r:id="rId14"/>
-    <hyperlink ref="A53" r:id="rId15"/>
+    <hyperlink ref="A56" r:id="rId11"/>
+    <hyperlink ref="A41" r:id="rId12"/>
+    <hyperlink ref="A45" r:id="rId13"/>
+    <hyperlink ref="A73" r:id="rId14"/>
+    <hyperlink ref="A54" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A68" r:id="rId17"/>
-    <hyperlink ref="A46" r:id="rId18"/>
-    <hyperlink ref="A73" r:id="rId19"/>
+    <hyperlink ref="A69" r:id="rId17"/>
+    <hyperlink ref="A47" r:id="rId18"/>
+    <hyperlink ref="A74" r:id="rId19"/>
     <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A42" r:id="rId21"/>
-    <hyperlink ref="A39" r:id="rId22"/>
+    <hyperlink ref="A43" r:id="rId21"/>
+    <hyperlink ref="A40" r:id="rId22"/>
     <hyperlink ref="A29" r:id="rId23"/>
-    <hyperlink ref="A67" r:id="rId24"/>
-    <hyperlink ref="A70" r:id="rId25"/>
-    <hyperlink ref="A51" r:id="rId26"/>
-    <hyperlink ref="A37" r:id="rId27"/>
+    <hyperlink ref="A68" r:id="rId24"/>
+    <hyperlink ref="A71" r:id="rId25"/>
+    <hyperlink ref="A52" r:id="rId26"/>
+    <hyperlink ref="A38" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A43" r:id="rId29"/>
-    <hyperlink ref="A32" r:id="rId30"/>
-    <hyperlink ref="A57" r:id="rId31"/>
+    <hyperlink ref="A44" r:id="rId29"/>
+    <hyperlink ref="A33" r:id="rId30"/>
+    <hyperlink ref="A58" r:id="rId31"/>
     <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A47" r:id="rId33"/>
-    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A48" r:id="rId33"/>
+    <hyperlink ref="A37" r:id="rId34"/>
     <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A45" r:id="rId36"/>
-    <hyperlink ref="A48" r:id="rId37"/>
-    <hyperlink ref="A49" r:id="rId38"/>
-    <hyperlink ref="A50" r:id="rId39"/>
+    <hyperlink ref="A46" r:id="rId36"/>
+    <hyperlink ref="A49" r:id="rId37"/>
+    <hyperlink ref="A50" r:id="rId38"/>
+    <hyperlink ref="A51" r:id="rId39"/>
     <hyperlink ref="A25" r:id="rId40"/>
-    <hyperlink ref="A63" r:id="rId41"/>
-    <hyperlink ref="A33" r:id="rId42"/>
-    <hyperlink ref="A41" r:id="rId43"/>
-    <hyperlink ref="A69" r:id="rId44"/>
-    <hyperlink ref="A64" r:id="rId45"/>
-    <hyperlink ref="A56" r:id="rId46"/>
+    <hyperlink ref="A64" r:id="rId41"/>
+    <hyperlink ref="A34" r:id="rId42"/>
+    <hyperlink ref="A42" r:id="rId43"/>
+    <hyperlink ref="A70" r:id="rId44"/>
+    <hyperlink ref="A65" r:id="rId45"/>
+    <hyperlink ref="A57" r:id="rId46"/>
     <hyperlink ref="A18" r:id="rId47"/>
     <hyperlink ref="A6" r:id="rId48"/>
-    <hyperlink ref="A65" r:id="rId49"/>
-    <hyperlink ref="A71" r:id="rId50"/>
-    <hyperlink ref="A54" r:id="rId51"/>
+    <hyperlink ref="A66" r:id="rId49"/>
+    <hyperlink ref="A72" r:id="rId50"/>
+    <hyperlink ref="A55" r:id="rId51"/>
     <hyperlink ref="A24" r:id="rId52"/>
-    <hyperlink ref="A34" r:id="rId53"/>
-    <hyperlink ref="A61" r:id="rId54"/>
-    <hyperlink ref="A58" r:id="rId55"/>
+    <hyperlink ref="A35" r:id="rId53"/>
+    <hyperlink ref="A62" r:id="rId54"/>
+    <hyperlink ref="A59" r:id="rId55"/>
     <hyperlink ref="A7" r:id="rId56"/>
     <hyperlink ref="A8" r:id="rId57"/>
     <hyperlink ref="A10" r:id="rId58"/>
@@ -1806,6 +1821,7 @@
     <hyperlink ref="A21" r:id="rId61"/>
     <hyperlink ref="A28" r:id="rId62"/>
     <hyperlink ref="A27" r:id="rId63"/>
+    <hyperlink ref="A30" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="0" windowWidth="38940" windowHeight="27540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>UNSW Art &amp; Design</t>
+  </si>
+  <si>
+    <t>ON FRIDAY DUE TO K17_113 AVAIL.</t>
+  </si>
+  <si>
+    <t>Jake Chandler</t>
+  </si>
+  <si>
+    <t>La Trobe University</t>
   </si>
 </sst>
 </file>
@@ -865,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1187,24 +1196,23 @@
     </row>
     <row r="28" spans="1:6" ht="19">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C28" s="4">
         <f>C27+7</f>
         <v>42544</v>
       </c>
-      <c r="E28" s="1"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="19">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4">
         <f>C28+7</f>
@@ -1213,10 +1221,10 @@
     </row>
     <row r="30" spans="1:6" ht="19">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4">
         <f>C29+7</f>
@@ -1225,10 +1233,10 @@
     </row>
     <row r="31" spans="1:6" ht="19">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4">
         <f>C30+7</f>
@@ -1237,10 +1245,10 @@
     </row>
     <row r="32" spans="1:6" ht="19">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
@@ -1249,10 +1257,10 @@
     </row>
     <row r="33" spans="1:7" ht="19">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
@@ -1261,7 +1269,7 @@
     </row>
     <row r="34" spans="1:7" ht="19">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -1273,10 +1281,10 @@
     </row>
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
@@ -1285,10 +1293,10 @@
     </row>
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
@@ -1297,10 +1305,10 @@
     </row>
     <row r="37" spans="1:7" ht="19">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
@@ -1309,10 +1317,10 @@
     </row>
     <row r="38" spans="1:7" ht="19">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
@@ -1324,10 +1332,10 @@
     </row>
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
@@ -1336,10 +1344,10 @@
     </row>
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
@@ -1348,7 +1356,7 @@
     </row>
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>14</v>
@@ -1360,10 +1368,10 @@
     </row>
     <row r="42" spans="1:7" ht="19">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
@@ -1372,10 +1380,10 @@
     </row>
     <row r="43" spans="1:7" ht="19">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
@@ -1384,10 +1392,10 @@
     </row>
     <row r="44" spans="1:7" ht="19">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1396,10 +1404,10 @@
     </row>
     <row r="45" spans="1:7" ht="19">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1408,34 +1416,35 @@
     </row>
     <row r="46" spans="1:7" ht="19">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="1"/>
-        <v>42670</v>
+        <v>42488</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="1"/>
         <v>42677</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
@@ -1444,10 +1453,10 @@
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
@@ -1456,10 +1465,10 @@
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
@@ -1468,10 +1477,10 @@
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
@@ -1480,10 +1489,10 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
@@ -1492,10 +1501,10 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
@@ -1504,10 +1513,10 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
@@ -1516,10 +1525,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
@@ -1528,10 +1537,10 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
@@ -1540,10 +1549,10 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
@@ -1552,10 +1561,10 @@
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
@@ -1564,10 +1573,10 @@
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="1"/>
@@ -1576,10 +1585,10 @@
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" si="1"/>
@@ -1588,10 +1597,10 @@
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C61" s="4">
         <f t="shared" si="1"/>
@@ -1600,10 +1609,10 @@
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C62" s="4">
         <f>C61+7</f>
@@ -1612,10 +1621,10 @@
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C63" s="4">
         <f t="shared" si="1"/>
@@ -1624,10 +1633,10 @@
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C64" s="4">
         <v>42754</v>
@@ -1635,10 +1644,10 @@
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C65" s="4">
         <f>C64+7</f>
@@ -1647,10 +1656,10 @@
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C66" s="4">
         <f t="shared" ref="C66:C74" si="2">C65+7</f>
@@ -1659,10 +1668,10 @@
     </row>
     <row r="67" spans="1:3" ht="19">
       <c r="A67" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C67" s="4">
         <f t="shared" si="2"/>
@@ -1671,10 +1680,10 @@
     </row>
     <row r="68" spans="1:3" ht="19">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C68" s="4">
         <f t="shared" si="2"/>
@@ -1683,10 +1692,10 @@
     </row>
     <row r="69" spans="1:3" ht="19">
       <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C69" s="4">
         <f t="shared" si="2"/>
@@ -1695,10 +1704,10 @@
     </row>
     <row r="70" spans="1:3" ht="19">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C70" s="4">
         <f t="shared" si="2"/>
@@ -1707,10 +1716,10 @@
     </row>
     <row r="71" spans="1:3" ht="19">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C71" s="4">
         <f t="shared" si="2"/>
@@ -1719,10 +1728,10 @@
     </row>
     <row r="72" spans="1:3" ht="19">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C72" s="4">
         <f t="shared" si="2"/>
@@ -1731,10 +1740,10 @@
     </row>
     <row r="73" spans="1:3" ht="19">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C73" s="4">
         <f t="shared" si="2"/>
@@ -1743,14 +1752,22 @@
     </row>
     <row r="74" spans="1:3" ht="19">
       <c r="A74" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C74" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="19">
+      <c r="A75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1758,70 +1775,71 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A63" r:id="rId1"/>
-    <hyperlink ref="A39" r:id="rId2"/>
-    <hyperlink ref="A32" r:id="rId3"/>
-    <hyperlink ref="A31" r:id="rId4"/>
-    <hyperlink ref="A60" r:id="rId5"/>
-    <hyperlink ref="A53" r:id="rId6"/>
-    <hyperlink ref="A67" r:id="rId7"/>
-    <hyperlink ref="A36" r:id="rId8"/>
+    <hyperlink ref="A64" r:id="rId1"/>
+    <hyperlink ref="A40" r:id="rId2"/>
+    <hyperlink ref="A33" r:id="rId3"/>
+    <hyperlink ref="A32" r:id="rId4"/>
+    <hyperlink ref="A61" r:id="rId5"/>
+    <hyperlink ref="A54" r:id="rId6"/>
+    <hyperlink ref="A68" r:id="rId7"/>
+    <hyperlink ref="A37" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A56" r:id="rId11"/>
-    <hyperlink ref="A41" r:id="rId12"/>
-    <hyperlink ref="A45" r:id="rId13"/>
-    <hyperlink ref="A73" r:id="rId14"/>
-    <hyperlink ref="A54" r:id="rId15"/>
+    <hyperlink ref="A57" r:id="rId11"/>
+    <hyperlink ref="A42" r:id="rId12"/>
+    <hyperlink ref="A46" r:id="rId13"/>
+    <hyperlink ref="A74" r:id="rId14"/>
+    <hyperlink ref="A55" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A69" r:id="rId17"/>
-    <hyperlink ref="A47" r:id="rId18"/>
-    <hyperlink ref="A74" r:id="rId19"/>
+    <hyperlink ref="A70" r:id="rId17"/>
+    <hyperlink ref="A48" r:id="rId18"/>
+    <hyperlink ref="A75" r:id="rId19"/>
     <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A43" r:id="rId21"/>
-    <hyperlink ref="A40" r:id="rId22"/>
-    <hyperlink ref="A29" r:id="rId23"/>
-    <hyperlink ref="A68" r:id="rId24"/>
-    <hyperlink ref="A71" r:id="rId25"/>
-    <hyperlink ref="A52" r:id="rId26"/>
-    <hyperlink ref="A38" r:id="rId27"/>
+    <hyperlink ref="A44" r:id="rId21"/>
+    <hyperlink ref="A41" r:id="rId22"/>
+    <hyperlink ref="A30" r:id="rId23"/>
+    <hyperlink ref="A69" r:id="rId24"/>
+    <hyperlink ref="A72" r:id="rId25"/>
+    <hyperlink ref="A53" r:id="rId26"/>
+    <hyperlink ref="A39" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A44" r:id="rId29"/>
-    <hyperlink ref="A33" r:id="rId30"/>
-    <hyperlink ref="A58" r:id="rId31"/>
+    <hyperlink ref="A45" r:id="rId29"/>
+    <hyperlink ref="A34" r:id="rId30"/>
+    <hyperlink ref="A59" r:id="rId31"/>
     <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A48" r:id="rId33"/>
-    <hyperlink ref="A37" r:id="rId34"/>
+    <hyperlink ref="A49" r:id="rId33"/>
+    <hyperlink ref="A38" r:id="rId34"/>
     <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A46" r:id="rId36"/>
-    <hyperlink ref="A49" r:id="rId37"/>
-    <hyperlink ref="A50" r:id="rId38"/>
-    <hyperlink ref="A51" r:id="rId39"/>
+    <hyperlink ref="A47" r:id="rId36"/>
+    <hyperlink ref="A50" r:id="rId37"/>
+    <hyperlink ref="A51" r:id="rId38"/>
+    <hyperlink ref="A52" r:id="rId39"/>
     <hyperlink ref="A25" r:id="rId40"/>
-    <hyperlink ref="A64" r:id="rId41"/>
-    <hyperlink ref="A34" r:id="rId42"/>
-    <hyperlink ref="A42" r:id="rId43"/>
-    <hyperlink ref="A70" r:id="rId44"/>
-    <hyperlink ref="A65" r:id="rId45"/>
-    <hyperlink ref="A57" r:id="rId46"/>
+    <hyperlink ref="A65" r:id="rId41"/>
+    <hyperlink ref="A35" r:id="rId42"/>
+    <hyperlink ref="A43" r:id="rId43"/>
+    <hyperlink ref="A71" r:id="rId44"/>
+    <hyperlink ref="A66" r:id="rId45"/>
+    <hyperlink ref="A58" r:id="rId46"/>
     <hyperlink ref="A18" r:id="rId47"/>
     <hyperlink ref="A6" r:id="rId48"/>
-    <hyperlink ref="A66" r:id="rId49"/>
-    <hyperlink ref="A72" r:id="rId50"/>
-    <hyperlink ref="A55" r:id="rId51"/>
+    <hyperlink ref="A67" r:id="rId49"/>
+    <hyperlink ref="A73" r:id="rId50"/>
+    <hyperlink ref="A56" r:id="rId51"/>
     <hyperlink ref="A24" r:id="rId52"/>
-    <hyperlink ref="A35" r:id="rId53"/>
-    <hyperlink ref="A62" r:id="rId54"/>
-    <hyperlink ref="A59" r:id="rId55"/>
+    <hyperlink ref="A36" r:id="rId53"/>
+    <hyperlink ref="A63" r:id="rId54"/>
+    <hyperlink ref="A60" r:id="rId55"/>
     <hyperlink ref="A7" r:id="rId56"/>
     <hyperlink ref="A8" r:id="rId57"/>
     <hyperlink ref="A10" r:id="rId58"/>
     <hyperlink ref="A9" r:id="rId59"/>
     <hyperlink ref="A20" r:id="rId60"/>
     <hyperlink ref="A21" r:id="rId61"/>
-    <hyperlink ref="A28" r:id="rId62"/>
+    <hyperlink ref="A29" r:id="rId62"/>
     <hyperlink ref="A27" r:id="rId63"/>
-    <hyperlink ref="A30" r:id="rId64"/>
+    <hyperlink ref="A31" r:id="rId64"/>
+    <hyperlink ref="A28" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -877,7 +877,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1422,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="4">
-        <v>42488</v>
+        <v>42671</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>105</v>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>La Trobe University</t>
+  </si>
+  <si>
+    <t>Neal Patwari</t>
+  </si>
+  <si>
+    <t>Associate Professor, the University of Utah</t>
   </si>
 </sst>
 </file>
@@ -874,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1026,7 +1032,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C63" si="1">C12+7</f>
+        <f t="shared" ref="C13:C64" si="1">C12+7</f>
         <v>42439</v>
       </c>
     </row>
@@ -1221,22 +1227,21 @@
     </row>
     <row r="30" spans="1:6" ht="19">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4">
-        <f>C29+7</f>
         <v>42558</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4">
         <f>C30+7</f>
@@ -1245,22 +1250,22 @@
     </row>
     <row r="32" spans="1:6" ht="19">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="1"/>
+        <f>C31+7</f>
         <v>42572</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
@@ -1269,10 +1274,10 @@
     </row>
     <row r="34" spans="1:7" ht="19">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
@@ -1281,7 +1286,7 @@
     </row>
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>32</v>
@@ -1293,10 +1298,10 @@
     </row>
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
@@ -1305,10 +1310,10 @@
     </row>
     <row r="37" spans="1:7" ht="19">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
@@ -1317,37 +1322,37 @@
     </row>
     <row r="38" spans="1:7" ht="19">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
         <v>42614</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
         <v>42621</v>
       </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
@@ -1356,10 +1361,10 @@
     </row>
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
@@ -1368,7 +1373,7 @@
     </row>
     <row r="42" spans="1:7" ht="19">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>14</v>
@@ -1380,10 +1385,10 @@
     </row>
     <row r="43" spans="1:7" ht="19">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
@@ -1392,10 +1397,10 @@
     </row>
     <row r="44" spans="1:7" ht="19">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1404,10 +1409,10 @@
     </row>
     <row r="45" spans="1:7" ht="19">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1416,357 +1421,369 @@
     </row>
     <row r="46" spans="1:7" ht="19">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4">
-        <v>42671</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>42670</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C47" s="4">
-        <v>42677</v>
+        <v>42671</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="1"/>
-        <v>42684</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
-        <v>42691</v>
+        <v>42684</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
-        <v>42698</v>
+        <v>42691</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
-        <v>42705</v>
+        <v>42698</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
-        <v>42712</v>
+        <v>42705</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
-        <v>42719</v>
+        <v>42712</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
-        <v>42726</v>
+        <v>42719</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
-        <v>42733</v>
+        <v>42726</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
-        <v>42740</v>
+        <v>42733</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
-        <v>42747</v>
+        <v>42740</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
-        <v>42754</v>
+        <v>42747</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="1"/>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" si="1"/>
-        <v>42768</v>
+        <v>42761</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C61" s="4">
         <f t="shared" si="1"/>
-        <v>42775</v>
+        <v>42768</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4">
-        <f>C61+7</f>
-        <v>42782</v>
+        <f t="shared" si="1"/>
+        <v>42775</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="1"/>
-        <v>42789</v>
+        <f>C62+7</f>
+        <v>42782</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C64" s="4">
-        <v>42754</v>
+        <f t="shared" si="1"/>
+        <v>42789</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C65" s="4">
-        <f>C64+7</f>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" ref="C66:C74" si="2">C65+7</f>
-        <v>42768</v>
+        <f>C65+7</f>
+        <v>42761</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19">
       <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" ref="C67:C75" si="2">C66+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="19">
+      <c r="A70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" ht="19">
+      <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C72" s="4">
         <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3" ht="19">
+      <c r="A73" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C73" s="4">
         <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="19">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" ht="19">
+      <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C74" s="4">
         <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="19">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:3" ht="19">
+      <c r="A75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C75" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="19">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:3" ht="19">
+      <c r="A76" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1775,61 +1792,61 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A64" r:id="rId1"/>
-    <hyperlink ref="A40" r:id="rId2"/>
-    <hyperlink ref="A33" r:id="rId3"/>
-    <hyperlink ref="A32" r:id="rId4"/>
-    <hyperlink ref="A61" r:id="rId5"/>
-    <hyperlink ref="A54" r:id="rId6"/>
-    <hyperlink ref="A68" r:id="rId7"/>
-    <hyperlink ref="A37" r:id="rId8"/>
+    <hyperlink ref="A65" r:id="rId1"/>
+    <hyperlink ref="A41" r:id="rId2"/>
+    <hyperlink ref="A34" r:id="rId3"/>
+    <hyperlink ref="A33" r:id="rId4"/>
+    <hyperlink ref="A62" r:id="rId5"/>
+    <hyperlink ref="A55" r:id="rId6"/>
+    <hyperlink ref="A69" r:id="rId7"/>
+    <hyperlink ref="A38" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A57" r:id="rId11"/>
-    <hyperlink ref="A42" r:id="rId12"/>
-    <hyperlink ref="A46" r:id="rId13"/>
-    <hyperlink ref="A74" r:id="rId14"/>
-    <hyperlink ref="A55" r:id="rId15"/>
+    <hyperlink ref="A58" r:id="rId11"/>
+    <hyperlink ref="A43" r:id="rId12"/>
+    <hyperlink ref="A47" r:id="rId13"/>
+    <hyperlink ref="A75" r:id="rId14"/>
+    <hyperlink ref="A56" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A70" r:id="rId17"/>
-    <hyperlink ref="A48" r:id="rId18"/>
-    <hyperlink ref="A75" r:id="rId19"/>
+    <hyperlink ref="A71" r:id="rId17"/>
+    <hyperlink ref="A49" r:id="rId18"/>
+    <hyperlink ref="A76" r:id="rId19"/>
     <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A44" r:id="rId21"/>
-    <hyperlink ref="A41" r:id="rId22"/>
-    <hyperlink ref="A30" r:id="rId23"/>
-    <hyperlink ref="A69" r:id="rId24"/>
-    <hyperlink ref="A72" r:id="rId25"/>
-    <hyperlink ref="A53" r:id="rId26"/>
-    <hyperlink ref="A39" r:id="rId27"/>
+    <hyperlink ref="A45" r:id="rId21"/>
+    <hyperlink ref="A42" r:id="rId22"/>
+    <hyperlink ref="A31" r:id="rId23"/>
+    <hyperlink ref="A70" r:id="rId24"/>
+    <hyperlink ref="A73" r:id="rId25"/>
+    <hyperlink ref="A54" r:id="rId26"/>
+    <hyperlink ref="A40" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A45" r:id="rId29"/>
-    <hyperlink ref="A34" r:id="rId30"/>
-    <hyperlink ref="A59" r:id="rId31"/>
+    <hyperlink ref="A46" r:id="rId29"/>
+    <hyperlink ref="A35" r:id="rId30"/>
+    <hyperlink ref="A60" r:id="rId31"/>
     <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A49" r:id="rId33"/>
-    <hyperlink ref="A38" r:id="rId34"/>
+    <hyperlink ref="A50" r:id="rId33"/>
+    <hyperlink ref="A39" r:id="rId34"/>
     <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A47" r:id="rId36"/>
-    <hyperlink ref="A50" r:id="rId37"/>
-    <hyperlink ref="A51" r:id="rId38"/>
-    <hyperlink ref="A52" r:id="rId39"/>
+    <hyperlink ref="A48" r:id="rId36"/>
+    <hyperlink ref="A51" r:id="rId37"/>
+    <hyperlink ref="A52" r:id="rId38"/>
+    <hyperlink ref="A53" r:id="rId39"/>
     <hyperlink ref="A25" r:id="rId40"/>
-    <hyperlink ref="A65" r:id="rId41"/>
-    <hyperlink ref="A35" r:id="rId42"/>
-    <hyperlink ref="A43" r:id="rId43"/>
-    <hyperlink ref="A71" r:id="rId44"/>
-    <hyperlink ref="A66" r:id="rId45"/>
-    <hyperlink ref="A58" r:id="rId46"/>
+    <hyperlink ref="A66" r:id="rId41"/>
+    <hyperlink ref="A36" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A72" r:id="rId44"/>
+    <hyperlink ref="A67" r:id="rId45"/>
+    <hyperlink ref="A59" r:id="rId46"/>
     <hyperlink ref="A18" r:id="rId47"/>
     <hyperlink ref="A6" r:id="rId48"/>
-    <hyperlink ref="A67" r:id="rId49"/>
-    <hyperlink ref="A73" r:id="rId50"/>
-    <hyperlink ref="A56" r:id="rId51"/>
+    <hyperlink ref="A68" r:id="rId49"/>
+    <hyperlink ref="A74" r:id="rId50"/>
+    <hyperlink ref="A57" r:id="rId51"/>
     <hyperlink ref="A24" r:id="rId52"/>
-    <hyperlink ref="A36" r:id="rId53"/>
-    <hyperlink ref="A63" r:id="rId54"/>
-    <hyperlink ref="A60" r:id="rId55"/>
+    <hyperlink ref="A37" r:id="rId53"/>
+    <hyperlink ref="A64" r:id="rId54"/>
+    <hyperlink ref="A61" r:id="rId55"/>
     <hyperlink ref="A7" r:id="rId56"/>
     <hyperlink ref="A8" r:id="rId57"/>
     <hyperlink ref="A10" r:id="rId58"/>
@@ -1838,7 +1855,7 @@
     <hyperlink ref="A21" r:id="rId61"/>
     <hyperlink ref="A29" r:id="rId62"/>
     <hyperlink ref="A27" r:id="rId63"/>
-    <hyperlink ref="A31" r:id="rId64"/>
+    <hyperlink ref="A32" r:id="rId64"/>
     <hyperlink ref="A28" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="19840" yWindow="0" windowWidth="25080" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Associate Professor, the University of Utah</t>
+  </si>
+  <si>
+    <t>ON  FRIDAY</t>
   </si>
 </sst>
 </file>
@@ -469,9 +472,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -521,7 +525,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -550,6 +554,7 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -880,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1032,7 +1037,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C64" si="1">C12+7</f>
+        <f t="shared" ref="C13:C65" si="1">C12+7</f>
         <v>42439</v>
       </c>
     </row>
@@ -1214,13 +1219,13 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="19">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="8">
         <f>C28+7</f>
         <v>42551</v>
       </c>
@@ -1249,12 +1254,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="19">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="4">
         <f>C31+7</f>
         <v>42572</v>
@@ -1262,22 +1263,22 @@
     </row>
     <row r="33" spans="1:7" ht="19">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="1"/>
+        <f>C32+7</f>
         <v>42579</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
@@ -1286,10 +1287,10 @@
     </row>
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
@@ -1298,7 +1299,7 @@
     </row>
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>32</v>
@@ -1310,61 +1311,62 @@
     </row>
     <row r="37" spans="1:7" ht="19">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="1"/>
-        <v>42607</v>
+        <v>42608</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="1"/>
         <v>42614</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
         <v>42621</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
         <v>42628</v>
       </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
@@ -1373,10 +1375,10 @@
     </row>
     <row r="42" spans="1:7" ht="19">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
@@ -1385,7 +1387,7 @@
     </row>
     <row r="43" spans="1:7" ht="19">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>14</v>
@@ -1397,10 +1399,10 @@
     </row>
     <row r="44" spans="1:7" ht="19">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1409,10 +1411,10 @@
     </row>
     <row r="45" spans="1:7" ht="19">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1421,10 +1423,10 @@
     </row>
     <row r="46" spans="1:7" ht="19">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
@@ -1433,357 +1435,369 @@
     </row>
     <row r="47" spans="1:7" ht="19">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C47" s="4">
-        <v>42671</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>42677</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4">
-        <v>42677</v>
+        <v>42671</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="1"/>
-        <v>42684</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
-        <v>42691</v>
+        <v>42684</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
-        <v>42698</v>
+        <v>42691</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
-        <v>42705</v>
+        <v>42698</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
-        <v>42712</v>
+        <v>42705</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
-        <v>42719</v>
+        <v>42712</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
-        <v>42726</v>
+        <v>42719</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
-        <v>42733</v>
+        <v>42726</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
-        <v>42740</v>
+        <v>42733</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
-        <v>42747</v>
+        <v>42740</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="1"/>
-        <v>42754</v>
+        <v>42747</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" si="1"/>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" s="4">
         <f t="shared" si="1"/>
-        <v>42768</v>
+        <v>42761</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C62" s="4">
         <f t="shared" si="1"/>
-        <v>42775</v>
+        <v>42768</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C63" s="4">
-        <f>C62+7</f>
-        <v>42782</v>
+        <f t="shared" si="1"/>
+        <v>42775</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="1"/>
-        <v>42789</v>
+        <f>C63+7</f>
+        <v>42782</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C65" s="4">
-        <v>42754</v>
+        <f t="shared" si="1"/>
+        <v>42789</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4">
-        <f>C65+7</f>
-        <v>42761</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ref="C67:C75" si="2">C66+7</f>
-        <v>42768</v>
+        <f>C66+7</f>
+        <v>42761</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19">
       <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" ref="C68:C76" si="2">C67+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="19">
+      <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" ht="19">
+      <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C72" s="4">
         <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3" ht="19">
+      <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C73" s="4">
         <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="19">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" ht="19">
+      <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C74" s="4">
         <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="19">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:3" ht="19">
+      <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C75" s="4">
         <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="19">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:3" ht="19">
+      <c r="A76" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C76" s="4">
         <f t="shared" si="2"/>
         <v>42824</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="19">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:3" ht="19">
+      <c r="A77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1792,61 +1806,61 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A65" r:id="rId1"/>
-    <hyperlink ref="A41" r:id="rId2"/>
-    <hyperlink ref="A34" r:id="rId3"/>
-    <hyperlink ref="A33" r:id="rId4"/>
-    <hyperlink ref="A62" r:id="rId5"/>
-    <hyperlink ref="A55" r:id="rId6"/>
-    <hyperlink ref="A69" r:id="rId7"/>
-    <hyperlink ref="A38" r:id="rId8"/>
+    <hyperlink ref="A66" r:id="rId1"/>
+    <hyperlink ref="A42" r:id="rId2"/>
+    <hyperlink ref="A35" r:id="rId3"/>
+    <hyperlink ref="A34" r:id="rId4"/>
+    <hyperlink ref="A63" r:id="rId5"/>
+    <hyperlink ref="A56" r:id="rId6"/>
+    <hyperlink ref="A70" r:id="rId7"/>
+    <hyperlink ref="A39" r:id="rId8"/>
     <hyperlink ref="A3" r:id="rId9"/>
     <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A58" r:id="rId11"/>
-    <hyperlink ref="A43" r:id="rId12"/>
-    <hyperlink ref="A47" r:id="rId13"/>
-    <hyperlink ref="A75" r:id="rId14"/>
-    <hyperlink ref="A56" r:id="rId15"/>
+    <hyperlink ref="A59" r:id="rId11"/>
+    <hyperlink ref="A44" r:id="rId12"/>
+    <hyperlink ref="A48" r:id="rId13"/>
+    <hyperlink ref="A76" r:id="rId14"/>
+    <hyperlink ref="A57" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A71" r:id="rId17"/>
-    <hyperlink ref="A49" r:id="rId18"/>
-    <hyperlink ref="A76" r:id="rId19"/>
+    <hyperlink ref="A72" r:id="rId17"/>
+    <hyperlink ref="A50" r:id="rId18"/>
+    <hyperlink ref="A77" r:id="rId19"/>
     <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A45" r:id="rId21"/>
-    <hyperlink ref="A42" r:id="rId22"/>
+    <hyperlink ref="A46" r:id="rId21"/>
+    <hyperlink ref="A43" r:id="rId22"/>
     <hyperlink ref="A31" r:id="rId23"/>
-    <hyperlink ref="A70" r:id="rId24"/>
-    <hyperlink ref="A73" r:id="rId25"/>
-    <hyperlink ref="A54" r:id="rId26"/>
-    <hyperlink ref="A40" r:id="rId27"/>
+    <hyperlink ref="A71" r:id="rId24"/>
+    <hyperlink ref="A74" r:id="rId25"/>
+    <hyperlink ref="A55" r:id="rId26"/>
+    <hyperlink ref="A41" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A46" r:id="rId29"/>
-    <hyperlink ref="A35" r:id="rId30"/>
-    <hyperlink ref="A60" r:id="rId31"/>
+    <hyperlink ref="A47" r:id="rId29"/>
+    <hyperlink ref="A36" r:id="rId30"/>
+    <hyperlink ref="A61" r:id="rId31"/>
     <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A50" r:id="rId33"/>
-    <hyperlink ref="A39" r:id="rId34"/>
+    <hyperlink ref="A51" r:id="rId33"/>
+    <hyperlink ref="A40" r:id="rId34"/>
     <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A48" r:id="rId36"/>
-    <hyperlink ref="A51" r:id="rId37"/>
-    <hyperlink ref="A52" r:id="rId38"/>
-    <hyperlink ref="A53" r:id="rId39"/>
+    <hyperlink ref="A49" r:id="rId36"/>
+    <hyperlink ref="A52" r:id="rId37"/>
+    <hyperlink ref="A53" r:id="rId38"/>
+    <hyperlink ref="A54" r:id="rId39"/>
     <hyperlink ref="A25" r:id="rId40"/>
-    <hyperlink ref="A66" r:id="rId41"/>
-    <hyperlink ref="A36" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A72" r:id="rId44"/>
-    <hyperlink ref="A67" r:id="rId45"/>
-    <hyperlink ref="A59" r:id="rId46"/>
+    <hyperlink ref="A67" r:id="rId41"/>
+    <hyperlink ref="A37" r:id="rId42"/>
+    <hyperlink ref="A45" r:id="rId43"/>
+    <hyperlink ref="A73" r:id="rId44"/>
+    <hyperlink ref="A68" r:id="rId45"/>
+    <hyperlink ref="A60" r:id="rId46"/>
     <hyperlink ref="A18" r:id="rId47"/>
     <hyperlink ref="A6" r:id="rId48"/>
-    <hyperlink ref="A68" r:id="rId49"/>
-    <hyperlink ref="A74" r:id="rId50"/>
-    <hyperlink ref="A57" r:id="rId51"/>
+    <hyperlink ref="A69" r:id="rId49"/>
+    <hyperlink ref="A75" r:id="rId50"/>
+    <hyperlink ref="A58" r:id="rId51"/>
     <hyperlink ref="A24" r:id="rId52"/>
-    <hyperlink ref="A37" r:id="rId53"/>
-    <hyperlink ref="A64" r:id="rId54"/>
-    <hyperlink ref="A61" r:id="rId55"/>
+    <hyperlink ref="A38" r:id="rId53"/>
+    <hyperlink ref="A65" r:id="rId54"/>
+    <hyperlink ref="A62" r:id="rId55"/>
     <hyperlink ref="A7" r:id="rId56"/>
     <hyperlink ref="A8" r:id="rId57"/>
     <hyperlink ref="A10" r:id="rId58"/>
@@ -1855,7 +1869,7 @@
     <hyperlink ref="A21" r:id="rId61"/>
     <hyperlink ref="A29" r:id="rId62"/>
     <hyperlink ref="A27" r:id="rId63"/>
-    <hyperlink ref="A32" r:id="rId64"/>
+    <hyperlink ref="A33" r:id="rId64"/>
     <hyperlink ref="A28" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="72" codePage="10000"/>
@@ -885,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -899,14 +900,14 @@
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1">
+    <row r="2" spans="1:7" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -917,887 +918,542 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19">
+    <row r="3" spans="1:7" ht="19">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4">
-        <v>42306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19">
+        <v>42579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <f>C3+7</f>
-        <v>42313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19">
+        <v>42586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <f>C4+7</f>
-        <v>42320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19">
+        <v>42593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C5+7</f>
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42608</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" ref="C6:C9" si="0">C5+7</f>
-        <v>42327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>42334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="4">
-        <v>42404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>42411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="19">
-      <c r="A10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="8">
+        <f>C8+7</f>
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4">
         <f>C9+7</f>
-        <v>42418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
+        <v>42628</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="19">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="4">
         <f>C10+7</f>
-        <v>42425</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="19">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="4">
         <f>C11+7</f>
-        <v>42432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19">
+        <v>42642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:C65" si="1">C12+7</f>
-        <v>42439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19">
+        <f>C12+7</f>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>42446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19">
+        <f>C13+7</f>
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
         <f>C14+7</f>
-        <v>42453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19">
-      <c r="A16" s="10" t="s">
-        <v>99</v>
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>42460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+        <f>C15+7</f>
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" s="4">
-        <v>42467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19">
+        <f>C16+7</f>
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="4">
-        <f>C17+7</f>
-        <v>42474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19">
-      <c r="A19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="12" t="s">
+        <v>42671</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
-        <v>42488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19">
+        <f>C19+7</f>
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4">
         <f>C20+7</f>
-        <v>42495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19">
-      <c r="A22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="8">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
         <f>C21+7</f>
-        <v>42502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19">
-      <c r="A23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="8">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4">
         <f>C22+7</f>
-        <v>42509</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="19">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4">
         <f>C23+7</f>
-        <v>42516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19">
-      <c r="A25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="1"/>
-        <v>42523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C24+7</f>
+        <v>42719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>42530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="19">
+        <f>C25+7</f>
+        <v>42726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
-        <v>42537</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="19">
+        <f>C26+7</f>
+        <v>42733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4">
         <f>C27+7</f>
-        <v>42544</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="19">
-      <c r="A29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="8">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4">
         <f>C28+7</f>
-        <v>42551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="19">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C30" s="4">
-        <v>42558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19">
+        <f>C29+7</f>
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4">
         <f>C30+7</f>
-        <v>42565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="19">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C32" s="4">
         <f>C31+7</f>
-        <v>42572</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19">
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4">
         <f>C32+7</f>
-        <v>42579</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="19">
+        <v>42775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>42586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19">
+        <f>C33+7</f>
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="1"/>
-        <v>42593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19">
+        <f>C34+7</f>
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="4">
+        <f>C36+7</f>
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="4">
-        <f t="shared" si="1"/>
-        <v>42600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="4">
-        <v>42608</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19">
-      <c r="A38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C38" s="4">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19">
+        <f t="shared" ref="C38:C46" si="0">C37+7</f>
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="1"/>
-        <v>42621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="1"/>
-        <v>42628</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="1"/>
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="1"/>
-        <v>42642</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>42803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="4">
-        <f t="shared" si="1"/>
-        <v>42649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="19">
-      <c r="A44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" si="1"/>
-        <v>42656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19">
-      <c r="A45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C45" s="4">
-        <f t="shared" si="1"/>
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="1"/>
-        <v>42670</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="1"/>
-        <v>42677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="19">
-      <c r="A48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="4">
-        <v>42671</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="19">
-      <c r="A49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="4">
-        <v>42677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="19">
-      <c r="A50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="4">
-        <f t="shared" si="1"/>
-        <v>42684</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="19">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="4">
-        <f t="shared" si="1"/>
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="19">
-      <c r="A52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="4">
-        <f t="shared" si="1"/>
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="19">
-      <c r="A53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="4">
-        <f t="shared" si="1"/>
-        <v>42705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="19">
-      <c r="A54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="1"/>
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="19">
-      <c r="A55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="4">
-        <f t="shared" si="1"/>
-        <v>42719</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="19">
-      <c r="A56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="4">
-        <f t="shared" si="1"/>
-        <v>42726</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="19">
-      <c r="A57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="4">
-        <f t="shared" si="1"/>
-        <v>42733</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="19">
-      <c r="A58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" si="1"/>
-        <v>42740</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="19">
-      <c r="A59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="4">
-        <f t="shared" si="1"/>
-        <v>42747</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="19">
-      <c r="A60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="4">
-        <f t="shared" si="1"/>
-        <v>42754</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="19">
-      <c r="A61" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" si="1"/>
-        <v>42761</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="19">
-      <c r="A62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="4">
-        <f t="shared" si="1"/>
-        <v>42768</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="19">
-      <c r="A63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="4">
-        <f t="shared" si="1"/>
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="19">
-      <c r="A64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="4">
-        <f>C63+7</f>
-        <v>42782</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="19">
-      <c r="A65" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="4">
-        <f t="shared" si="1"/>
-        <v>42789</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="19">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="4">
-        <v>42754</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="19">
-      <c r="A67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="4">
-        <f>C66+7</f>
-        <v>42761</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="4">
-        <f t="shared" ref="C68:C76" si="2">C67+7</f>
-        <v>42768</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="4">
-        <f t="shared" si="2"/>
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="19">
-      <c r="A70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="4">
-        <f t="shared" si="2"/>
-        <v>42782</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="19">
-      <c r="A71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="4">
-        <f t="shared" si="2"/>
-        <v>42789</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="19">
-      <c r="A72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="4">
-        <f t="shared" si="2"/>
-        <v>42796</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="19">
-      <c r="A73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="4">
-        <f t="shared" si="2"/>
-        <v>42803</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="19">
-      <c r="A74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="4">
-        <f t="shared" si="2"/>
-        <v>42810</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="19">
-      <c r="A75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="4">
-        <f t="shared" si="2"/>
-        <v>42817</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="19">
-      <c r="A76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="4">
-        <f t="shared" si="2"/>
-        <v>42824</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="19">
-      <c r="A77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1806,71 +1462,50 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A66" r:id="rId1"/>
-    <hyperlink ref="A42" r:id="rId2"/>
-    <hyperlink ref="A35" r:id="rId3"/>
-    <hyperlink ref="A34" r:id="rId4"/>
-    <hyperlink ref="A63" r:id="rId5"/>
-    <hyperlink ref="A56" r:id="rId6"/>
-    <hyperlink ref="A70" r:id="rId7"/>
-    <hyperlink ref="A39" r:id="rId8"/>
-    <hyperlink ref="A3" r:id="rId9"/>
-    <hyperlink ref="A4" r:id="rId10"/>
-    <hyperlink ref="A59" r:id="rId11"/>
-    <hyperlink ref="A44" r:id="rId12"/>
-    <hyperlink ref="A48" r:id="rId13"/>
-    <hyperlink ref="A76" r:id="rId14"/>
-    <hyperlink ref="A57" r:id="rId15"/>
-    <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A72" r:id="rId17"/>
-    <hyperlink ref="A50" r:id="rId18"/>
-    <hyperlink ref="A77" r:id="rId19"/>
-    <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A46" r:id="rId21"/>
-    <hyperlink ref="A43" r:id="rId22"/>
-    <hyperlink ref="A31" r:id="rId23"/>
-    <hyperlink ref="A71" r:id="rId24"/>
-    <hyperlink ref="A74" r:id="rId25"/>
-    <hyperlink ref="A55" r:id="rId26"/>
-    <hyperlink ref="A41" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A47" r:id="rId29"/>
-    <hyperlink ref="A36" r:id="rId30"/>
-    <hyperlink ref="A61" r:id="rId31"/>
-    <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A51" r:id="rId33"/>
-    <hyperlink ref="A40" r:id="rId34"/>
-    <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A49" r:id="rId36"/>
-    <hyperlink ref="A52" r:id="rId37"/>
-    <hyperlink ref="A53" r:id="rId38"/>
-    <hyperlink ref="A54" r:id="rId39"/>
-    <hyperlink ref="A25" r:id="rId40"/>
-    <hyperlink ref="A67" r:id="rId41"/>
-    <hyperlink ref="A37" r:id="rId42"/>
-    <hyperlink ref="A45" r:id="rId43"/>
-    <hyperlink ref="A73" r:id="rId44"/>
-    <hyperlink ref="A68" r:id="rId45"/>
-    <hyperlink ref="A60" r:id="rId46"/>
-    <hyperlink ref="A18" r:id="rId47"/>
-    <hyperlink ref="A6" r:id="rId48"/>
-    <hyperlink ref="A69" r:id="rId49"/>
-    <hyperlink ref="A75" r:id="rId50"/>
-    <hyperlink ref="A58" r:id="rId51"/>
-    <hyperlink ref="A24" r:id="rId52"/>
-    <hyperlink ref="A38" r:id="rId53"/>
-    <hyperlink ref="A65" r:id="rId54"/>
-    <hyperlink ref="A62" r:id="rId55"/>
-    <hyperlink ref="A7" r:id="rId56"/>
-    <hyperlink ref="A8" r:id="rId57"/>
-    <hyperlink ref="A10" r:id="rId58"/>
-    <hyperlink ref="A9" r:id="rId59"/>
-    <hyperlink ref="A20" r:id="rId60"/>
-    <hyperlink ref="A21" r:id="rId61"/>
-    <hyperlink ref="A29" r:id="rId62"/>
-    <hyperlink ref="A27" r:id="rId63"/>
-    <hyperlink ref="A33" r:id="rId64"/>
-    <hyperlink ref="A28" r:id="rId65"/>
+    <hyperlink ref="A36" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A33" r:id="rId5"/>
+    <hyperlink ref="A26" r:id="rId6"/>
+    <hyperlink ref="A40" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A29" r:id="rId9"/>
+    <hyperlink ref="A14" r:id="rId10"/>
+    <hyperlink ref="A18" r:id="rId11"/>
+    <hyperlink ref="A46" r:id="rId12"/>
+    <hyperlink ref="A27" r:id="rId13"/>
+    <hyperlink ref="A42" r:id="rId14"/>
+    <hyperlink ref="A20" r:id="rId15"/>
+    <hyperlink ref="A47" r:id="rId16"/>
+    <hyperlink ref="A16" r:id="rId17"/>
+    <hyperlink ref="A13" r:id="rId18"/>
+    <hyperlink ref="A41" r:id="rId19"/>
+    <hyperlink ref="A44" r:id="rId20"/>
+    <hyperlink ref="A25" r:id="rId21"/>
+    <hyperlink ref="A11" r:id="rId22"/>
+    <hyperlink ref="A17" r:id="rId23"/>
+    <hyperlink ref="A6" r:id="rId24"/>
+    <hyperlink ref="A31" r:id="rId25"/>
+    <hyperlink ref="A21" r:id="rId26"/>
+    <hyperlink ref="A10" r:id="rId27"/>
+    <hyperlink ref="A19" r:id="rId28"/>
+    <hyperlink ref="A22" r:id="rId29"/>
+    <hyperlink ref="A23" r:id="rId30"/>
+    <hyperlink ref="A24" r:id="rId31"/>
+    <hyperlink ref="A37" r:id="rId32"/>
+    <hyperlink ref="A7" r:id="rId33"/>
+    <hyperlink ref="A15" r:id="rId34"/>
+    <hyperlink ref="A43" r:id="rId35"/>
+    <hyperlink ref="A38" r:id="rId36"/>
+    <hyperlink ref="A30" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A45" r:id="rId39"/>
+    <hyperlink ref="A28" r:id="rId40"/>
+    <hyperlink ref="A8" r:id="rId41"/>
+    <hyperlink ref="A35" r:id="rId42"/>
+    <hyperlink ref="A32" r:id="rId43"/>
+    <hyperlink ref="A3" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1880,4 +1515,386 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <f>C1+7</f>
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4">
+        <f>C2+7</f>
+        <v>42320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <f>C3+7</f>
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <f>C4+7</f>
+        <v>42334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C6+7</f>
+        <v>42411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="19">
+      <c r="A8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="8">
+        <f>C7+7</f>
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4">
+        <f>C8+7</f>
+        <v>42425</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
+        <f>C9+7</f>
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4">
+        <f>C10+7</f>
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="4">
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C12+7</f>
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C13+7</f>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C15+7</f>
+        <v>42474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C16+7</f>
+        <v>42481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="4">
+        <v>42488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="4">
+        <f>C18+7</f>
+        <v>42495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="8">
+        <f>C19+7</f>
+        <v>42502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="8">
+        <f>C20+7</f>
+        <v>42509</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4">
+        <f>C21+7</f>
+        <v>42516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="8">
+        <f>C22+7</f>
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <f>C23+7</f>
+        <v>42530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C24+7</f>
+        <v>42537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="4">
+        <f>C25+7</f>
+        <v>42544</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="8">
+        <f>C26+7</f>
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="4">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="19">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4">
+        <f>C28+7</f>
+        <v>42565</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A24" r:id="rId4"/>
+    <hyperlink ref="A29" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6"/>
+    <hyperlink ref="A20" r:id="rId7"/>
+    <hyperlink ref="A17" r:id="rId8"/>
+    <hyperlink ref="A23" r:id="rId9"/>
+    <hyperlink ref="A16" r:id="rId10"/>
+    <hyperlink ref="A4" r:id="rId11"/>
+    <hyperlink ref="A22" r:id="rId12"/>
+    <hyperlink ref="A5" r:id="rId13"/>
+    <hyperlink ref="A6" r:id="rId14"/>
+    <hyperlink ref="A8" r:id="rId15"/>
+    <hyperlink ref="A7" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A27" r:id="rId19"/>
+    <hyperlink ref="A25" r:id="rId20"/>
+    <hyperlink ref="A26" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -473,9 +473,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -526,7 +529,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -556,6 +559,9 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -886,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -955,7 +961,7 @@
     </row>
     <row r="6" spans="1:7" ht="19">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
@@ -967,10 +973,10 @@
     </row>
     <row r="7" spans="1:7" ht="19">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <v>42608</v>
@@ -981,10 +987,10 @@
     </row>
     <row r="8" spans="1:7" ht="19">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4">
         <v>42614</v>
@@ -992,25 +998,25 @@
     </row>
     <row r="9" spans="1:7" ht="19">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4">
-        <f>C8+7</f>
+        <f t="shared" ref="C9:C17" si="0">C8+7</f>
         <v>42621</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
-        <f>C9+7</f>
+        <f t="shared" si="0"/>
         <v>42628</v>
       </c>
       <c r="E10" s="6"/>
@@ -1019,94 +1025,94 @@
     </row>
     <row r="11" spans="1:7" ht="19">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
-        <f>C10+7</f>
+        <f t="shared" si="0"/>
         <v>42635</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4">
-        <f>C11+7</f>
+        <f t="shared" si="0"/>
         <v>42642</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4">
-        <f>C12+7</f>
+        <f t="shared" si="0"/>
         <v>42649</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4">
-        <f>C13+7</f>
+        <f t="shared" si="0"/>
         <v>42656</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
-        <f>C14+7</f>
+        <f t="shared" si="0"/>
         <v>42663</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4">
-        <f>C15+7</f>
+        <f t="shared" si="0"/>
         <v>42670</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
-        <f>C16+7</f>
+        <f t="shared" si="0"/>
         <v>42677</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4">
         <v>42671</v>
@@ -1117,10 +1123,10 @@
     </row>
     <row r="19" spans="1:4" ht="19">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4">
         <v>42677</v>
@@ -1128,202 +1134,202 @@
     </row>
     <row r="20" spans="1:4" ht="19">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4">
-        <f>C19+7</f>
+        <f t="shared" ref="C20:C35" si="1">C19+7</f>
         <v>42684</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4">
-        <f>C20+7</f>
+        <f t="shared" si="1"/>
         <v>42691</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4">
-        <f>C21+7</f>
+        <f t="shared" si="1"/>
         <v>42698</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
-        <f>C22+7</f>
+        <f t="shared" si="1"/>
         <v>42705</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4">
-        <f>C23+7</f>
+        <f t="shared" si="1"/>
         <v>42712</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4">
-        <f>C24+7</f>
+        <f t="shared" si="1"/>
         <v>42719</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
-        <f>C25+7</f>
+        <f t="shared" si="1"/>
         <v>42726</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4">
-        <f>C26+7</f>
+        <f t="shared" si="1"/>
         <v>42733</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4">
-        <f>C27+7</f>
+        <f t="shared" si="1"/>
         <v>42740</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C29" s="4">
-        <f>C28+7</f>
+        <f t="shared" si="1"/>
         <v>42747</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4">
-        <f>C29+7</f>
+        <f t="shared" si="1"/>
         <v>42754</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31" s="4">
-        <f>C30+7</f>
+        <f t="shared" si="1"/>
         <v>42761</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C32" s="4">
-        <f>C31+7</f>
+        <f t="shared" si="1"/>
         <v>42768</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4">
-        <f>C32+7</f>
+        <f t="shared" si="1"/>
         <v>42775</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4">
-        <f>C33+7</f>
+        <f t="shared" si="1"/>
         <v>42782</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C35" s="4">
-        <f>C34+7</f>
+        <f t="shared" si="1"/>
         <v>42789</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4">
         <v>42754</v>
@@ -1331,10 +1337,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4">
         <f>C36+7</f>
@@ -1343,118 +1349,128 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" ref="C38:C46" si="0">C37+7</f>
+        <f t="shared" ref="C38:C48" si="2">C37+7</f>
         <v>42768</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42796</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42803</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42810</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42817</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42824</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="2"/>
+        <v>42831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" s="4">
+        <f t="shared" si="2"/>
+        <v>42838</v>
       </c>
     </row>
   </sheetData>
@@ -1462,49 +1478,49 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1"/>
-    <hyperlink ref="A12" r:id="rId2"/>
+    <hyperlink ref="A35" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A33" r:id="rId5"/>
-    <hyperlink ref="A26" r:id="rId6"/>
-    <hyperlink ref="A40" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A29" r:id="rId9"/>
-    <hyperlink ref="A14" r:id="rId10"/>
-    <hyperlink ref="A18" r:id="rId11"/>
-    <hyperlink ref="A46" r:id="rId12"/>
-    <hyperlink ref="A27" r:id="rId13"/>
-    <hyperlink ref="A42" r:id="rId14"/>
-    <hyperlink ref="A20" r:id="rId15"/>
-    <hyperlink ref="A47" r:id="rId16"/>
-    <hyperlink ref="A16" r:id="rId17"/>
-    <hyperlink ref="A13" r:id="rId18"/>
-    <hyperlink ref="A41" r:id="rId19"/>
-    <hyperlink ref="A44" r:id="rId20"/>
-    <hyperlink ref="A25" r:id="rId21"/>
-    <hyperlink ref="A11" r:id="rId22"/>
-    <hyperlink ref="A17" r:id="rId23"/>
-    <hyperlink ref="A6" r:id="rId24"/>
-    <hyperlink ref="A31" r:id="rId25"/>
-    <hyperlink ref="A21" r:id="rId26"/>
-    <hyperlink ref="A10" r:id="rId27"/>
-    <hyperlink ref="A19" r:id="rId28"/>
-    <hyperlink ref="A22" r:id="rId29"/>
-    <hyperlink ref="A23" r:id="rId30"/>
-    <hyperlink ref="A24" r:id="rId31"/>
-    <hyperlink ref="A37" r:id="rId32"/>
-    <hyperlink ref="A7" r:id="rId33"/>
-    <hyperlink ref="A15" r:id="rId34"/>
-    <hyperlink ref="A43" r:id="rId35"/>
-    <hyperlink ref="A38" r:id="rId36"/>
-    <hyperlink ref="A30" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A45" r:id="rId39"/>
-    <hyperlink ref="A28" r:id="rId40"/>
-    <hyperlink ref="A8" r:id="rId41"/>
-    <hyperlink ref="A35" r:id="rId42"/>
-    <hyperlink ref="A32" r:id="rId43"/>
+    <hyperlink ref="A32" r:id="rId5"/>
+    <hyperlink ref="A25" r:id="rId6"/>
+    <hyperlink ref="A39" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A28" r:id="rId9"/>
+    <hyperlink ref="A13" r:id="rId10"/>
+    <hyperlink ref="A17" r:id="rId11"/>
+    <hyperlink ref="A45" r:id="rId12"/>
+    <hyperlink ref="A26" r:id="rId13"/>
+    <hyperlink ref="A41" r:id="rId14"/>
+    <hyperlink ref="A19" r:id="rId15"/>
+    <hyperlink ref="A46" r:id="rId16"/>
+    <hyperlink ref="A15" r:id="rId17"/>
+    <hyperlink ref="A12" r:id="rId18"/>
+    <hyperlink ref="A40" r:id="rId19"/>
+    <hyperlink ref="A43" r:id="rId20"/>
+    <hyperlink ref="A24" r:id="rId21"/>
+    <hyperlink ref="A10" r:id="rId22"/>
+    <hyperlink ref="A16" r:id="rId23"/>
+    <hyperlink ref="A47" r:id="rId24"/>
+    <hyperlink ref="A30" r:id="rId25"/>
+    <hyperlink ref="A20" r:id="rId26"/>
+    <hyperlink ref="A9" r:id="rId27"/>
+    <hyperlink ref="A18" r:id="rId28"/>
+    <hyperlink ref="A21" r:id="rId29"/>
+    <hyperlink ref="A22" r:id="rId30"/>
+    <hyperlink ref="A23" r:id="rId31"/>
+    <hyperlink ref="A36" r:id="rId32"/>
+    <hyperlink ref="A6" r:id="rId33"/>
+    <hyperlink ref="A14" r:id="rId34"/>
+    <hyperlink ref="A42" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A29" r:id="rId37"/>
+    <hyperlink ref="A38" r:id="rId38"/>
+    <hyperlink ref="A44" r:id="rId39"/>
+    <hyperlink ref="A27" r:id="rId40"/>
+    <hyperlink ref="A7" r:id="rId41"/>
+    <hyperlink ref="A34" r:id="rId42"/>
+    <hyperlink ref="A31" r:id="rId43"/>
     <hyperlink ref="A3" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1739,7 +1755,7 @@
         <v>104</v>
       </c>
       <c r="C19" s="4">
-        <f>C18+7</f>
+        <f t="shared" ref="C19:C27" si="0">C18+7</f>
         <v>42495</v>
       </c>
     </row>
@@ -1751,7 +1767,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="8">
-        <f>C19+7</f>
+        <f t="shared" si="0"/>
         <v>42502</v>
       </c>
     </row>
@@ -1763,7 +1779,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="8">
-        <f>C20+7</f>
+        <f t="shared" si="0"/>
         <v>42509</v>
       </c>
       <c r="D21" s="13"/>
@@ -1778,7 +1794,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="4">
-        <f>C21+7</f>
+        <f t="shared" si="0"/>
         <v>42516</v>
       </c>
     </row>
@@ -1790,7 +1806,7 @@
         <v>70</v>
       </c>
       <c r="C23" s="8">
-        <f>C22+7</f>
+        <f t="shared" si="0"/>
         <v>42523</v>
       </c>
     </row>
@@ -1802,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f>C23+7</f>
+        <f t="shared" si="0"/>
         <v>42530</v>
       </c>
     </row>
@@ -1814,7 +1830,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="4">
-        <f>C24+7</f>
+        <f t="shared" si="0"/>
         <v>42537</v>
       </c>
     </row>
@@ -1826,7 +1842,7 @@
         <v>107</v>
       </c>
       <c r="C26" s="4">
-        <f>C25+7</f>
+        <f t="shared" si="0"/>
         <v>42544</v>
       </c>
       <c r="F26" s="2"/>
@@ -1839,7 +1855,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="8">
-        <f>C26+7</f>
+        <f t="shared" si="0"/>
         <v>42551</v>
       </c>
     </row>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>ON  FRIDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -894,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1468,6 +1471,9 @@
       </c>
     </row>
     <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="C48" s="4">
         <f t="shared" si="2"/>
         <v>42838</v>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="72" codePage="10000"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -71,15 +70,9 @@
     <t>Manuel Chakravarty</t>
   </si>
   <si>
-    <t>Lijun Chang</t>
-  </si>
-  <si>
     <t>ARC DECRA Fellow</t>
   </si>
   <si>
-    <t>Chun Tung Chou</t>
-  </si>
-  <si>
     <t>Peng Di</t>
   </si>
   <si>
@@ -104,21 +97,6 @@
     <t>Senior Lecturer &amp; Program Director - Bioinformatics</t>
   </si>
   <si>
-    <t>Serge Gaspers</t>
-  </si>
-  <si>
-    <t>Senior Lecturer &amp; ARC Future Fellow</t>
-  </si>
-  <si>
-    <t>Hui Annie Guo</t>
-  </si>
-  <si>
-    <t>Senior Lecturer &amp; Program Director - Computer Engineering</t>
-  </si>
-  <si>
-    <t>Mahbub Hassan</t>
-  </si>
-  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -137,9 +115,6 @@
     <t>Senior Research Associate (Level B)</t>
   </si>
   <si>
-    <t>Wen Hu</t>
-  </si>
-  <si>
     <t>Zengfeng Huang</t>
   </si>
   <si>
@@ -149,12 +124,6 @@
     <t>Aleksandar Ignjatovic</t>
   </si>
   <si>
-    <t>Sanjay Jha</t>
-  </si>
-  <si>
-    <t>Salil Kanhere</t>
-  </si>
-  <si>
     <t>Gabriele Keller</t>
   </si>
   <si>
@@ -170,9 +139,6 @@
     <t>Chengwen Luo</t>
   </si>
   <si>
-    <t>Nadine Marcus</t>
-  </si>
-  <si>
     <t>Eric Martin</t>
   </si>
   <si>
@@ -185,12 +151,6 @@
     <t>Eilish O'rourke</t>
   </si>
   <si>
-    <t>Maurice Pagnucco</t>
-  </si>
-  <si>
-    <t>Professor &amp; Head of School</t>
-  </si>
-  <si>
     <t>Helen Hye-Young Paik</t>
   </si>
   <si>
@@ -203,18 +163,9 @@
     <t>Professor &amp; Postgraduate Research and Scholarship Co-ordinator</t>
   </si>
   <si>
-    <t>Jorgen Peddersen</t>
-  </si>
-  <si>
     <t>Jianbin Qin</t>
   </si>
   <si>
-    <t>Fethi Rabhi</t>
-  </si>
-  <si>
-    <t>Professor &amp; Program Director - Software Engineering</t>
-  </si>
-  <si>
     <t>David Rajaratnam</t>
   </si>
   <si>
@@ -224,12 +175,6 @@
     <t>Abdallah Saffidine</t>
   </si>
   <si>
-    <t>Claude Sammut</t>
-  </si>
-  <si>
-    <t>Professor &amp; Research Committee Chair</t>
-  </si>
-  <si>
     <t>John Shepherd</t>
   </si>
   <si>
@@ -248,9 +193,6 @@
     <t>Andrew Taylor</t>
   </si>
   <si>
-    <t>Michael Thielscher</t>
-  </si>
-  <si>
     <t>Ron Van Der Meyden</t>
   </si>
   <si>
@@ -260,12 +202,6 @@
     <t>Nicta Chair in Artificial Intelligence &amp; Professor</t>
   </si>
   <si>
-    <t>Wei Wang</t>
-  </si>
-  <si>
-    <t>Yang Wang</t>
-  </si>
-  <si>
     <t>William H. Wilson</t>
   </si>
   <si>
@@ -275,15 +211,6 @@
     <t>Raymond Wong</t>
   </si>
   <si>
-    <t>Hui Wu</t>
-  </si>
-  <si>
-    <t>Jingling Xue</t>
-  </si>
-  <si>
-    <t>Professor &amp; Associate HoS</t>
-  </si>
-  <si>
     <t>Ding Ye</t>
   </si>
   <si>
@@ -308,49 +235,7 @@
     <t>CSE Seminar Series - Roster</t>
   </si>
   <si>
-    <t xml:space="preserve">Qi Han </t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>External (UTS)</t>
-  </si>
-  <si>
-    <t>Richard Xu</t>
-  </si>
-  <si>
-    <t>Dilip Sarkar</t>
-  </si>
-  <si>
-    <t>External (U. Miami)</t>
-  </si>
-  <si>
-    <t>Dr Michael Kasumovic</t>
-  </si>
-  <si>
-    <t>UNSW</t>
-  </si>
-  <si>
-    <t>Oliver Bown</t>
-  </si>
-  <si>
-    <t>UNSW Art &amp; Design</t>
-  </si>
-  <si>
     <t>ON FRIDAY DUE TO K17_113 AVAIL.</t>
-  </si>
-  <si>
-    <t>Jake Chandler</t>
-  </si>
-  <si>
-    <t>La Trobe University</t>
-  </si>
-  <si>
-    <t>Neal Patwari</t>
-  </si>
-  <si>
-    <t>Associate Professor, the University of Utah</t>
   </si>
   <si>
     <t>ON  FRIDAY</t>
@@ -363,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,27 +322,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -512,7 +376,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -522,12 +386,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -910,29 +768,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4">
         <v>42579</v>
@@ -964,10 +822,10 @@
     </row>
     <row r="6" spans="1:7" ht="19">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <f>C5+7</f>
@@ -976,16 +834,16 @@
     </row>
     <row r="7" spans="1:7" ht="19">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>42608</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19">
@@ -1001,10 +859,10 @@
     </row>
     <row r="9" spans="1:7" ht="19">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:C17" si="0">C8+7</f>
@@ -1013,10 +871,10 @@
     </row>
     <row r="10" spans="1:7" ht="19">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
@@ -1040,7 +898,7 @@
     </row>
     <row r="12" spans="1:7" ht="19">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -1052,7 +910,7 @@
     </row>
     <row r="13" spans="1:7" ht="19">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -1064,10 +922,10 @@
     </row>
     <row r="14" spans="1:7" ht="19">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
@@ -1076,10 +934,10 @@
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
@@ -1088,10 +946,10 @@
     </row>
     <row r="16" spans="1:7" ht="19">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
@@ -1100,7 +958,7 @@
     </row>
     <row r="17" spans="1:4" ht="19">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
@@ -1112,24 +970,24 @@
     </row>
     <row r="18" spans="1:4" ht="19">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
         <v>42671</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4">
         <v>42677</v>
@@ -1137,10 +995,10 @@
     </row>
     <row r="20" spans="1:4" ht="19">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ref="C20:C35" si="1">C19+7</f>
@@ -1149,7 +1007,7 @@
     </row>
     <row r="21" spans="1:4" ht="19">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -1161,10 +1019,10 @@
     </row>
     <row r="22" spans="1:4" ht="19">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="1"/>
@@ -1173,10 +1031,10 @@
     </row>
     <row r="23" spans="1:4" ht="19">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="1"/>
@@ -1185,7 +1043,7 @@
     </row>
     <row r="24" spans="1:4" ht="19">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1209,10 +1067,10 @@
     </row>
     <row r="26" spans="1:4" ht="19">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
@@ -1221,7 +1079,7 @@
     </row>
     <row r="27" spans="1:4" ht="19">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
@@ -1233,10 +1091,10 @@
     </row>
     <row r="28" spans="1:4" ht="19">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
@@ -1245,10 +1103,10 @@
     </row>
     <row r="29" spans="1:4" ht="19">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="1"/>
@@ -1257,7 +1115,7 @@
     </row>
     <row r="30" spans="1:4" ht="19">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -1269,7 +1127,7 @@
     </row>
     <row r="31" spans="1:4" ht="19">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
@@ -1305,10 +1163,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
@@ -1329,10 +1187,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4">
         <v>42754</v>
@@ -1340,10 +1198,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C37" s="4">
         <f>C36+7</f>
@@ -1352,7 +1210,7 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -1376,10 +1234,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="2"/>
@@ -1388,10 +1246,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="2"/>
@@ -1400,7 +1258,7 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
@@ -1412,10 +1270,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="2"/>
@@ -1424,7 +1282,7 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>14</v>
@@ -1436,7 +1294,7 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
@@ -1448,10 +1306,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="2"/>
@@ -1460,10 +1318,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="2"/>
@@ -1472,7 +1330,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="2"/>
@@ -1537,386 +1395,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4">
-        <v>42306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4">
-        <f>C1+7</f>
-        <v>42313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4">
-        <f>C2+7</f>
-        <v>42320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4">
-        <f>C3+7</f>
-        <v>42327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4">
-        <f>C4+7</f>
-        <v>42334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4">
-        <v>42404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <f>C6+7</f>
-        <v>42411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="19">
-      <c r="A8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="8">
-        <f>C7+7</f>
-        <v>42418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4">
-        <f>C8+7</f>
-        <v>42425</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4">
-        <f>C9+7</f>
-        <v>42432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="4">
-        <f>C10+7</f>
-        <v>42439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="4">
-        <v>42446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <f>C12+7</f>
-        <v>42453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4">
-        <f>C13+7</f>
-        <v>42460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4">
-        <v>42467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <f>C15+7</f>
-        <v>42474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
-        <f>C16+7</f>
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="4">
-        <v>42488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:C27" si="0">C18+7</f>
-        <v>42495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" si="0"/>
-        <v>42502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="0"/>
-        <v>42509</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
-        <v>42516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="0"/>
-        <v>42523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="0"/>
-        <v>42530</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="0"/>
-        <v>42537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>42544</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="0"/>
-        <v>42551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="4">
-        <v>42558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="19">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4">
-        <f>C28+7</f>
-        <v>42565</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A24" r:id="rId4"/>
-    <hyperlink ref="A29" r:id="rId5"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A20" r:id="rId7"/>
-    <hyperlink ref="A17" r:id="rId8"/>
-    <hyperlink ref="A23" r:id="rId9"/>
-    <hyperlink ref="A16" r:id="rId10"/>
-    <hyperlink ref="A4" r:id="rId11"/>
-    <hyperlink ref="A22" r:id="rId12"/>
-    <hyperlink ref="A5" r:id="rId13"/>
-    <hyperlink ref="A6" r:id="rId14"/>
-    <hyperlink ref="A8" r:id="rId15"/>
-    <hyperlink ref="A7" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A27" r:id="rId19"/>
-    <hyperlink ref="A25" r:id="rId20"/>
-    <hyperlink ref="A26" r:id="rId21"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19840" yWindow="0" windowWidth="25080" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="13660" yWindow="0" windowWidth="25080" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,9 +340,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -390,7 +391,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -423,6 +424,7 @@
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -756,14 +758,14 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -804,8 +806,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <f>C3+7</f>
-        <v>42586</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19">
@@ -817,7 +818,7 @@
       </c>
       <c r="C5" s="4">
         <f>C4+7</f>
-        <v>42593</v>
+        <v>42607</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19">
@@ -829,7 +830,7 @@
       </c>
       <c r="C6" s="4">
         <f>C5+7</f>
-        <v>42600</v>
+        <v>42614</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="0" windowWidth="25080" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="13660" yWindow="0" windowWidth="29120" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,9 +340,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -391,7 +393,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -425,6 +427,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -758,7 +762,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -799,52 +803,52 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>42600</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <f>C4+7</f>
         <v>42607</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19">
       <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42608</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19">
+      <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <f>C5+7</f>
         <v>42614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
-        <v>42608</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19">
@@ -855,7 +859,8 @@
         <v>14</v>
       </c>
       <c r="C8" s="4">
-        <v>42614</v>
+        <f>C7+7</f>
+        <v>42621</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19">
@@ -867,7 +872,7 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:C17" si="0">C8+7</f>
-        <v>42621</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19">
@@ -879,7 +884,7 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>42628</v>
+        <v>42635</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -894,7 +899,7 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>42635</v>
+        <v>42642</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
@@ -906,7 +911,7 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>42642</v>
+        <v>42649</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
@@ -918,7 +923,7 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>42649</v>
+        <v>42656</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">
@@ -930,7 +935,7 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>42656</v>
+        <v>42663</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19">
@@ -941,8 +946,10 @@
         <v>32</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>42663</v>
+        <v>42671</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19">
@@ -953,11 +960,11 @@
         <v>40</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>42670</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19">
+        <f>C14+14</f>
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -966,10 +973,10 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>42677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -979,11 +986,8 @@
       <c r="C18" s="4">
         <v>42671</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19">
+    </row>
+    <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -994,7 +998,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19">
+    <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>42684</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19">
+    <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19">
+    <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19">
+    <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19">
+    <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19">
+    <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>42719</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19">
+    <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19">
+    <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>42733</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19">
+    <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19">
+    <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19">
+    <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19">
+    <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19">
+    <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1379,7 @@
     <hyperlink ref="A22" r:id="rId30"/>
     <hyperlink ref="A23" r:id="rId31"/>
     <hyperlink ref="A36" r:id="rId32"/>
-    <hyperlink ref="A6" r:id="rId33"/>
+    <hyperlink ref="A7" r:id="rId33"/>
     <hyperlink ref="A14" r:id="rId34"/>
     <hyperlink ref="A42" r:id="rId35"/>
     <hyperlink ref="A37" r:id="rId36"/>
@@ -1383,7 +1387,7 @@
     <hyperlink ref="A38" r:id="rId38"/>
     <hyperlink ref="A44" r:id="rId39"/>
     <hyperlink ref="A27" r:id="rId40"/>
-    <hyperlink ref="A7" r:id="rId41"/>
+    <hyperlink ref="A6" r:id="rId41"/>
     <hyperlink ref="A34" r:id="rId42"/>
     <hyperlink ref="A31" r:id="rId43"/>
     <hyperlink ref="A3" r:id="rId44"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>ON FRIDAY DUE TO K17_113 AVAIL.</t>
-  </si>
-  <si>
-    <t>ON  FRIDAY</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -762,7 +759,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -827,28 +824,26 @@
     </row>
     <row r="6" spans="1:7" ht="19">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
-        <v>42608</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
+        <f>C4+14</f>
+        <v>42614</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
-        <f>C5+7</f>
-        <v>42614</v>
+        <f t="shared" ref="C7:C14" si="0">C5+14</f>
+        <v>42621</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19">
@@ -859,8 +854,8 @@
         <v>14</v>
       </c>
       <c r="C8" s="4">
-        <f>C7+7</f>
-        <v>42621</v>
+        <f t="shared" si="0"/>
+        <v>42628</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19">
@@ -871,8 +866,8 @@
         <v>46</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:C17" si="0">C8+7</f>
-        <v>42628</v>
+        <f t="shared" si="0"/>
+        <v>42635</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19">
@@ -884,7 +879,7 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>42635</v>
+        <v>42642</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -899,7 +894,7 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>42642</v>
+        <v>42649</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
@@ -911,7 +906,7 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>42649</v>
+        <v>42656</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
@@ -923,7 +918,7 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>42656</v>
+        <v>42663</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">
@@ -934,8 +929,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>42663</v>
+        <v>42671</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19">
@@ -946,10 +943,8 @@
         <v>32</v>
       </c>
       <c r="C15" s="4">
-        <v>42671</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>71</v>
+        <f>C13+14</f>
+        <v>42677</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19">
@@ -960,8 +955,8 @@
         <v>40</v>
       </c>
       <c r="C16" s="4">
-        <f>C14+14</f>
-        <v>42677</v>
+        <f>C15+7</f>
+        <v>42684</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
@@ -972,8 +967,8 @@
         <v>14</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>42684</v>
+        <f t="shared" ref="C9:C17" si="1">C16+7</f>
+        <v>42691</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
@@ -1006,7 +1001,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ref="C20:C35" si="1">C19+7</f>
+        <f t="shared" ref="C20:C35" si="2">C19+7</f>
         <v>42684</v>
       </c>
     </row>
@@ -1018,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42691</v>
       </c>
     </row>
@@ -1030,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42698</v>
       </c>
     </row>
@@ -1042,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42705</v>
       </c>
     </row>
@@ -1054,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42712</v>
       </c>
     </row>
@@ -1066,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42719</v>
       </c>
     </row>
@@ -1078,7 +1073,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42726</v>
       </c>
     </row>
@@ -1090,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42733</v>
       </c>
     </row>
@@ -1102,7 +1097,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42740</v>
       </c>
     </row>
@@ -1114,7 +1109,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42747</v>
       </c>
     </row>
@@ -1126,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42754</v>
       </c>
     </row>
@@ -1138,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42761</v>
       </c>
     </row>
@@ -1150,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42768</v>
       </c>
     </row>
@@ -1162,7 +1157,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42775</v>
       </c>
     </row>
@@ -1174,7 +1169,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42782</v>
       </c>
     </row>
@@ -1186,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42789</v>
       </c>
     </row>
@@ -1221,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" ref="C38:C48" si="2">C37+7</f>
+        <f t="shared" ref="C38:C48" si="3">C37+7</f>
         <v>42768</v>
       </c>
     </row>
@@ -1233,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42775</v>
       </c>
     </row>
@@ -1245,7 +1240,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42782</v>
       </c>
     </row>
@@ -1257,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42789</v>
       </c>
     </row>
@@ -1269,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42796</v>
       </c>
     </row>
@@ -1281,7 +1276,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42803</v>
       </c>
     </row>
@@ -1293,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42810</v>
       </c>
     </row>
@@ -1305,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42817</v>
       </c>
     </row>
@@ -1317,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42824</v>
       </c>
     </row>
@@ -1329,16 +1324,16 @@
         <v>25</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42831</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42838</v>
       </c>
     </row>
@@ -1379,7 +1374,7 @@
     <hyperlink ref="A22" r:id="rId30"/>
     <hyperlink ref="A23" r:id="rId31"/>
     <hyperlink ref="A36" r:id="rId32"/>
-    <hyperlink ref="A7" r:id="rId33"/>
+    <hyperlink ref="A6" r:id="rId33"/>
     <hyperlink ref="A14" r:id="rId34"/>
     <hyperlink ref="A42" r:id="rId35"/>
     <hyperlink ref="A37" r:id="rId36"/>
@@ -1387,7 +1382,7 @@
     <hyperlink ref="A38" r:id="rId38"/>
     <hyperlink ref="A44" r:id="rId39"/>
     <hyperlink ref="A27" r:id="rId40"/>
-    <hyperlink ref="A6" r:id="rId41"/>
+    <hyperlink ref="A7" r:id="rId41"/>
     <hyperlink ref="A34" r:id="rId42"/>
     <hyperlink ref="A31" r:id="rId43"/>
     <hyperlink ref="A3" r:id="rId44"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -759,7 +759,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -835,14 +835,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7:C14" si="0">C5+14</f>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:C13" si="0">C5+14</f>
         <v>42621</v>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C9:C17" si="1">C16+7</f>
+        <f t="shared" ref="C17" si="1">C16+7</f>
         <v>42691</v>
       </c>
     </row>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>ON FRIDAY DUE TO K17_113 AVAIL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -759,7 +756,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -922,11 +919,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="4">
         <v>42671</v>
@@ -937,10 +934,10 @@
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
         <f>C13+14</f>
@@ -949,10 +946,10 @@
     </row>
     <row r="16" spans="1:7" ht="19">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4">
         <f>C15+7</f>
@@ -961,10 +958,10 @@
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17" si="1">C16+7</f>
@@ -973,10 +970,10 @@
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>42671</v>
@@ -984,10 +981,10 @@
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>42677</v>
@@ -995,10 +992,10 @@
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ref="C20:C35" si="2">C19+7</f>
@@ -1007,10 +1004,10 @@
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="2"/>
@@ -1019,10 +1016,10 @@
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="2"/>
@@ -1031,10 +1028,10 @@
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="2"/>
@@ -1043,10 +1040,10 @@
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="2"/>
@@ -1055,10 +1052,10 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="2"/>
@@ -1067,10 +1064,10 @@
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="2"/>
@@ -1079,10 +1076,10 @@
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="2"/>
@@ -1091,10 +1088,10 @@
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
@@ -1103,10 +1100,10 @@
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="2"/>
@@ -1115,10 +1112,10 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="2"/>
@@ -1127,10 +1124,10 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="2"/>
@@ -1139,10 +1136,10 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="2"/>
@@ -1151,10 +1148,10 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="2"/>
@@ -1163,10 +1160,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="2"/>
@@ -1175,10 +1172,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="2"/>
@@ -1187,10 +1184,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C36" s="4">
         <v>42754</v>
@@ -1198,10 +1195,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>C36+7</f>
@@ -1210,10 +1207,10 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" ref="C38:C48" si="3">C37+7</f>
@@ -1222,10 +1219,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="3"/>
@@ -1234,10 +1231,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="3"/>
@@ -1246,10 +1243,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="3"/>
@@ -1258,10 +1255,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="3"/>
@@ -1270,10 +1267,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="3"/>
@@ -1282,10 +1279,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="3"/>
@@ -1294,10 +1291,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="3"/>
@@ -1306,10 +1303,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="3"/>
@@ -1318,19 +1315,22 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="3"/>
         <v>42831</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>72</v>
+    <row r="48" spans="1:3" ht="19">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="3"/>
@@ -1342,50 +1342,51 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A32" r:id="rId5"/>
-    <hyperlink ref="A25" r:id="rId6"/>
-    <hyperlink ref="A39" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A28" r:id="rId9"/>
-    <hyperlink ref="A13" r:id="rId10"/>
-    <hyperlink ref="A17" r:id="rId11"/>
-    <hyperlink ref="A45" r:id="rId12"/>
-    <hyperlink ref="A26" r:id="rId13"/>
-    <hyperlink ref="A41" r:id="rId14"/>
-    <hyperlink ref="A19" r:id="rId15"/>
-    <hyperlink ref="A46" r:id="rId16"/>
-    <hyperlink ref="A15" r:id="rId17"/>
-    <hyperlink ref="A12" r:id="rId18"/>
-    <hyperlink ref="A40" r:id="rId19"/>
+    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5"/>
+    <hyperlink ref="A12" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A48" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="A3" r:id="rId12"/>
+    <hyperlink ref="A32" r:id="rId13"/>
+    <hyperlink ref="A35" r:id="rId14"/>
+    <hyperlink ref="A28" r:id="rId15"/>
+    <hyperlink ref="A45" r:id="rId16"/>
+    <hyperlink ref="A39" r:id="rId17"/>
+    <hyperlink ref="A30" r:id="rId18"/>
+    <hyperlink ref="A38" r:id="rId19"/>
     <hyperlink ref="A43" r:id="rId20"/>
-    <hyperlink ref="A24" r:id="rId21"/>
-    <hyperlink ref="A10" r:id="rId22"/>
-    <hyperlink ref="A16" r:id="rId23"/>
-    <hyperlink ref="A47" r:id="rId24"/>
-    <hyperlink ref="A30" r:id="rId25"/>
-    <hyperlink ref="A20" r:id="rId26"/>
-    <hyperlink ref="A9" r:id="rId27"/>
-    <hyperlink ref="A18" r:id="rId28"/>
-    <hyperlink ref="A21" r:id="rId29"/>
-    <hyperlink ref="A22" r:id="rId30"/>
-    <hyperlink ref="A23" r:id="rId31"/>
-    <hyperlink ref="A36" r:id="rId32"/>
-    <hyperlink ref="A6" r:id="rId33"/>
-    <hyperlink ref="A14" r:id="rId34"/>
-    <hyperlink ref="A42" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A29" r:id="rId37"/>
-    <hyperlink ref="A38" r:id="rId38"/>
-    <hyperlink ref="A44" r:id="rId39"/>
-    <hyperlink ref="A27" r:id="rId40"/>
-    <hyperlink ref="A7" r:id="rId41"/>
-    <hyperlink ref="A34" r:id="rId42"/>
-    <hyperlink ref="A31" r:id="rId43"/>
-    <hyperlink ref="A3" r:id="rId44"/>
+    <hyperlink ref="A15" r:id="rId21"/>
+    <hyperlink ref="A37" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A23" r:id="rId24"/>
+    <hyperlink ref="A22" r:id="rId25"/>
+    <hyperlink ref="A19" r:id="rId26"/>
+    <hyperlink ref="A21" r:id="rId27"/>
+    <hyperlink ref="A31" r:id="rId28"/>
+    <hyperlink ref="A17" r:id="rId29"/>
+    <hyperlink ref="A25" r:id="rId30"/>
+    <hyperlink ref="A44" r:id="rId31"/>
+    <hyperlink ref="A41" r:id="rId32"/>
+    <hyperlink ref="A16" r:id="rId33"/>
+    <hyperlink ref="A47" r:id="rId34"/>
+    <hyperlink ref="A20" r:id="rId35"/>
+    <hyperlink ref="A42" r:id="rId36"/>
+    <hyperlink ref="A27" r:id="rId37"/>
+    <hyperlink ref="A46" r:id="rId38"/>
+    <hyperlink ref="A18" r:id="rId39"/>
+    <hyperlink ref="A29" r:id="rId40"/>
+    <hyperlink ref="A40" r:id="rId41"/>
+    <hyperlink ref="A26" r:id="rId42"/>
+    <hyperlink ref="A33" r:id="rId43"/>
+    <hyperlink ref="A36" r:id="rId44"/>
+    <hyperlink ref="A14" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -756,7 +756,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -919,10 +919,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>ON FRIDAY DUE TO K17_113 AVAIL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -942,6 +945,9 @@
       <c r="C15" s="4">
         <f>C13+14</f>
         <v>42677</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -910,11 +910,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
@@ -937,10 +937,10 @@
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4">
         <f>C13+14</f>
@@ -952,10 +952,10 @@
     </row>
     <row r="16" spans="1:7" ht="19">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4">
         <f>C15+7</f>
@@ -964,10 +964,10 @@
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17" si="1">C16+7</f>
@@ -976,10 +976,10 @@
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4">
         <v>42671</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4">
         <v>42677</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ref="C20:C35" si="2">C19+7</f>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="2"/>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="2"/>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="2"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="2"/>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="2"/>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="2"/>
@@ -1082,10 +1082,10 @@
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="2"/>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="2"/>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="2"/>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="2"/>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="2"/>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="2"/>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="2"/>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="2"/>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4">
         <v>42754</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C37" s="4">
         <f>C36+7</f>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" ref="C38:C48" si="3">C37+7</f>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="3"/>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="3"/>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="3"/>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="3"/>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="3"/>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="3"/>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="3"/>
@@ -1309,10 +1309,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="3"/>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="3"/>
@@ -1333,14 +1333,22 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="3"/>
         <v>42838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1352,47 +1360,48 @@
     <hyperlink ref="A5" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A13" r:id="rId5"/>
+    <hyperlink ref="A15" r:id="rId5"/>
     <hyperlink ref="A12" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A48" r:id="rId8"/>
+    <hyperlink ref="A49" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A6" r:id="rId10"/>
     <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="A3" r:id="rId12"/>
-    <hyperlink ref="A32" r:id="rId13"/>
-    <hyperlink ref="A35" r:id="rId14"/>
-    <hyperlink ref="A28" r:id="rId15"/>
-    <hyperlink ref="A45" r:id="rId16"/>
-    <hyperlink ref="A39" r:id="rId17"/>
-    <hyperlink ref="A30" r:id="rId18"/>
-    <hyperlink ref="A38" r:id="rId19"/>
-    <hyperlink ref="A43" r:id="rId20"/>
-    <hyperlink ref="A15" r:id="rId21"/>
-    <hyperlink ref="A37" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A23" r:id="rId24"/>
-    <hyperlink ref="A22" r:id="rId25"/>
-    <hyperlink ref="A19" r:id="rId26"/>
-    <hyperlink ref="A21" r:id="rId27"/>
-    <hyperlink ref="A31" r:id="rId28"/>
-    <hyperlink ref="A17" r:id="rId29"/>
-    <hyperlink ref="A25" r:id="rId30"/>
-    <hyperlink ref="A44" r:id="rId31"/>
-    <hyperlink ref="A41" r:id="rId32"/>
-    <hyperlink ref="A16" r:id="rId33"/>
-    <hyperlink ref="A47" r:id="rId34"/>
-    <hyperlink ref="A20" r:id="rId35"/>
-    <hyperlink ref="A42" r:id="rId36"/>
-    <hyperlink ref="A27" r:id="rId37"/>
-    <hyperlink ref="A46" r:id="rId38"/>
-    <hyperlink ref="A18" r:id="rId39"/>
-    <hyperlink ref="A29" r:id="rId40"/>
-    <hyperlink ref="A40" r:id="rId41"/>
-    <hyperlink ref="A26" r:id="rId42"/>
-    <hyperlink ref="A33" r:id="rId43"/>
-    <hyperlink ref="A36" r:id="rId44"/>
+    <hyperlink ref="A33" r:id="rId13"/>
+    <hyperlink ref="A36" r:id="rId14"/>
+    <hyperlink ref="A29" r:id="rId15"/>
+    <hyperlink ref="A46" r:id="rId16"/>
+    <hyperlink ref="A40" r:id="rId17"/>
+    <hyperlink ref="A31" r:id="rId18"/>
+    <hyperlink ref="A39" r:id="rId19"/>
+    <hyperlink ref="A44" r:id="rId20"/>
+    <hyperlink ref="A16" r:id="rId21"/>
+    <hyperlink ref="A38" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A24" r:id="rId24"/>
+    <hyperlink ref="A23" r:id="rId25"/>
+    <hyperlink ref="A20" r:id="rId26"/>
+    <hyperlink ref="A22" r:id="rId27"/>
+    <hyperlink ref="A32" r:id="rId28"/>
+    <hyperlink ref="A18" r:id="rId29"/>
+    <hyperlink ref="A26" r:id="rId30"/>
+    <hyperlink ref="A45" r:id="rId31"/>
+    <hyperlink ref="A42" r:id="rId32"/>
+    <hyperlink ref="A17" r:id="rId33"/>
+    <hyperlink ref="A48" r:id="rId34"/>
+    <hyperlink ref="A21" r:id="rId35"/>
+    <hyperlink ref="A43" r:id="rId36"/>
+    <hyperlink ref="A28" r:id="rId37"/>
+    <hyperlink ref="A47" r:id="rId38"/>
+    <hyperlink ref="A19" r:id="rId39"/>
+    <hyperlink ref="A30" r:id="rId40"/>
+    <hyperlink ref="A41" r:id="rId41"/>
+    <hyperlink ref="A27" r:id="rId42"/>
+    <hyperlink ref="A34" r:id="rId43"/>
+    <hyperlink ref="A37" r:id="rId44"/>
     <hyperlink ref="A14" r:id="rId45"/>
+    <hyperlink ref="A13" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -910,15 +913,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>42663</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -340,9 +340,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -393,7 +398,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="42">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -429,6 +434,11 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -761,14 +771,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -850,38 +860,36 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="19">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>42628</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>42635</v>
+        <v>42640</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
         <v>42642</v>
       </c>
       <c r="E10" s="6"/>
@@ -890,25 +898,25 @@
     </row>
     <row r="11" spans="1:7" ht="19">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
+        <f>C10+7</f>
         <v>42649</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="0"/>
+        <f>C11+7</f>
         <v>42656</v>
       </c>
     </row>
@@ -920,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="0"/>
+        <f>C12+7</f>
         <v>42663</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1362,15 +1370,15 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId1"/>
     <hyperlink ref="A5" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A8" r:id="rId4"/>
     <hyperlink ref="A15" r:id="rId5"/>
-    <hyperlink ref="A12" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A11" r:id="rId7"/>
     <hyperlink ref="A49" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId9"/>
     <hyperlink ref="A6" r:id="rId10"/>
     <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="A3" r:id="rId12"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="0" windowWidth="29120" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="13640" yWindow="20" windowWidth="29120" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Senior Lecturer</t>
   </si>
   <si>
-    <t>Moshe Barukh</t>
-  </si>
-  <si>
-    <t>Lecturer &amp; Research Fellow</t>
-  </si>
-  <si>
     <t>Seyed-Mehdi-Reza Beheshti</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
   </si>
   <si>
     <t>Xuemin Lin</t>
-  </si>
-  <si>
-    <t>Chengwen Luo</t>
   </si>
   <si>
     <t>Eric Martin</t>
@@ -769,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -785,39 +776,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
         <v>42579</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="19">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8">
         <v>42600</v>
@@ -825,10 +819,10 @@
     </row>
     <row r="5" spans="1:7" ht="19">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8">
         <f>C4+7</f>
@@ -837,10 +831,10 @@
     </row>
     <row r="6" spans="1:7" ht="19">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <f>C4+14</f>
@@ -849,10 +843,10 @@
     </row>
     <row r="7" spans="1:7" ht="19">
       <c r="A7" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" ref="C7:C13" si="0">C5+14</f>
@@ -861,10 +855,10 @@
     </row>
     <row r="8" spans="1:7" ht="19">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
@@ -873,10 +867,10 @@
     </row>
     <row r="9" spans="1:7" ht="19">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>42640</v>
@@ -884,10 +878,10 @@
     </row>
     <row r="10" spans="1:7" ht="19">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
         <v>42642</v>
@@ -898,10 +892,10 @@
     </row>
     <row r="11" spans="1:7" ht="19">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <f>C10+7</f>
@@ -910,10 +904,10 @@
     </row>
     <row r="12" spans="1:7" ht="19">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <f>C11+7</f>
@@ -922,54 +916,54 @@
     </row>
     <row r="13" spans="1:7" ht="19">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
         <f>C12+7</f>
         <v>42663</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4">
         <v>42671</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4">
         <f>C13+14</f>
         <v>42677</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <f>C15+7</f>
@@ -978,10 +972,10 @@
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17" si="1">C16+7</f>
@@ -990,10 +984,10 @@
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
         <v>42671</v>
@@ -1001,10 +995,10 @@
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4">
         <v>42677</v>
@@ -1012,10 +1006,10 @@
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ref="C20:C35" si="2">C19+7</f>
@@ -1024,10 +1018,10 @@
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="2"/>
@@ -1036,10 +1030,10 @@
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="2"/>
@@ -1048,10 +1042,10 @@
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="2"/>
@@ -1060,10 +1054,10 @@
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="2"/>
@@ -1072,10 +1066,10 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="2"/>
@@ -1084,10 +1078,10 @@
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="2"/>
@@ -1096,10 +1090,10 @@
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="2"/>
@@ -1108,10 +1102,10 @@
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
@@ -1120,10 +1114,10 @@
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="2"/>
@@ -1132,10 +1126,10 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="2"/>
@@ -1144,10 +1138,10 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="2"/>
@@ -1156,10 +1150,10 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="2"/>
@@ -1168,10 +1162,10 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="2"/>
@@ -1180,10 +1174,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="2"/>
@@ -1192,10 +1186,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="2"/>
@@ -1204,10 +1198,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4">
         <v>42754</v>
@@ -1215,10 +1209,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4">
         <f>C36+7</f>
@@ -1227,10 +1221,10 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" ref="C38:C48" si="3">C37+7</f>
@@ -1239,10 +1233,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="3"/>
@@ -1251,10 +1245,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="3"/>
@@ -1263,10 +1257,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="3"/>
@@ -1275,10 +1269,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="3"/>
@@ -1287,10 +1281,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="3"/>
@@ -1299,10 +1293,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="3"/>
@@ -1311,10 +1305,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="3"/>
@@ -1323,10 +1317,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="3"/>
@@ -1335,87 +1329,68 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="3"/>
         <v>42831</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="3"/>
-        <v>42838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="19">
-      <c r="A49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>25</v>
-      </c>
+    <row r="48" spans="1:3">
+      <c r="C48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A15" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A11" r:id="rId7"/>
-    <hyperlink ref="A49" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A6" r:id="rId10"/>
-    <hyperlink ref="A7" r:id="rId11"/>
-    <hyperlink ref="A3" r:id="rId12"/>
-    <hyperlink ref="A33" r:id="rId13"/>
-    <hyperlink ref="A36" r:id="rId14"/>
-    <hyperlink ref="A29" r:id="rId15"/>
-    <hyperlink ref="A46" r:id="rId16"/>
-    <hyperlink ref="A40" r:id="rId17"/>
-    <hyperlink ref="A31" r:id="rId18"/>
-    <hyperlink ref="A39" r:id="rId19"/>
-    <hyperlink ref="A44" r:id="rId20"/>
-    <hyperlink ref="A16" r:id="rId21"/>
-    <hyperlink ref="A38" r:id="rId22"/>
-    <hyperlink ref="A25" r:id="rId23"/>
-    <hyperlink ref="A24" r:id="rId24"/>
-    <hyperlink ref="A23" r:id="rId25"/>
-    <hyperlink ref="A20" r:id="rId26"/>
-    <hyperlink ref="A22" r:id="rId27"/>
-    <hyperlink ref="A32" r:id="rId28"/>
-    <hyperlink ref="A18" r:id="rId29"/>
-    <hyperlink ref="A26" r:id="rId30"/>
-    <hyperlink ref="A45" r:id="rId31"/>
-    <hyperlink ref="A42" r:id="rId32"/>
-    <hyperlink ref="A17" r:id="rId33"/>
-    <hyperlink ref="A48" r:id="rId34"/>
-    <hyperlink ref="A21" r:id="rId35"/>
-    <hyperlink ref="A43" r:id="rId36"/>
-    <hyperlink ref="A28" r:id="rId37"/>
-    <hyperlink ref="A47" r:id="rId38"/>
-    <hyperlink ref="A19" r:id="rId39"/>
-    <hyperlink ref="A30" r:id="rId40"/>
-    <hyperlink ref="A41" r:id="rId41"/>
-    <hyperlink ref="A27" r:id="rId42"/>
-    <hyperlink ref="A34" r:id="rId43"/>
-    <hyperlink ref="A37" r:id="rId44"/>
-    <hyperlink ref="A14" r:id="rId45"/>
-    <hyperlink ref="A13" r:id="rId46"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A11" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5"/>
+    <hyperlink ref="A47" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A6" r:id="rId8"/>
+    <hyperlink ref="A7" r:id="rId9"/>
+    <hyperlink ref="A3" r:id="rId10"/>
+    <hyperlink ref="A31" r:id="rId11"/>
+    <hyperlink ref="A34" r:id="rId12"/>
+    <hyperlink ref="A27" r:id="rId13"/>
+    <hyperlink ref="A44" r:id="rId14"/>
+    <hyperlink ref="A38" r:id="rId15"/>
+    <hyperlink ref="A29" r:id="rId16"/>
+    <hyperlink ref="A37" r:id="rId17"/>
+    <hyperlink ref="A42" r:id="rId18"/>
+    <hyperlink ref="A12" r:id="rId19"/>
+    <hyperlink ref="A36" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
+    <hyperlink ref="A22" r:id="rId22"/>
+    <hyperlink ref="A21" r:id="rId23"/>
+    <hyperlink ref="A18" r:id="rId24"/>
+    <hyperlink ref="A20" r:id="rId25"/>
+    <hyperlink ref="A30" r:id="rId26"/>
+    <hyperlink ref="A16" r:id="rId27"/>
+    <hyperlink ref="A24" r:id="rId28"/>
+    <hyperlink ref="A43" r:id="rId29"/>
+    <hyperlink ref="A40" r:id="rId30"/>
+    <hyperlink ref="A15" r:id="rId31"/>
+    <hyperlink ref="A46" r:id="rId32"/>
+    <hyperlink ref="A19" r:id="rId33"/>
+    <hyperlink ref="A41" r:id="rId34"/>
+    <hyperlink ref="A26" r:id="rId35"/>
+    <hyperlink ref="A45" r:id="rId36"/>
+    <hyperlink ref="A17" r:id="rId37"/>
+    <hyperlink ref="A28" r:id="rId38"/>
+    <hyperlink ref="A39" r:id="rId39"/>
+    <hyperlink ref="A25" r:id="rId40"/>
+    <hyperlink ref="A32" r:id="rId41"/>
+    <hyperlink ref="A35" r:id="rId42"/>
+    <hyperlink ref="A14" r:id="rId43"/>
+    <hyperlink ref="A13" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="20" windowWidth="29120" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,9 +331,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,7 +390,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -430,6 +431,7 @@
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -763,7 +765,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C47" sqref="C47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -849,7 +851,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" ref="C7:C13" si="0">C5+14</f>
+        <f t="shared" ref="C7:C8" si="0">C5+14</f>
         <v>42621</v>
       </c>
     </row>
@@ -929,13 +931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="14" spans="1:7">
       <c r="C14" s="4">
         <v>42671</v>
       </c>
@@ -945,10 +941,10 @@
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4">
         <f>C13+14</f>
@@ -960,10 +956,10 @@
     </row>
     <row r="16" spans="1:7" ht="19">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4">
         <f>C15+7</f>
@@ -972,10 +968,10 @@
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17" si="1">C16+7</f>
@@ -984,10 +980,10 @@
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>42671</v>
@@ -995,10 +991,10 @@
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <v>42677</v>
@@ -1006,10 +1002,10 @@
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ref="C20:C35" si="2">C19+7</f>
@@ -1018,10 +1014,10 @@
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="2"/>
@@ -1030,10 +1026,10 @@
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="2"/>
@@ -1042,10 +1038,10 @@
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="2"/>
@@ -1054,10 +1050,10 @@
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="2"/>
@@ -1066,10 +1062,10 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="2"/>
@@ -1078,10 +1074,10 @@
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="2"/>
@@ -1090,10 +1086,10 @@
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="2"/>
@@ -1102,10 +1098,10 @@
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
@@ -1114,10 +1110,10 @@
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="2"/>
@@ -1126,10 +1122,10 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="2"/>
@@ -1138,10 +1134,10 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="2"/>
@@ -1150,10 +1146,10 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="2"/>
@@ -1162,10 +1158,10 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="2"/>
@@ -1174,10 +1170,10 @@
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="2"/>
@@ -1186,10 +1182,10 @@
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="2"/>
@@ -1198,10 +1194,10 @@
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C36" s="4">
         <v>42754</v>
@@ -1209,10 +1205,10 @@
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4">
         <f>C36+7</f>
@@ -1221,10 +1217,10 @@
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" ref="C38:C48" si="3">C37+7</f>
@@ -1233,10 +1229,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="3"/>
@@ -1245,10 +1241,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="3"/>
@@ -1257,10 +1253,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="3"/>
@@ -1269,10 +1265,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="3"/>
@@ -1281,10 +1277,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="3"/>
@@ -1293,10 +1289,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="3"/>
@@ -1305,10 +1301,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="3"/>
@@ -1317,10 +1313,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="3"/>
@@ -1329,18 +1325,27 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="3"/>
         <v>42831</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="C48" s="4"/>
+    <row r="48" spans="1:3" ht="19">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="3"/>
+        <v>42838</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1352,44 +1357,44 @@
     <hyperlink ref="A8" r:id="rId3"/>
     <hyperlink ref="A11" r:id="rId4"/>
     <hyperlink ref="A9" r:id="rId5"/>
-    <hyperlink ref="A47" r:id="rId6"/>
+    <hyperlink ref="A48" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
     <hyperlink ref="A6" r:id="rId8"/>
     <hyperlink ref="A7" r:id="rId9"/>
     <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A31" r:id="rId11"/>
-    <hyperlink ref="A34" r:id="rId12"/>
-    <hyperlink ref="A27" r:id="rId13"/>
-    <hyperlink ref="A44" r:id="rId14"/>
-    <hyperlink ref="A38" r:id="rId15"/>
-    <hyperlink ref="A29" r:id="rId16"/>
-    <hyperlink ref="A37" r:id="rId17"/>
-    <hyperlink ref="A42" r:id="rId18"/>
+    <hyperlink ref="A32" r:id="rId11"/>
+    <hyperlink ref="A35" r:id="rId12"/>
+    <hyperlink ref="A28" r:id="rId13"/>
+    <hyperlink ref="A45" r:id="rId14"/>
+    <hyperlink ref="A39" r:id="rId15"/>
+    <hyperlink ref="A30" r:id="rId16"/>
+    <hyperlink ref="A38" r:id="rId17"/>
+    <hyperlink ref="A43" r:id="rId18"/>
     <hyperlink ref="A12" r:id="rId19"/>
-    <hyperlink ref="A36" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
-    <hyperlink ref="A22" r:id="rId22"/>
-    <hyperlink ref="A21" r:id="rId23"/>
-    <hyperlink ref="A18" r:id="rId24"/>
-    <hyperlink ref="A20" r:id="rId25"/>
-    <hyperlink ref="A30" r:id="rId26"/>
-    <hyperlink ref="A16" r:id="rId27"/>
-    <hyperlink ref="A24" r:id="rId28"/>
-    <hyperlink ref="A43" r:id="rId29"/>
-    <hyperlink ref="A40" r:id="rId30"/>
-    <hyperlink ref="A15" r:id="rId31"/>
-    <hyperlink ref="A46" r:id="rId32"/>
-    <hyperlink ref="A19" r:id="rId33"/>
-    <hyperlink ref="A41" r:id="rId34"/>
-    <hyperlink ref="A26" r:id="rId35"/>
-    <hyperlink ref="A45" r:id="rId36"/>
-    <hyperlink ref="A17" r:id="rId37"/>
-    <hyperlink ref="A28" r:id="rId38"/>
-    <hyperlink ref="A39" r:id="rId39"/>
-    <hyperlink ref="A25" r:id="rId40"/>
-    <hyperlink ref="A32" r:id="rId41"/>
-    <hyperlink ref="A35" r:id="rId42"/>
-    <hyperlink ref="A14" r:id="rId43"/>
+    <hyperlink ref="A37" r:id="rId20"/>
+    <hyperlink ref="A24" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A22" r:id="rId23"/>
+    <hyperlink ref="A19" r:id="rId24"/>
+    <hyperlink ref="A21" r:id="rId25"/>
+    <hyperlink ref="A31" r:id="rId26"/>
+    <hyperlink ref="A17" r:id="rId27"/>
+    <hyperlink ref="A25" r:id="rId28"/>
+    <hyperlink ref="A44" r:id="rId29"/>
+    <hyperlink ref="A41" r:id="rId30"/>
+    <hyperlink ref="A16" r:id="rId31"/>
+    <hyperlink ref="A47" r:id="rId32"/>
+    <hyperlink ref="A20" r:id="rId33"/>
+    <hyperlink ref="A42" r:id="rId34"/>
+    <hyperlink ref="A27" r:id="rId35"/>
+    <hyperlink ref="A46" r:id="rId36"/>
+    <hyperlink ref="A18" r:id="rId37"/>
+    <hyperlink ref="A29" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A26" r:id="rId40"/>
+    <hyperlink ref="A33" r:id="rId41"/>
+    <hyperlink ref="A36" r:id="rId42"/>
+    <hyperlink ref="A15" r:id="rId43"/>
     <hyperlink ref="A13" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -765,7 +765,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C48"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -974,7 +974,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17" si="1">C16+7</f>
+        <f t="shared" ref="C17:C19" si="1">C16+7</f>
         <v>42691</v>
       </c>
     </row>
@@ -986,7 +986,8 @@
         <v>12</v>
       </c>
       <c r="C18" s="4">
-        <v>42671</v>
+        <f t="shared" si="1"/>
+        <v>42698</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
@@ -997,7 +998,8 @@
         <v>16</v>
       </c>
       <c r="C19" s="4">
-        <v>42677</v>
+        <f t="shared" si="1"/>
+        <v>42705</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
@@ -1009,7 +1011,7 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" ref="C20:C35" si="2">C19+7</f>
-        <v>42684</v>
+        <v>42712</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
@@ -1021,7 +1023,7 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" si="2"/>
-        <v>42691</v>
+        <v>42719</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
@@ -1033,7 +1035,7 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" si="2"/>
-        <v>42698</v>
+        <v>42726</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
@@ -1045,7 +1047,7 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" si="2"/>
-        <v>42705</v>
+        <v>42733</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19">
@@ -1057,7 +1059,7 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" si="2"/>
-        <v>42712</v>
+        <v>42740</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19">
@@ -1069,7 +1071,7 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" si="2"/>
-        <v>42719</v>
+        <v>42747</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
@@ -1081,7 +1083,7 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="2"/>
-        <v>42726</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
@@ -1093,7 +1095,7 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" si="2"/>
-        <v>42733</v>
+        <v>42761</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
@@ -1105,7 +1107,7 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
-        <v>42740</v>
+        <v>42768</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
@@ -1117,7 +1119,7 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" si="2"/>
-        <v>42747</v>
+        <v>42775</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
@@ -1129,7 +1131,7 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" si="2"/>
-        <v>42754</v>
+        <v>42782</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
@@ -1141,7 +1143,7 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" si="2"/>
-        <v>42761</v>
+        <v>42789</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
@@ -1153,7 +1155,7 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" si="2"/>
-        <v>42768</v>
+        <v>42796</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
@@ -1165,7 +1167,7 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" si="2"/>
-        <v>42775</v>
+        <v>42803</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
@@ -1177,7 +1179,7 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="2"/>
-        <v>42782</v>
+        <v>42810</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
@@ -1189,7 +1191,7 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" si="2"/>
-        <v>42789</v>
+        <v>42817</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -28,15 +28,9 @@
     <t>Senior Lecturer</t>
   </si>
   <si>
-    <t>Seyed-Mehdi-Reza Beheshti</t>
-  </si>
-  <si>
     <t>Senior Research Associate</t>
   </si>
   <si>
-    <t>Boualem Benatallah</t>
-  </si>
-  <si>
     <t>Scienta Professor</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Associate Professor</t>
   </si>
   <si>
-    <t>Manuel Chakravarty</t>
-  </si>
-  <si>
     <t>ARC DECRA Fellow</t>
   </si>
   <si>
@@ -73,9 +64,6 @@
     <t>Research Associate</t>
   </si>
   <si>
-    <t>Oliver Diessel</t>
-  </si>
-  <si>
     <t>Kevin Elphinstone</t>
   </si>
   <si>
@@ -109,15 +97,9 @@
     <t>Senior Research Associate (Level B)</t>
   </si>
   <si>
-    <t>Zengfeng Huang</t>
-  </si>
-  <si>
     <t>Research Fellow</t>
   </si>
   <si>
-    <t>Aleksandar Ignjatovic</t>
-  </si>
-  <si>
     <t>Gabriele Keller</t>
   </si>
   <si>
@@ -130,12 +112,6 @@
     <t>Xuemin Lin</t>
   </si>
   <si>
-    <t>Eric Martin</t>
-  </si>
-  <si>
-    <t>Senior Lecturer &amp; Postgrad Coursework Academic Advisor</t>
-  </si>
-  <si>
     <t>Carroll Morgan</t>
   </si>
   <si>
@@ -148,12 +124,6 @@
     <t>UG Thesis Coordinator &amp; Senior Lecturer</t>
   </si>
   <si>
-    <t>Sri Parameswaran</t>
-  </si>
-  <si>
-    <t>Professor &amp; Postgraduate Research and Scholarship Co-ordinator</t>
-  </si>
-  <si>
     <t>Jianbin Qin</t>
   </si>
   <si>
@@ -166,21 +136,9 @@
     <t>Abdallah Saffidine</t>
   </si>
   <si>
-    <t>John Shepherd</t>
-  </si>
-  <si>
-    <t>Senior Lecturer &amp; Teaching Committee Chair</t>
-  </si>
-  <si>
     <t>Su Myat Min Shwe</t>
   </si>
   <si>
-    <t>Arcot Sowmya</t>
-  </si>
-  <si>
-    <t>Yulei Sui</t>
-  </si>
-  <si>
     <t>Andrew Taylor</t>
   </si>
   <si>
@@ -202,9 +160,6 @@
     <t>Raymond Wong</t>
   </si>
   <si>
-    <t>Ding Ye</t>
-  </si>
-  <si>
     <t>Eisa Zarepour</t>
   </si>
   <si>
@@ -224,22 +179,13 @@
   </si>
   <si>
     <t>CSE Seminar Series - Roster</t>
-  </si>
-  <si>
-    <t>ON FRIDAY DUE TO K17_113 AVAIL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,29 +236,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -376,16 +299,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -776,577 +696,393 @@
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
-        <v>42579</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
-        <v>42600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19">
-      <c r="A5" s="6" t="s">
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <f>C3+7</f>
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C33" si="0">C4+7</f>
+        <v>42831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>42838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>42852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
-        <f>C4+7</f>
-        <v>42607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4">
-        <f>C4+14</f>
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" ref="C7:C8" si="0">C5+14</f>
-        <v>42621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>42628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="4">
-        <v>42640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4">
-        <v>42642</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
-        <f>C10+7</f>
-        <v>42649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <f>C11+7</f>
-        <v>42656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <f>C12+7</f>
-        <v>42663</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="4">
-        <v>42671</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" s="4">
-        <f>C13+14</f>
-        <v>42677</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4">
-        <f>C15+7</f>
-        <v>42684</v>
+        <f t="shared" si="0"/>
+        <v>42908</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:C19" si="1">C16+7</f>
-        <v>42691</v>
+        <f t="shared" si="0"/>
+        <v>42915</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>42698</v>
+        <f t="shared" si="0"/>
+        <v>42922</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>42705</v>
+        <f t="shared" si="0"/>
+        <v>42929</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ref="C20:C35" si="2">C19+7</f>
-        <v>42712</v>
+        <f t="shared" si="0"/>
+        <v>42936</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42719</v>
+        <f t="shared" si="0"/>
+        <v>42943</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>42726</v>
+        <f t="shared" si="0"/>
+        <v>42950</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>42733</v>
+        <f t="shared" si="0"/>
+        <v>42957</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>42740</v>
+        <f t="shared" si="0"/>
+        <v>42964</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="2"/>
-        <v>42747</v>
+        <f t="shared" si="0"/>
+        <v>42971</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="2"/>
-        <v>42754</v>
+        <f t="shared" si="0"/>
+        <v>42978</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="2"/>
-        <v>42761</v>
+        <f t="shared" si="0"/>
+        <v>42985</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="2"/>
-        <v>42768</v>
+        <f t="shared" si="0"/>
+        <v>42992</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="2"/>
-        <v>42775</v>
+        <f t="shared" si="0"/>
+        <v>42999</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="2"/>
-        <v>42782</v>
+        <f t="shared" si="0"/>
+        <v>43006</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="2"/>
-        <v>42789</v>
+        <f t="shared" si="0"/>
+        <v>43013</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="2"/>
-        <v>42796</v>
+        <f t="shared" si="0"/>
+        <v>43020</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="2"/>
-        <v>42803</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="2"/>
-        <v>42810</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19">
-      <c r="A35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="2"/>
-        <v>42817</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4">
-        <v>42754</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19">
-      <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="4">
-        <f>C36+7</f>
-        <v>42761</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" ref="C38:C48" si="3">C37+7</f>
-        <v>42768</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19">
-      <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="3"/>
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="19">
-      <c r="A40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="3"/>
-        <v>42782</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="19">
-      <c r="A41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" si="3"/>
-        <v>42789</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="19">
-      <c r="A42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" si="3"/>
-        <v>42796</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="19">
-      <c r="A43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4">
-        <f t="shared" si="3"/>
-        <v>42803</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19">
-      <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" si="3"/>
-        <v>42810</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="19">
-      <c r="A45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="4">
-        <f t="shared" si="3"/>
-        <v>42817</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="19">
-      <c r="A46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4">
-        <f t="shared" si="3"/>
-        <v>42824</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="19">
-      <c r="A47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="3"/>
-        <v>42831</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="19">
-      <c r="A48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="3"/>
-        <v>42838</v>
+        <f t="shared" si="0"/>
+        <v>43027</v>
       </c>
     </row>
   </sheetData>
@@ -1354,50 +1090,35 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A11" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5"/>
-    <hyperlink ref="A48" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A6" r:id="rId8"/>
-    <hyperlink ref="A7" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A32" r:id="rId11"/>
-    <hyperlink ref="A35" r:id="rId12"/>
-    <hyperlink ref="A28" r:id="rId13"/>
-    <hyperlink ref="A45" r:id="rId14"/>
-    <hyperlink ref="A39" r:id="rId15"/>
-    <hyperlink ref="A30" r:id="rId16"/>
-    <hyperlink ref="A38" r:id="rId17"/>
-    <hyperlink ref="A43" r:id="rId18"/>
-    <hyperlink ref="A12" r:id="rId19"/>
-    <hyperlink ref="A37" r:id="rId20"/>
-    <hyperlink ref="A24" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A22" r:id="rId23"/>
-    <hyperlink ref="A19" r:id="rId24"/>
-    <hyperlink ref="A21" r:id="rId25"/>
-    <hyperlink ref="A31" r:id="rId26"/>
-    <hyperlink ref="A17" r:id="rId27"/>
-    <hyperlink ref="A25" r:id="rId28"/>
-    <hyperlink ref="A44" r:id="rId29"/>
-    <hyperlink ref="A41" r:id="rId30"/>
-    <hyperlink ref="A16" r:id="rId31"/>
-    <hyperlink ref="A47" r:id="rId32"/>
-    <hyperlink ref="A20" r:id="rId33"/>
-    <hyperlink ref="A42" r:id="rId34"/>
-    <hyperlink ref="A27" r:id="rId35"/>
-    <hyperlink ref="A46" r:id="rId36"/>
-    <hyperlink ref="A18" r:id="rId37"/>
-    <hyperlink ref="A29" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A26" r:id="rId40"/>
-    <hyperlink ref="A33" r:id="rId41"/>
-    <hyperlink ref="A36" r:id="rId42"/>
-    <hyperlink ref="A15" r:id="rId43"/>
-    <hyperlink ref="A13" r:id="rId44"/>
+    <hyperlink ref="A32" r:id="rId1"/>
+    <hyperlink ref="A16" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A12" r:id="rId4"/>
+    <hyperlink ref="A29" r:id="rId5"/>
+    <hyperlink ref="A23" r:id="rId6"/>
+    <hyperlink ref="A22" r:id="rId7"/>
+    <hyperlink ref="A27" r:id="rId8"/>
+    <hyperlink ref="A21" r:id="rId9"/>
+    <hyperlink ref="A8" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="A6" r:id="rId12"/>
+    <hyperlink ref="A4" r:id="rId13"/>
+    <hyperlink ref="A33" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A9" r:id="rId16"/>
+    <hyperlink ref="A28" r:id="rId17"/>
+    <hyperlink ref="A25" r:id="rId18"/>
+    <hyperlink ref="A31" r:id="rId19"/>
+    <hyperlink ref="A5" r:id="rId20"/>
+    <hyperlink ref="A26" r:id="rId21"/>
+    <hyperlink ref="A11" r:id="rId22"/>
+    <hyperlink ref="A30" r:id="rId23"/>
+    <hyperlink ref="A3" r:id="rId24"/>
+    <hyperlink ref="A13" r:id="rId25"/>
+    <hyperlink ref="A24" r:id="rId26"/>
+    <hyperlink ref="A10" r:id="rId27"/>
+    <hyperlink ref="A17" r:id="rId28"/>
+    <hyperlink ref="A20" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="5660" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>CSE Seminar Series - Roster</t>
+  </si>
+  <si>
+    <t>Seminar room booked</t>
   </si>
 </sst>
 </file>
@@ -254,9 +257,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -310,7 +316,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="46">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -352,6 +358,9 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -682,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -693,17 +702,18 @@
     <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1">
+    <row r="2" spans="1:4" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
@@ -714,7 +724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19">
+    <row r="3" spans="1:4" ht="19">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -725,7 +735,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19">
+    <row r="4" spans="1:4" ht="19">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -737,7 +747,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19">
+    <row r="5" spans="1:4" ht="19">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -745,344 +755,366 @@
         <v>22</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C33" si="0">C4+7</f>
+        <f t="shared" ref="C5:C35" si="0">C4+7</f>
         <v>42831</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
+        <f>C5+7</f>
+        <v>42838</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:C35" si="1">C6+7</f>
+        <v>42845</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>42838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>42852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>42845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>42852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19">
-      <c r="A9" s="1" t="s">
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>42859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19">
-      <c r="A11" s="1" t="s">
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>42873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19">
-      <c r="A12" s="1" t="s">
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19">
+      <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>42880</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19">
-      <c r="A13" s="1" t="s">
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>42887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>42894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>42901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42908</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42915</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42922</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42929</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42936</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42943</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42950</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42957</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42964</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42971</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42978</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42985</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42992</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42999</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43006</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43013</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43020</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4">
-        <f t="shared" si="0"/>
-        <v>43027</v>
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>43041</v>
       </c>
     </row>
   </sheetData>
@@ -1090,35 +1122,35 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1"/>
-    <hyperlink ref="A16" r:id="rId2"/>
-    <hyperlink ref="A19" r:id="rId3"/>
-    <hyperlink ref="A12" r:id="rId4"/>
-    <hyperlink ref="A29" r:id="rId5"/>
-    <hyperlink ref="A23" r:id="rId6"/>
-    <hyperlink ref="A22" r:id="rId7"/>
-    <hyperlink ref="A27" r:id="rId8"/>
-    <hyperlink ref="A21" r:id="rId9"/>
-    <hyperlink ref="A8" r:id="rId10"/>
-    <hyperlink ref="A7" r:id="rId11"/>
-    <hyperlink ref="A6" r:id="rId12"/>
+    <hyperlink ref="A34" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId2"/>
+    <hyperlink ref="A21" r:id="rId3"/>
+    <hyperlink ref="A14" r:id="rId4"/>
+    <hyperlink ref="A31" r:id="rId5"/>
+    <hyperlink ref="A25" r:id="rId6"/>
+    <hyperlink ref="A24" r:id="rId7"/>
+    <hyperlink ref="A29" r:id="rId8"/>
+    <hyperlink ref="A23" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="A8" r:id="rId12"/>
     <hyperlink ref="A4" r:id="rId13"/>
-    <hyperlink ref="A33" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A9" r:id="rId16"/>
-    <hyperlink ref="A28" r:id="rId17"/>
-    <hyperlink ref="A25" r:id="rId18"/>
-    <hyperlink ref="A31" r:id="rId19"/>
+    <hyperlink ref="A35" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A11" r:id="rId16"/>
+    <hyperlink ref="A30" r:id="rId17"/>
+    <hyperlink ref="A27" r:id="rId18"/>
+    <hyperlink ref="A33" r:id="rId19"/>
     <hyperlink ref="A5" r:id="rId20"/>
-    <hyperlink ref="A26" r:id="rId21"/>
-    <hyperlink ref="A11" r:id="rId22"/>
-    <hyperlink ref="A30" r:id="rId23"/>
+    <hyperlink ref="A28" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="A32" r:id="rId23"/>
     <hyperlink ref="A3" r:id="rId24"/>
-    <hyperlink ref="A13" r:id="rId25"/>
-    <hyperlink ref="A24" r:id="rId26"/>
-    <hyperlink ref="A10" r:id="rId27"/>
-    <hyperlink ref="A17" r:id="rId28"/>
-    <hyperlink ref="A20" r:id="rId29"/>
+    <hyperlink ref="A15" r:id="rId25"/>
+    <hyperlink ref="A26" r:id="rId26"/>
+    <hyperlink ref="A12" r:id="rId27"/>
+    <hyperlink ref="A19" r:id="rId28"/>
+    <hyperlink ref="A22" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="12620" yWindow="0" windowWidth="26480" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -316,7 +319,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -361,6 +364,9 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -691,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -724,24 +730,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:4">
       <c r="C3" s="4">
         <v>42817</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="1:4">
       <c r="C4" s="4">
         <f>C3+7</f>
         <v>42824</v>
@@ -749,13 +743,13 @@
     </row>
     <row r="5" spans="1:4" ht="19">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C35" si="0">C4+7</f>
+        <f>C4+7</f>
         <v>42831</v>
       </c>
     </row>
@@ -763,7 +757,6 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4">
-        <f>C5+7</f>
         <v>42838</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -774,7 +767,6 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:C35" si="1">C6+7</f>
         <v>42845</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -783,338 +775,358 @@
     </row>
     <row r="8" spans="1:4" ht="19">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="1"/>
+        <f>C7+7</f>
         <v>42852</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C9:C36" si="0">C8+7</f>
         <v>42859</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42866</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42873</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42880</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42887</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42894</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42901</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42908</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42915</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42922</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42929</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42936</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42943</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42950</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42957</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42964</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42971</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42978</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42985</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42992</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42999</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43006</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43013</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43020</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43027</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43034</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
+        <v>43048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="1"/>
-        <v>43041</v>
       </c>
     </row>
   </sheetData>
@@ -1122,35 +1134,35 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1"/>
-    <hyperlink ref="A18" r:id="rId2"/>
-    <hyperlink ref="A21" r:id="rId3"/>
-    <hyperlink ref="A14" r:id="rId4"/>
-    <hyperlink ref="A31" r:id="rId5"/>
-    <hyperlink ref="A25" r:id="rId6"/>
-    <hyperlink ref="A24" r:id="rId7"/>
-    <hyperlink ref="A29" r:id="rId8"/>
-    <hyperlink ref="A23" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A9" r:id="rId11"/>
-    <hyperlink ref="A8" r:id="rId12"/>
-    <hyperlink ref="A4" r:id="rId13"/>
-    <hyperlink ref="A35" r:id="rId14"/>
-    <hyperlink ref="A17" r:id="rId15"/>
-    <hyperlink ref="A11" r:id="rId16"/>
-    <hyperlink ref="A30" r:id="rId17"/>
-    <hyperlink ref="A27" r:id="rId18"/>
-    <hyperlink ref="A33" r:id="rId19"/>
-    <hyperlink ref="A5" r:id="rId20"/>
-    <hyperlink ref="A28" r:id="rId21"/>
-    <hyperlink ref="A13" r:id="rId22"/>
-    <hyperlink ref="A32" r:id="rId23"/>
-    <hyperlink ref="A3" r:id="rId24"/>
-    <hyperlink ref="A15" r:id="rId25"/>
-    <hyperlink ref="A26" r:id="rId26"/>
-    <hyperlink ref="A12" r:id="rId27"/>
-    <hyperlink ref="A19" r:id="rId28"/>
-    <hyperlink ref="A22" r:id="rId29"/>
+    <hyperlink ref="A36" r:id="rId1"/>
+    <hyperlink ref="A20" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A16" r:id="rId4"/>
+    <hyperlink ref="A33" r:id="rId5"/>
+    <hyperlink ref="A27" r:id="rId6"/>
+    <hyperlink ref="A26" r:id="rId7"/>
+    <hyperlink ref="A31" r:id="rId8"/>
+    <hyperlink ref="A25" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A10" r:id="rId12"/>
+    <hyperlink ref="A9" r:id="rId13"/>
+    <hyperlink ref="A37" r:id="rId14"/>
+    <hyperlink ref="A19" r:id="rId15"/>
+    <hyperlink ref="A13" r:id="rId16"/>
+    <hyperlink ref="A32" r:id="rId17"/>
+    <hyperlink ref="A29" r:id="rId18"/>
+    <hyperlink ref="A35" r:id="rId19"/>
+    <hyperlink ref="A8" r:id="rId20"/>
+    <hyperlink ref="A30" r:id="rId21"/>
+    <hyperlink ref="A15" r:id="rId22"/>
+    <hyperlink ref="A34" r:id="rId23"/>
+    <hyperlink ref="A5" r:id="rId24"/>
+    <hyperlink ref="A17" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26"/>
+    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="A21" r:id="rId28"/>
+    <hyperlink ref="A24" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebonilla/Documents/ebonilla.github.io/cse-seminars/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="0" windowWidth="26480" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="72" codePage="10000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -372,6 +380,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -697,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -712,14 +725,14 @@
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
@@ -730,30 +743,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
         <v>42817</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="4">
         <f>C3+7</f>
         <v>42824</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <f>C4+7</f>
         <v>42831</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4">
@@ -763,7 +770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4">
@@ -773,7 +780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -785,7 +792,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -797,7 +804,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -809,7 +816,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -821,7 +828,7 @@
         <v>42873</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -833,7 +840,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -845,7 +852,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,7 +864,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -869,7 +876,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -881,7 +888,7 @@
         <v>42908</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -893,7 +900,7 @@
         <v>42915</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -905,7 +912,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -917,7 +924,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -929,7 +936,7 @@
         <v>42936</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -941,7 +948,7 @@
         <v>42943</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,7 +960,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -965,7 +972,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +984,7 @@
         <v>42964</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -989,7 +996,7 @@
         <v>42971</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1001,7 +1008,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1032,7 @@
         <v>42992</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1037,7 +1044,7 @@
         <v>42999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1061,7 +1068,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1085,7 +1092,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1104,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -1121,12 +1128,20 @@
         <v>43048</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1172,7 @@
     <hyperlink ref="A30" r:id="rId21"/>
     <hyperlink ref="A15" r:id="rId22"/>
     <hyperlink ref="A34" r:id="rId23"/>
-    <hyperlink ref="A5" r:id="rId24"/>
+    <hyperlink ref="A38" r:id="rId24"/>
     <hyperlink ref="A17" r:id="rId25"/>
     <hyperlink ref="A28" r:id="rId26"/>
     <hyperlink ref="A14" r:id="rId27"/>
@@ -1166,10 +1181,5 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>David Rajaratnam</t>
-  </si>
-  <si>
-    <t>Mohsen Rezvani</t>
   </si>
   <si>
     <t>Abdallah Saffidine</t>
@@ -710,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -727,20 +724,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,7 +764,7 @@
         <v>42838</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +774,7 @@
         <v>42845</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:C36" si="0">C8+7</f>
+        <f t="shared" ref="C9:C35" si="0">C8+7</f>
         <v>42859</v>
       </c>
     </row>
@@ -821,19 +818,19 @@
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
+        <f>C10+7</f>
         <v>42873</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
@@ -842,10 +839,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
@@ -854,10 +851,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
@@ -866,10 +863,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
@@ -878,10 +875,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
@@ -890,10 +887,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
@@ -902,10 +899,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
@@ -914,10 +911,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
@@ -926,10 +923,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
@@ -938,10 +935,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
@@ -950,10 +947,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
@@ -962,10 +959,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
@@ -974,10 +971,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
@@ -986,10 +983,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
@@ -998,10 +995,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -1010,10 +1007,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
@@ -1022,10 +1019,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
@@ -1034,10 +1031,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
@@ -1046,10 +1043,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
@@ -1058,10 +1055,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
@@ -1070,10 +1067,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
@@ -1082,10 +1079,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
@@ -1094,10 +1091,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
@@ -1106,10 +1103,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
@@ -1118,29 +1115,17 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="0"/>
-        <v>43048</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1149,35 +1134,34 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1"/>
-    <hyperlink ref="A20" r:id="rId2"/>
-    <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A16" r:id="rId4"/>
-    <hyperlink ref="A33" r:id="rId5"/>
-    <hyperlink ref="A27" r:id="rId6"/>
-    <hyperlink ref="A26" r:id="rId7"/>
-    <hyperlink ref="A31" r:id="rId8"/>
-    <hyperlink ref="A25" r:id="rId9"/>
-    <hyperlink ref="A12" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A10" r:id="rId12"/>
-    <hyperlink ref="A9" r:id="rId13"/>
-    <hyperlink ref="A37" r:id="rId14"/>
-    <hyperlink ref="A19" r:id="rId15"/>
-    <hyperlink ref="A13" r:id="rId16"/>
-    <hyperlink ref="A32" r:id="rId17"/>
-    <hyperlink ref="A29" r:id="rId18"/>
-    <hyperlink ref="A35" r:id="rId19"/>
-    <hyperlink ref="A8" r:id="rId20"/>
-    <hyperlink ref="A30" r:id="rId21"/>
-    <hyperlink ref="A15" r:id="rId22"/>
-    <hyperlink ref="A34" r:id="rId23"/>
-    <hyperlink ref="A38" r:id="rId24"/>
-    <hyperlink ref="A17" r:id="rId25"/>
-    <hyperlink ref="A28" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A21" r:id="rId28"/>
-    <hyperlink ref="A24" r:id="rId29"/>
+    <hyperlink ref="A35" r:id="rId1"/>
+    <hyperlink ref="A19" r:id="rId2"/>
+    <hyperlink ref="A22" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A32" r:id="rId5"/>
+    <hyperlink ref="A26" r:id="rId6"/>
+    <hyperlink ref="A25" r:id="rId7"/>
+    <hyperlink ref="A30" r:id="rId8"/>
+    <hyperlink ref="A24" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="A9" r:id="rId12"/>
+    <hyperlink ref="A36" r:id="rId13"/>
+    <hyperlink ref="A18" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="A31" r:id="rId16"/>
+    <hyperlink ref="A28" r:id="rId17"/>
+    <hyperlink ref="A34" r:id="rId18"/>
+    <hyperlink ref="A8" r:id="rId19"/>
+    <hyperlink ref="A29" r:id="rId20"/>
+    <hyperlink ref="A14" r:id="rId21"/>
+    <hyperlink ref="A33" r:id="rId22"/>
+    <hyperlink ref="A37" r:id="rId23"/>
+    <hyperlink ref="A16" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A13" r:id="rId26"/>
+    <hyperlink ref="A20" r:id="rId27"/>
+    <hyperlink ref="A23" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -187,13 +187,22 @@
   </si>
   <si>
     <t>Seminar room booked</t>
+  </si>
+  <si>
+    <t>David Pearce</t>
+  </si>
+  <si>
+    <t>Victoria University of Wellington</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> External</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +253,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +345,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +355,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -707,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -790,13 +825,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="9">
         <f t="shared" ref="C9:C35" si="0">C8+7</f>
         <v>42859</v>
       </c>
@@ -814,13 +849,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="9">
         <f>C10+7</f>
         <v>42873</v>
       </c>
@@ -833,20 +868,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>42880</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>42887</v>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>42901</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,7 +892,7 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>42894</v>
+        <v>42908</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +904,7 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>42901</v>
+        <v>42915</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,10 +916,10 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -894,10 +928,10 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>42915</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -906,226 +940,237 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>42943</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>42929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>42936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" si="0"/>
-        <v>42943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>42964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
-        <v>42950</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>42971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
-        <v>42957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>42978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4">
-        <f t="shared" si="0"/>
-        <v>42964</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>42985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4">
-        <f t="shared" si="0"/>
-        <v>42971</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>42978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>42999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4">
-        <f t="shared" si="0"/>
-        <v>42985</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="0"/>
-        <v>42992</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <f t="shared" si="0"/>
-        <v>42999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" si="0"/>
-        <v>43006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="4">
-        <f t="shared" si="0"/>
-        <v>43013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
-        <v>43020</v>
+        <v>43034</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
-        <v>43027</v>
+        <v>43041</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
-        <v>43034</v>
+        <v>43048</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
-        <v>43041</v>
+        <v>43055</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1134,34 +1179,34 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1"/>
-    <hyperlink ref="A19" r:id="rId2"/>
-    <hyperlink ref="A22" r:id="rId3"/>
+    <hyperlink ref="A36" r:id="rId1"/>
+    <hyperlink ref="A20" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
     <hyperlink ref="A15" r:id="rId4"/>
-    <hyperlink ref="A32" r:id="rId5"/>
-    <hyperlink ref="A26" r:id="rId6"/>
-    <hyperlink ref="A25" r:id="rId7"/>
-    <hyperlink ref="A30" r:id="rId8"/>
-    <hyperlink ref="A24" r:id="rId9"/>
+    <hyperlink ref="A33" r:id="rId5"/>
+    <hyperlink ref="A27" r:id="rId6"/>
+    <hyperlink ref="A26" r:id="rId7"/>
+    <hyperlink ref="A31" r:id="rId8"/>
+    <hyperlink ref="A25" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A10" r:id="rId11"/>
     <hyperlink ref="A9" r:id="rId12"/>
-    <hyperlink ref="A36" r:id="rId13"/>
+    <hyperlink ref="A37" r:id="rId13"/>
     <hyperlink ref="A18" r:id="rId14"/>
     <hyperlink ref="A12" r:id="rId15"/>
-    <hyperlink ref="A31" r:id="rId16"/>
-    <hyperlink ref="A28" r:id="rId17"/>
-    <hyperlink ref="A34" r:id="rId18"/>
+    <hyperlink ref="A32" r:id="rId16"/>
+    <hyperlink ref="A29" r:id="rId17"/>
+    <hyperlink ref="A35" r:id="rId18"/>
     <hyperlink ref="A8" r:id="rId19"/>
-    <hyperlink ref="A29" r:id="rId20"/>
+    <hyperlink ref="A30" r:id="rId20"/>
     <hyperlink ref="A14" r:id="rId21"/>
-    <hyperlink ref="A33" r:id="rId22"/>
-    <hyperlink ref="A37" r:id="rId23"/>
+    <hyperlink ref="A34" r:id="rId22"/>
+    <hyperlink ref="A38" r:id="rId23"/>
     <hyperlink ref="A16" r:id="rId24"/>
-    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId25"/>
     <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A20" r:id="rId27"/>
-    <hyperlink ref="A23" r:id="rId28"/>
+    <hyperlink ref="A21" r:id="rId27"/>
+    <hyperlink ref="A24" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t xml:space="preserve"> External</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Tentative</t>
   </si>
 </sst>
 </file>
@@ -352,12 +358,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -742,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -758,11 +764,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -825,13 +831,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f t="shared" ref="C9:C35" si="0">C8+7</f>
         <v>42859</v>
       </c>
@@ -849,13 +855,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f>C10+7</f>
         <v>42873</v>
       </c>
@@ -872,13 +878,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>42901</v>
       </c>
@@ -894,14 +900,13 @@
         <f t="shared" si="0"/>
         <v>42908</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>42915</v>
@@ -960,34 +965,40 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>42950</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>42957</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
@@ -996,10 +1007,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
@@ -1008,10 +1019,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
@@ -1020,10 +1031,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
@@ -1032,10 +1043,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -1044,10 +1055,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
@@ -1056,10 +1067,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
@@ -1068,10 +1079,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
@@ -1080,10 +1091,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
@@ -1092,10 +1103,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
@@ -1104,10 +1115,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
@@ -1116,10 +1127,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
@@ -1128,10 +1139,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
@@ -1140,10 +1151,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
@@ -1152,25 +1163,41 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1179,34 +1206,35 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1"/>
-    <hyperlink ref="A20" r:id="rId2"/>
-    <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A15" r:id="rId4"/>
-    <hyperlink ref="A33" r:id="rId5"/>
-    <hyperlink ref="A27" r:id="rId6"/>
-    <hyperlink ref="A26" r:id="rId7"/>
-    <hyperlink ref="A31" r:id="rId8"/>
-    <hyperlink ref="A25" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A10" r:id="rId11"/>
-    <hyperlink ref="A9" r:id="rId12"/>
-    <hyperlink ref="A37" r:id="rId13"/>
-    <hyperlink ref="A18" r:id="rId14"/>
-    <hyperlink ref="A12" r:id="rId15"/>
-    <hyperlink ref="A32" r:id="rId16"/>
-    <hyperlink ref="A29" r:id="rId17"/>
-    <hyperlink ref="A35" r:id="rId18"/>
-    <hyperlink ref="A8" r:id="rId19"/>
-    <hyperlink ref="A30" r:id="rId20"/>
-    <hyperlink ref="A14" r:id="rId21"/>
-    <hyperlink ref="A34" r:id="rId22"/>
-    <hyperlink ref="A38" r:id="rId23"/>
-    <hyperlink ref="A16" r:id="rId24"/>
-    <hyperlink ref="A28" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A21" r:id="rId27"/>
-    <hyperlink ref="A24" r:id="rId28"/>
+    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId3"/>
+    <hyperlink ref="A18" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A14" r:id="rId7"/>
+    <hyperlink ref="A40" r:id="rId8"/>
+    <hyperlink ref="A16" r:id="rId9"/>
+    <hyperlink ref="A13" r:id="rId10"/>
+    <hyperlink ref="A26" r:id="rId11"/>
+    <hyperlink ref="A23" r:id="rId12"/>
+    <hyperlink ref="A30" r:id="rId13"/>
+    <hyperlink ref="A36" r:id="rId14"/>
+    <hyperlink ref="A32" r:id="rId15"/>
+    <hyperlink ref="A37" r:id="rId16"/>
+    <hyperlink ref="A31" r:id="rId17"/>
+    <hyperlink ref="A34" r:id="rId18"/>
+    <hyperlink ref="A39" r:id="rId19"/>
+    <hyperlink ref="A27" r:id="rId20"/>
+    <hyperlink ref="A33" r:id="rId21"/>
+    <hyperlink ref="A28" r:id="rId22"/>
+    <hyperlink ref="A29" r:id="rId23"/>
+    <hyperlink ref="A35" r:id="rId24"/>
+    <hyperlink ref="A25" r:id="rId25"/>
+    <hyperlink ref="A22" r:id="rId26"/>
+    <hyperlink ref="A38" r:id="rId27"/>
+    <hyperlink ref="A20" r:id="rId28"/>
+    <hyperlink ref="A21" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Confirmed</t>
-  </si>
-  <si>
-    <t>Tentative</t>
   </si>
 </sst>
 </file>
@@ -750,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -990,7 +987,7 @@
         <v>42957</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -748,7 +748,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -887,26 +887,24 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="4">
+        <f>C13+7</f>
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>42915</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
+        <f>C15+7</f>
         <v>42922</v>
       </c>
     </row>
@@ -1209,7 +1207,7 @@
     <hyperlink ref="A18" r:id="rId4"/>
     <hyperlink ref="A12" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A14" r:id="rId7"/>
+    <hyperlink ref="A15" r:id="rId7"/>
     <hyperlink ref="A40" r:id="rId8"/>
     <hyperlink ref="A16" r:id="rId9"/>
     <hyperlink ref="A13" r:id="rId10"/>

--- a/cse-seminars/cse-seminars-roster.xlsx
+++ b/cse-seminars/cse-seminars-roster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Mike Bain</t>
   </si>
@@ -745,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -908,24 +908,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C16" s="4">
         <f>C15+7</f>
         <v>42922</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>42929</v>
@@ -933,14 +921,17 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>42936</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,10 +981,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
@@ -1002,10 +993,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
@@ -1014,10 +1005,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
@@ -1026,10 +1017,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
@@ -1038,10 +1029,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -1050,10 +1041,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
@@ -1062,10 +1053,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
@@ -1074,10 +1065,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
@@ -1086,10 +1077,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
@@ -1098,10 +1089,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
@@ -1110,10 +1101,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
@@ -1122,7 +1113,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -1134,10 +1125,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
@@ -1146,10 +1137,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
@@ -1158,7 +1149,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -1166,33 +1157,57 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1204,32 +1219,33 @@
     <hyperlink ref="A11" r:id="rId1"/>
     <hyperlink ref="A10" r:id="rId2"/>
     <hyperlink ref="A9" r:id="rId3"/>
-    <hyperlink ref="A18" r:id="rId4"/>
+    <hyperlink ref="A24" r:id="rId4"/>
     <hyperlink ref="A12" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A15" r:id="rId7"/>
-    <hyperlink ref="A40" r:id="rId8"/>
-    <hyperlink ref="A16" r:id="rId9"/>
+    <hyperlink ref="A43" r:id="rId8"/>
+    <hyperlink ref="A22" r:id="rId9"/>
     <hyperlink ref="A13" r:id="rId10"/>
-    <hyperlink ref="A26" r:id="rId11"/>
-    <hyperlink ref="A23" r:id="rId12"/>
-    <hyperlink ref="A30" r:id="rId13"/>
-    <hyperlink ref="A36" r:id="rId14"/>
-    <hyperlink ref="A32" r:id="rId15"/>
-    <hyperlink ref="A37" r:id="rId16"/>
-    <hyperlink ref="A31" r:id="rId17"/>
-    <hyperlink ref="A34" r:id="rId18"/>
-    <hyperlink ref="A39" r:id="rId19"/>
-    <hyperlink ref="A27" r:id="rId20"/>
-    <hyperlink ref="A33" r:id="rId21"/>
-    <hyperlink ref="A28" r:id="rId22"/>
-    <hyperlink ref="A29" r:id="rId23"/>
-    <hyperlink ref="A35" r:id="rId24"/>
-    <hyperlink ref="A25" r:id="rId25"/>
-    <hyperlink ref="A22" r:id="rId26"/>
-    <hyperlink ref="A38" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId11"/>
+    <hyperlink ref="A26" r:id="rId12"/>
+    <hyperlink ref="A33" r:id="rId13"/>
+    <hyperlink ref="A39" r:id="rId14"/>
+    <hyperlink ref="A35" r:id="rId15"/>
+    <hyperlink ref="A40" r:id="rId16"/>
+    <hyperlink ref="A34" r:id="rId17"/>
+    <hyperlink ref="A37" r:id="rId18"/>
+    <hyperlink ref="A42" r:id="rId19"/>
+    <hyperlink ref="A30" r:id="rId20"/>
+    <hyperlink ref="A36" r:id="rId21"/>
+    <hyperlink ref="A31" r:id="rId22"/>
+    <hyperlink ref="A32" r:id="rId23"/>
+    <hyperlink ref="A38" r:id="rId24"/>
+    <hyperlink ref="A28" r:id="rId25"/>
+    <hyperlink ref="A25" r:id="rId26"/>
+    <hyperlink ref="A41" r:id="rId27"/>
     <hyperlink ref="A20" r:id="rId28"/>
     <hyperlink ref="A21" r:id="rId29"/>
+    <hyperlink ref="A18" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
